--- a/data/toothpaste_bf2.xlsx
+++ b/data/toothpaste_bf2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/Math326DoE/Math326_Quarto4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{1530781B-6E7F-4C73-ADF8-9272CFAEB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{859CC5A7-D958-4CD3-8225-72FB2C296660}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{1530781B-6E7F-4C73-ADF8-9272CFAEB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{289197B9-8587-418F-80A3-70088B78464D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -2409,59 +2409,65 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2469,25 +2475,19 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3220,12 +3220,12 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
       <c r="L2" s="75" t="s">
         <v>4</v>
       </c>
@@ -3626,12 +3626,12 @@
       <c r="E12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
       <c r="L12" s="18" t="s">
         <v>4</v>
       </c>
@@ -3644,12 +3644,12 @@
       <c r="O12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="100" t="s">
+      <c r="Q12" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
     </row>
     <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
@@ -4086,12 +4086,12 @@
       <c r="E24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="100" t="s">
+      <c r="G24" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
       <c r="L24" s="18" t="s">
         <v>4</v>
       </c>
@@ -4104,12 +4104,12 @@
       <c r="O24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="106" t="s">
+      <c r="Q24" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
+      <c r="R24" s="114"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
     </row>
     <row r="25" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
@@ -4315,12 +4315,12 @@
       <c r="E34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="100" t="s">
+      <c r="G34" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
       <c r="L34" s="18" t="s">
         <v>4</v>
       </c>
@@ -4333,12 +4333,12 @@
       <c r="O34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="106" t="s">
+      <c r="Q34" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="106"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
     </row>
     <row r="35" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="32" t="s">
@@ -4353,22 +4353,22 @@
       <c r="E35" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="109"/>
-      <c r="L35" s="103" t="s">
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="104"/>
+      <c r="L35" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="M35" s="103" t="s">
+      <c r="M35" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="103" t="s">
+      <c r="N35" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="O35" s="103" t="s">
+      <c r="O35" s="111" t="s">
         <v>90</v>
       </c>
       <c r="Q35" s="88" t="s">
@@ -4397,14 +4397,14 @@
       <c r="E36" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="110"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="112"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="107"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="112"/>
       <c r="Q36" s="88" t="s">
         <v>92</v>
       </c>
@@ -4434,17 +4434,17 @@
       <c r="F37" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="110"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="112"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="107"/>
       <c r="K37" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="104"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
       <c r="P37" s="29" t="s">
         <v>60</v>
       </c>
@@ -4474,14 +4474,14 @@
       <c r="E38" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="110"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="112"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="112"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="112"/>
       <c r="Q38" s="88" t="s">
         <v>95</v>
       </c>
@@ -4508,14 +4508,14 @@
       <c r="E39" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="110"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="112"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="107"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
       <c r="Q39" s="88" t="s">
         <v>96</v>
       </c>
@@ -4542,14 +4542,14 @@
       <c r="E40" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="113"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="115"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="110"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
       <c r="Q40" s="88" t="s">
         <v>97</v>
       </c>
@@ -4587,12 +4587,12 @@
       <c r="E45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="100" t="s">
+      <c r="G45" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
       <c r="L45" s="18" t="s">
         <v>4</v>
       </c>
@@ -4605,26 +4605,26 @@
       <c r="O45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q45" s="100" t="s">
+      <c r="Q45" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="R45" s="100"/>
-      <c r="S45" s="100"/>
-      <c r="T45" s="100"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
     </row>
     <row r="46" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="56"/>
       <c r="C46" s="56"/>
       <c r="D46" s="56"/>
       <c r="E46" s="56"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="109"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="103"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="103"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="104"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
       <c r="Q46" s="56"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -4635,14 +4635,14 @@
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
       <c r="E47" s="56"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="112"/>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104"/>
-      <c r="N47" s="104"/>
-      <c r="O47" s="104"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="107"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
       <c r="Q47" s="56"/>
       <c r="R47" s="56"/>
       <c r="S47" s="56"/>
@@ -4656,17 +4656,17 @@
       <c r="F48" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="110"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="112"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="107"/>
       <c r="K48" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="104"/>
-      <c r="M48" s="104"/>
-      <c r="N48" s="104"/>
-      <c r="O48" s="104"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="112"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="112"/>
       <c r="P48" s="29" t="s">
         <v>60</v>
       </c>
@@ -4680,14 +4680,14 @@
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="112"/>
-      <c r="L49" s="104"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="104"/>
-      <c r="O49" s="104"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="107"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="112"/>
       <c r="Q49" s="56"/>
       <c r="R49" s="56"/>
       <c r="S49" s="56"/>
@@ -4698,14 +4698,14 @@
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
       <c r="E50" s="56"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="112"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="104"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="107"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
       <c r="Q50" s="56"/>
       <c r="R50" s="56"/>
       <c r="S50" s="56"/>
@@ -4716,53 +4716,53 @@
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
       <c r="E51" s="56"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="115"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105"/>
-      <c r="O51" s="105"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="110"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="O51" s="113"/>
       <c r="Q51" s="56"/>
       <c r="R51" s="56"/>
       <c r="S51" s="56"/>
       <c r="T51" s="56"/>
     </row>
     <row r="53" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
       <c r="F53" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="98" t="s">
+      <c r="G53" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
       <c r="K53" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L53" s="98" t="s">
+      <c r="L53" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="M53" s="98"/>
-      <c r="N53" s="98"/>
-      <c r="O53" s="98"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
       <c r="P53" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="Q53" s="98" t="s">
+      <c r="Q53" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="R53" s="98"/>
-      <c r="S53" s="98"/>
-      <c r="T53" s="98"/>
+      <c r="R53" s="100"/>
+      <c r="S53" s="100"/>
+      <c r="T53" s="100"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="52"/>
@@ -4771,24 +4771,24 @@
       </c>
       <c r="D59" s="52"/>
       <c r="E59" s="52"/>
-      <c r="G59" s="100" t="s">
+      <c r="G59" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="100"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="101"/>
       <c r="L59" s="99" t="s">
         <v>143</v>
       </c>
       <c r="M59" s="99"/>
       <c r="N59" s="99"/>
       <c r="O59" s="99"/>
-      <c r="Q59" s="100" t="s">
+      <c r="Q59" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="R59" s="100"/>
-      <c r="S59" s="100"/>
-      <c r="T59" s="100"/>
+      <c r="R59" s="101"/>
+      <c r="S59" s="101"/>
+      <c r="T59" s="101"/>
     </row>
     <row r="60" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42"/>
@@ -4797,15 +4797,15 @@
       <c r="D60" s="56"/>
       <c r="E60" s="56"/>
       <c r="F60" s="47"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="102"/>
-      <c r="I60" s="102"/>
-      <c r="J60" s="102"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
       <c r="K60" s="47"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="103"/>
-      <c r="N60" s="103"/>
-      <c r="O60" s="103"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="111"/>
+      <c r="N60" s="111"/>
+      <c r="O60" s="111"/>
       <c r="Q60" s="56"/>
       <c r="R60" s="56"/>
       <c r="S60" s="56"/>
@@ -4818,15 +4818,15 @@
       <c r="D61" s="56"/>
       <c r="E61" s="56"/>
       <c r="F61" s="47"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="102"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="116"/>
       <c r="K61" s="47"/>
-      <c r="L61" s="104"/>
-      <c r="M61" s="104"/>
-      <c r="N61" s="104"/>
-      <c r="O61" s="104"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="112"/>
+      <c r="N61" s="112"/>
+      <c r="O61" s="112"/>
       <c r="Q61" s="56"/>
       <c r="R61" s="56"/>
       <c r="S61" s="56"/>
@@ -4841,17 +4841,17 @@
       <c r="F62" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="102"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="116"/>
       <c r="K62" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="L62" s="104"/>
-      <c r="M62" s="104"/>
-      <c r="N62" s="104"/>
-      <c r="O62" s="104"/>
+      <c r="L62" s="112"/>
+      <c r="M62" s="112"/>
+      <c r="N62" s="112"/>
+      <c r="O62" s="112"/>
       <c r="P62" s="29" t="s">
         <v>60</v>
       </c>
@@ -4867,14 +4867,14 @@
       <c r="D63" s="56"/>
       <c r="E63" s="56"/>
       <c r="F63" s="47"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="102"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="102"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="104"/>
-      <c r="N63" s="104"/>
-      <c r="O63" s="104"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="112"/>
+      <c r="N63" s="112"/>
+      <c r="O63" s="112"/>
       <c r="Q63" s="56"/>
       <c r="R63" s="56"/>
       <c r="S63" s="56"/>
@@ -4887,14 +4887,14 @@
       <c r="D64" s="56"/>
       <c r="E64" s="56"/>
       <c r="F64" s="47"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="102"/>
-      <c r="L64" s="104"/>
-      <c r="M64" s="104"/>
-      <c r="N64" s="104"/>
-      <c r="O64" s="104"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="116"/>
+      <c r="L64" s="112"/>
+      <c r="M64" s="112"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="112"/>
       <c r="Q64" s="56"/>
       <c r="R64" s="56"/>
       <c r="S64" s="56"/>
@@ -4907,14 +4907,14 @@
       <c r="D65" s="56"/>
       <c r="E65" s="56"/>
       <c r="F65" s="47"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
-      <c r="I65" s="102"/>
-      <c r="J65" s="102"/>
-      <c r="L65" s="105"/>
-      <c r="M65" s="105"/>
-      <c r="N65" s="105"/>
-      <c r="O65" s="105"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116"/>
+      <c r="L65" s="113"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
+      <c r="O65" s="113"/>
       <c r="Q65" s="56"/>
       <c r="R65" s="56"/>
       <c r="S65" s="56"/>
@@ -4927,42 +4927,66 @@
       <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B67" s="98" t="s">
+      <c r="B67" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="100"/>
       <c r="F67" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="98" t="s">
+      <c r="G67" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="H67" s="98"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="98"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="100"/>
       <c r="K67" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L67" s="98" t="s">
+      <c r="L67" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="M67" s="98"/>
-      <c r="N67" s="98"/>
-      <c r="O67" s="98"/>
+      <c r="M67" s="100"/>
+      <c r="N67" s="100"/>
+      <c r="O67" s="100"/>
       <c r="P67" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="98" t="s">
+      <c r="Q67" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="R67" s="98"/>
-      <c r="S67" s="98"/>
-      <c r="T67" s="98"/>
+      <c r="R67" s="100"/>
+      <c r="S67" s="100"/>
+      <c r="T67" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="G60:J65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="O60:O65"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="G35:J40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="L33:O33"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="G53:J53"/>
@@ -4979,30 +5003,6 @@
     <mergeCell ref="O46:O51"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="G24:J24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G35:J40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="G60:J65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="N60:N65"/>
-    <mergeCell ref="O60:O65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5548,7 +5548,7 @@
       <c r="S7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="116" t="s">
+      <c r="U7" s="118" t="s">
         <v>37</v>
       </c>
       <c r="V7" s="9" t="s">
@@ -5560,7 +5560,7 @@
       <c r="X7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="116" t="s">
+      <c r="Z7" s="118" t="s">
         <v>37</v>
       </c>
       <c r="AA7" s="9" t="s">
@@ -5592,7 +5592,7 @@
       <c r="S8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="116"/>
+      <c r="U8" s="118"/>
       <c r="V8" s="15" t="s">
         <v>26</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="X8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="116"/>
+      <c r="Z8" s="118"/>
       <c r="AA8" s="15" t="s">
         <v>26</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="S9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="117" t="s">
+      <c r="U9" s="119" t="s">
         <v>38</v>
       </c>
       <c r="V9" s="12" t="s">
@@ -5644,7 +5644,7 @@
       <c r="X9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="117" t="s">
+      <c r="Z9" s="119" t="s">
         <v>38</v>
       </c>
       <c r="AA9" s="12" t="s">
@@ -5667,7 +5667,7 @@
       <c r="S10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="117"/>
+      <c r="U10" s="119"/>
       <c r="V10" s="15" t="s">
         <v>28</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="X10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="117"/>
+      <c r="Z10" s="119"/>
       <c r="AA10" s="15" t="s">
         <v>28</v>
       </c>
@@ -5793,24 +5793,24 @@
       </c>
     </row>
     <row r="26" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="AB26" s="118" t="s">
+      <c r="AB26" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="118"/>
-      <c r="AE26" s="118"/>
-      <c r="AH26" s="118" t="s">
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="117"/>
+      <c r="AH26" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="AI26" s="118"/>
-      <c r="AJ26" s="118"/>
-      <c r="AK26" s="118"/>
-      <c r="AN26" s="118" t="s">
+      <c r="AI26" s="117"/>
+      <c r="AJ26" s="117"/>
+      <c r="AK26" s="117"/>
+      <c r="AN26" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="AO26" s="118"/>
-      <c r="AP26" s="118"/>
-      <c r="AQ26" s="118"/>
+      <c r="AO26" s="117"/>
+      <c r="AP26" s="117"/>
+      <c r="AQ26" s="117"/>
     </row>
     <row r="27" spans="7:43" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
@@ -5939,7 +5939,7 @@
       <c r="AE28" s="11">
         <v>24.39</v>
       </c>
-      <c r="AG28" s="116" t="s">
+      <c r="AG28" s="118" t="s">
         <v>117</v>
       </c>
       <c r="AH28" s="9">
@@ -5954,7 +5954,7 @@
       <c r="AK28" s="11">
         <v>24.39</v>
       </c>
-      <c r="AM28" s="116" t="s">
+      <c r="AM28" s="118" t="s">
         <v>117</v>
       </c>
       <c r="AN28" s="9">
@@ -6025,7 +6025,7 @@
       <c r="AE29" s="14">
         <v>21.45</v>
       </c>
-      <c r="AG29" s="116"/>
+      <c r="AG29" s="118"/>
       <c r="AH29" s="12">
         <v>24.21</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="AK29" s="14">
         <v>21.45</v>
       </c>
-      <c r="AM29" s="116"/>
+      <c r="AM29" s="118"/>
       <c r="AN29" s="12">
         <v>24.21</v>
       </c>
@@ -6107,7 +6107,7 @@
       <c r="AE30" s="14">
         <v>32.74</v>
       </c>
-      <c r="AG30" s="116"/>
+      <c r="AG30" s="118"/>
       <c r="AH30" s="12">
         <v>26.88</v>
       </c>
@@ -6120,7 +6120,7 @@
       <c r="AK30" s="14">
         <v>32.74</v>
       </c>
-      <c r="AM30" s="116"/>
+      <c r="AM30" s="118"/>
       <c r="AN30" s="15">
         <v>26.88</v>
       </c>
@@ -6168,7 +6168,7 @@
       <c r="AE31" s="14">
         <v>24.21</v>
       </c>
-      <c r="AG31" s="116" t="s">
+      <c r="AG31" s="118" t="s">
         <v>116</v>
       </c>
       <c r="AH31" s="9">
@@ -6183,7 +6183,7 @@
       <c r="AK31" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM31" s="116" t="s">
+      <c r="AM31" s="118" t="s">
         <v>116</v>
       </c>
       <c r="AN31" s="12">
@@ -6233,7 +6233,7 @@
       <c r="AE32" s="14">
         <v>25.67</v>
       </c>
-      <c r="AG32" s="116"/>
+      <c r="AG32" s="118"/>
       <c r="AH32" s="12">
         <v>23.4</v>
       </c>
@@ -6246,7 +6246,7 @@
       <c r="AK32" s="14">
         <v>25.67</v>
       </c>
-      <c r="AM32" s="116"/>
+      <c r="AM32" s="118"/>
       <c r="AN32" s="12">
         <v>23.4</v>
       </c>
@@ -6294,7 +6294,7 @@
       <c r="AE33" s="17">
         <v>23.42</v>
       </c>
-      <c r="AG33" s="116"/>
+      <c r="AG33" s="118"/>
       <c r="AH33" s="15">
         <v>23.35</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="AK33" s="17">
         <v>23.42</v>
       </c>
-      <c r="AM33" s="116"/>
+      <c r="AM33" s="118"/>
       <c r="AN33" s="15">
         <v>23.35</v>
       </c>
@@ -6428,7 +6428,7 @@
       <c r="AE37" s="11">
         <v>24.39</v>
       </c>
-      <c r="AG37" s="116" t="s">
+      <c r="AG37" s="118" t="s">
         <v>42</v>
       </c>
       <c r="AH37" s="9">
@@ -6443,7 +6443,7 @@
       <c r="AK37" s="11">
         <v>24.39</v>
       </c>
-      <c r="AM37" s="117" t="s">
+      <c r="AM37" s="119" t="s">
         <v>42</v>
       </c>
       <c r="AN37" s="9">
@@ -6481,7 +6481,7 @@
       <c r="AE38" s="14">
         <v>21.45</v>
       </c>
-      <c r="AG38" s="116"/>
+      <c r="AG38" s="118"/>
       <c r="AH38" s="12">
         <v>24.21</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="AK38" s="14">
         <v>21.45</v>
       </c>
-      <c r="AM38" s="117"/>
+      <c r="AM38" s="119"/>
       <c r="AN38" s="12">
         <v>24.21</v>
       </c>
@@ -6530,7 +6530,7 @@
       <c r="AE39" s="14">
         <v>32.74</v>
       </c>
-      <c r="AG39" s="116"/>
+      <c r="AG39" s="118"/>
       <c r="AH39" s="12">
         <v>26.88</v>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="AK39" s="14">
         <v>32.74</v>
       </c>
-      <c r="AM39" s="117"/>
+      <c r="AM39" s="119"/>
       <c r="AN39" s="15">
         <v>26.88</v>
       </c>
@@ -6579,7 +6579,7 @@
       <c r="AE40" s="14">
         <v>24.21</v>
       </c>
-      <c r="AG40" s="116" t="s">
+      <c r="AG40" s="118" t="s">
         <v>43</v>
       </c>
       <c r="AH40" s="9">
@@ -6594,7 +6594,7 @@
       <c r="AK40" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM40" s="117" t="s">
+      <c r="AM40" s="119" t="s">
         <v>43</v>
       </c>
       <c r="AN40" s="12">
@@ -6632,7 +6632,7 @@
       <c r="AE41" s="14">
         <v>25.67</v>
       </c>
-      <c r="AG41" s="116"/>
+      <c r="AG41" s="118"/>
       <c r="AH41" s="12">
         <v>23.4</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="AK41" s="14">
         <v>25.67</v>
       </c>
-      <c r="AM41" s="117"/>
+      <c r="AM41" s="119"/>
       <c r="AN41" s="12">
         <v>23.4</v>
       </c>
@@ -6681,7 +6681,7 @@
       <c r="AE42" s="17">
         <v>23.42</v>
       </c>
-      <c r="AG42" s="116"/>
+      <c r="AG42" s="118"/>
       <c r="AH42" s="15">
         <v>23.35</v>
       </c>
@@ -6694,7 +6694,7 @@
       <c r="AK42" s="17">
         <v>23.42</v>
       </c>
-      <c r="AM42" s="117"/>
+      <c r="AM42" s="119"/>
       <c r="AN42" s="15">
         <v>23.35</v>
       </c>
@@ -7196,11 +7196,6 @@
     <sortCondition ref="H27:H51"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AG40:AG42"/>
     <mergeCell ref="AM40:AM42"/>
     <mergeCell ref="AG31:AG33"/>
@@ -7211,6 +7206,11 @@
     <mergeCell ref="AG37:AG39"/>
     <mergeCell ref="AM37:AM39"/>
     <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="Z9:Z10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7221,8 +7221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7243,36 +7243,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="G2" s="119" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="G2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="L2" s="119" t="s">
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="L2" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="Q2" s="120" t="s">
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="Q2" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="V2" s="100" t="s">
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="V2" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -7431,26 +7431,26 @@
       <c r="Y8" s="51"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="L10" s="100" t="s">
+      <c r="L10" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="G11" s="119" t="s">
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="G11" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
       <c r="L11" s="90" t="s">
         <v>154</v>
       </c>
@@ -7463,24 +7463,24 @@
       <c r="O11" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="Q11" s="119" t="s">
+      <c r="Q11" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="V11" s="120" t="s">
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="V11" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="W11" s="119"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="119"/>
-      <c r="AA11" s="119" t="s">
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="AA11" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="51">
@@ -7582,7 +7582,7 @@
       <c r="B13" s="51">
         <v>24.21</v>
       </c>
-      <c r="C13" s="124">
+      <c r="C13" s="98">
         <v>20</v>
       </c>
       <c r="D13" s="51">
@@ -7592,7 +7592,7 @@
         <v>21.45</v>
       </c>
       <c r="G13" s="97">
-        <f t="shared" ref="G13:J17" si="7">AVERAGE($B$12:$E$17)</f>
+        <f t="shared" ref="G13:G17" si="7">AVERAGE($B$12:$E$17)</f>
         <v>22.764583333333331</v>
       </c>
       <c r="H13" s="80">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="P13" s="47"/>
       <c r="Q13" s="80">
-        <f t="shared" ref="Q13:T14" si="9">AVERAGE($B$12:$E$14)</f>
+        <f t="shared" ref="Q13:Q14" si="9">AVERAGE($B$12:$E$14)</f>
         <v>22.925000000000001</v>
       </c>
       <c r="R13" s="80">
@@ -7661,7 +7661,7 @@
         <f t="shared" ref="AA13:AA17" si="11">B13</f>
         <v>24.21</v>
       </c>
-      <c r="AB13" s="124">
+      <c r="AB13" s="98">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="P16" s="47"/>
       <c r="Q16" s="36">
-        <f t="shared" ref="Q16:T17" si="14">AVERAGE($B$15:$E$17)</f>
+        <f t="shared" ref="Q16:Q17" si="14">AVERAGE($B$15:$E$17)</f>
         <v>22.604166666666668</v>
       </c>
       <c r="R16" s="36">
@@ -8059,26 +8059,26 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="L21" s="100" t="s">
+      <c r="L21" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
     </row>
     <row r="22" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="G22" s="119" t="s">
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="G22" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
       <c r="L22" s="90" t="s">
         <v>154</v>
       </c>
@@ -8091,24 +8091,24 @@
       <c r="O22" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="Q22" s="119" t="s">
+      <c r="Q22" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="119"/>
-      <c r="V22" s="120" t="s">
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="V22" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="W22" s="119"/>
-      <c r="X22" s="119"/>
-      <c r="Y22" s="119"/>
-      <c r="AA22" s="119" t="s">
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="AA22" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="AB22" s="119"/>
-      <c r="AC22" s="119"/>
-      <c r="AD22" s="119"/>
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="120"/>
     </row>
     <row r="23" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51">
@@ -8151,7 +8151,7 @@
         <f t="shared" si="17"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O23" s="48">
+      <c r="O23" s="63">
         <f t="shared" si="17"/>
         <v>2.5487500000000125</v>
       </c>
@@ -8189,19 +8189,19 @@
         <f t="shared" si="19"/>
         <v>0.71958333333332547</v>
       </c>
-      <c r="AA23" s="51">
+      <c r="AA23" s="98">
         <f>AA12-SUM(V23,Q23,L23,G23)</f>
         <v>-4.2833333333333314</v>
       </c>
-      <c r="AB23" s="51">
+      <c r="AB23" s="98">
         <f t="shared" ref="AB23:AD23" si="20">AB12-SUM(W23,R23,M23,H23)</f>
         <v>-0.9166666666666714</v>
       </c>
-      <c r="AC23" s="51">
+      <c r="AC23" s="98">
         <f t="shared" si="20"/>
         <v>2.9533333333333331</v>
       </c>
-      <c r="AD23" s="51">
+      <c r="AD23" s="98">
         <f t="shared" si="20"/>
         <v>-1.8033333333333381</v>
       </c>
@@ -8210,7 +8210,7 @@
       <c r="B24" s="51">
         <v>24.21</v>
       </c>
-      <c r="C24" s="124">
+      <c r="C24" s="98">
         <v>20</v>
       </c>
       <c r="D24" s="51">
@@ -8220,7 +8220,7 @@
         <v>21.45</v>
       </c>
       <c r="G24" s="97">
-        <f t="shared" ref="G24:J28" si="21">AVERAGE($B$12:$E$17)</f>
+        <f t="shared" ref="G24:G28" si="21">AVERAGE($B$12:$E$17)</f>
         <v>22.764583333333331</v>
       </c>
       <c r="H24" s="80">
@@ -8247,7 +8247,7 @@
         <f t="shared" si="22"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O24" s="49">
+      <c r="O24" s="64">
         <f t="shared" si="22"/>
         <v>2.5487500000000125</v>
       </c>
@@ -8285,19 +8285,19 @@
         <f t="shared" si="24"/>
         <v>0.71958333333332547</v>
       </c>
-      <c r="AA24" s="51">
+      <c r="AA24" s="98">
         <f t="shared" ref="AA24:AD24" si="25">AA13-SUM(V24,Q24,L24,G24)</f>
         <v>0.80666666666666842</v>
       </c>
-      <c r="AB24" s="124">
+      <c r="AB24" s="98">
         <f t="shared" si="25"/>
         <v>0.52333333333332988</v>
       </c>
-      <c r="AC24" s="51">
+      <c r="AC24" s="98">
         <f t="shared" si="25"/>
         <v>0.68333333333333357</v>
       </c>
-      <c r="AD24" s="51">
+      <c r="AD24" s="98">
         <f t="shared" si="25"/>
         <v>-4.7433333333333394</v>
       </c>
@@ -8349,7 +8349,7 @@
         <f t="shared" si="26"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O25" s="49">
+      <c r="O25" s="64">
         <f t="shared" si="26"/>
         <v>2.5487500000000125</v>
       </c>
@@ -8394,19 +8394,19 @@
       <c r="Z25" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AA25" s="51">
+      <c r="AA25" s="98">
         <f t="shared" ref="AA25:AD25" si="29">AA14-SUM(V25,Q25,L25,G25)</f>
         <v>3.4766666666666666</v>
       </c>
-      <c r="AB25" s="51">
+      <c r="AB25" s="98">
         <f t="shared" si="29"/>
         <v>0.39333333333333087</v>
       </c>
-      <c r="AC25" s="51">
+      <c r="AC25" s="98">
         <f t="shared" si="29"/>
         <v>-3.6366666666666667</v>
       </c>
-      <c r="AD25" s="51">
+      <c r="AD25" s="98">
         <f t="shared" si="29"/>
         <v>6.5466666666666633</v>
       </c>
@@ -8452,7 +8452,7 @@
         <f t="shared" si="30"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O26" s="49">
+      <c r="O26" s="64">
         <f t="shared" si="30"/>
         <v>2.5487500000000125</v>
       </c>
@@ -8482,7 +8482,7 @@
         <f t="shared" si="32"/>
         <v>0.66041666666665932</v>
       </c>
-      <c r="X26" s="49">
+      <c r="X26" s="64">
         <f t="shared" si="32"/>
         <v>0.20874999999999488</v>
       </c>
@@ -8490,19 +8490,19 @@
         <f t="shared" si="32"/>
         <v>-0.71958333333334323</v>
       </c>
-      <c r="AA26" s="51">
+      <c r="AA26" s="98">
         <f t="shared" ref="AA26:AD26" si="33">AA15-SUM(V26,Q26,L26,G26)</f>
         <v>-1.18333333333333</v>
       </c>
-      <c r="AB26" s="51">
+      <c r="AB26" s="98">
         <f t="shared" si="33"/>
         <v>1.6133333333333333</v>
       </c>
-      <c r="AC26" s="51">
+      <c r="AC26" s="98">
         <f t="shared" si="33"/>
         <v>0.36666666666666714</v>
       </c>
-      <c r="AD26" s="51">
+      <c r="AD26" s="98">
         <f t="shared" si="33"/>
         <v>-0.22333333333333627</v>
       </c>
@@ -8548,7 +8548,7 @@
         <f t="shared" si="34"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O27" s="49">
+      <c r="O27" s="64">
         <f t="shared" si="34"/>
         <v>2.5487500000000125</v>
       </c>
@@ -8578,7 +8578,7 @@
         <f t="shared" si="36"/>
         <v>0.66041666666665932</v>
       </c>
-      <c r="X27" s="49">
+      <c r="X27" s="64">
         <f t="shared" si="36"/>
         <v>0.20874999999999488</v>
       </c>
@@ -8586,19 +8586,19 @@
         <f t="shared" si="36"/>
         <v>-0.71958333333334323</v>
       </c>
-      <c r="AA27" s="51">
+      <c r="AA27" s="98">
         <f t="shared" ref="AA27:AD27" si="37">AA16-SUM(V27,Q27,L27,G27)</f>
         <v>0.61666666666666714</v>
       </c>
-      <c r="AB27" s="51">
+      <c r="AB27" s="98">
         <f t="shared" si="37"/>
         <v>-2.8566666666666656</v>
       </c>
-      <c r="AC27" s="51">
+      <c r="AC27" s="98">
         <f t="shared" si="37"/>
         <v>1.086666666666666</v>
       </c>
-      <c r="AD27" s="51">
+      <c r="AD27" s="98">
         <f t="shared" si="37"/>
         <v>1.2366666666666646</v>
       </c>
@@ -8644,7 +8644,7 @@
         <f t="shared" si="38"/>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O28" s="50">
+      <c r="O28" s="65">
         <f t="shared" si="38"/>
         <v>2.5487500000000125</v>
       </c>
@@ -8674,7 +8674,7 @@
         <f t="shared" si="40"/>
         <v>0.66041666666665932</v>
       </c>
-      <c r="X28" s="50">
+      <c r="X28" s="65">
         <f t="shared" si="40"/>
         <v>0.20874999999999488</v>
       </c>
@@ -8682,25 +8682,33 @@
         <f t="shared" si="40"/>
         <v>-0.71958333333334323</v>
       </c>
-      <c r="AA28" s="51">
+      <c r="AA28" s="98">
         <f t="shared" ref="AA28:AD28" si="41">AA17-SUM(V28,Q28,L28,G28)</f>
         <v>0.56666666666666998</v>
       </c>
-      <c r="AB28" s="51">
+      <c r="AB28" s="98">
         <f t="shared" si="41"/>
         <v>1.2433333333333323</v>
       </c>
-      <c r="AC28" s="51">
+      <c r="AC28" s="98">
         <f t="shared" si="41"/>
         <v>-1.4533333333333331</v>
       </c>
-      <c r="AD28" s="51">
+      <c r="AD28" s="98">
         <f t="shared" si="41"/>
         <v>-1.0133333333333354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="B22:E22"/>
@@ -8710,14 +8718,6 @@
     <mergeCell ref="AA22:AD22"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8738,12 +8738,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="90" t="s">
@@ -8984,18 +8984,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="L2" s="121" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="L2" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
     </row>
     <row r="3" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -9012,12 +9012,12 @@
         <v>148</v>
       </c>
       <c r="F3" s="89"/>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
       <c r="K3" s="89"/>
       <c r="L3" s="93" t="s">
         <v>145</v>
@@ -9271,18 +9271,18 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="L12" s="121" t="s">
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="L12" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
     </row>
     <row r="13" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="93" t="s">
@@ -9298,12 +9298,12 @@
         <v>148</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="119" t="s">
+      <c r="G13" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
       <c r="K13" s="89"/>
       <c r="L13" s="93" t="s">
         <v>145</v>
@@ -9318,12 +9318,12 @@
         <v>148</v>
       </c>
       <c r="P13" s="89"/>
-      <c r="Q13" s="119" t="s">
+      <c r="Q13" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-      <c r="T13" s="119"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="51">
@@ -9611,18 +9611,18 @@
       <c r="T19" s="92"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="L22" s="121" t="s">
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="L22" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
     </row>
     <row r="23" spans="2:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="93" t="s">
@@ -9638,12 +9638,12 @@
         <v>148</v>
       </c>
       <c r="F23" s="89"/>
-      <c r="G23" s="119" t="s">
+      <c r="G23" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
       <c r="K23" s="89"/>
       <c r="L23" s="93" t="s">
         <v>145</v>
@@ -9658,12 +9658,12 @@
         <v>148</v>
       </c>
       <c r="P23" s="89"/>
-      <c r="Q23" s="119" t="s">
+      <c r="Q23" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="119"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="51">
@@ -10024,17 +10024,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="L12:O12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/toothpaste_bf2.xlsx
+++ b/data/toothpaste_bf2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/Math326DoE/Math326_Quarto4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{1530781B-6E7F-4C73-ADF8-9272CFAEB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{289197B9-8587-418F-80A3-70088B78464D}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{1530781B-6E7F-4C73-ADF8-9272CFAEB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{536662D8-C82B-440A-B300-2D632BCB8AB9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="162">
   <si>
     <t>Brush</t>
   </si>
@@ -1242,14 +1242,30 @@
   <si>
     <t>Ultra</t>
   </si>
+  <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>resid</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2160,7 +2176,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2412,13 +2428,40 @@
     <xf numFmtId="2" fontId="0" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2448,32 +2491,14 @@
     <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2490,6 +2515,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3200,12 +3232,12 @@
         <v>58</v>
       </c>
       <c r="K1" s="62"/>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
     </row>
     <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
@@ -3220,12 +3252,12 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
       <c r="L2" s="75" t="s">
         <v>4</v>
       </c>
@@ -3606,12 +3638,12 @@
       <c r="C11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="99" t="s">
+      <c r="L11" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
     </row>
     <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
@@ -3626,12 +3658,12 @@
       <c r="E12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
       <c r="L12" s="18" t="s">
         <v>4</v>
       </c>
@@ -3644,12 +3676,12 @@
       <c r="O12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="101" t="s">
+      <c r="Q12" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
     </row>
     <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
@@ -4066,12 +4098,12 @@
       <c r="C23" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="99" t="s">
+      <c r="L23" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
     </row>
     <row r="24" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
@@ -4086,12 +4118,12 @@
       <c r="E24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="101" t="s">
+      <c r="G24" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
       <c r="L24" s="18" t="s">
         <v>4</v>
       </c>
@@ -4104,12 +4136,12 @@
       <c r="O24" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="114" t="s">
+      <c r="Q24" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="114"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
     </row>
     <row r="25" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
@@ -4295,12 +4327,12 @@
       <c r="C33" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="99" t="s">
+      <c r="L33" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
     </row>
     <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
@@ -4315,12 +4347,12 @@
       <c r="E34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="101" t="s">
+      <c r="G34" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
       <c r="L34" s="18" t="s">
         <v>4</v>
       </c>
@@ -4333,12 +4365,12 @@
       <c r="O34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="114" t="s">
+      <c r="Q34" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
+      <c r="R34" s="110"/>
+      <c r="S34" s="110"/>
+      <c r="T34" s="110"/>
     </row>
     <row r="35" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="32" t="s">
@@ -4353,22 +4385,22 @@
       <c r="E35" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="102" t="s">
+      <c r="G35" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="104"/>
-      <c r="L35" s="111" t="s">
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="113"/>
+      <c r="L35" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="M35" s="111" t="s">
+      <c r="M35" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="111" t="s">
+      <c r="N35" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="O35" s="111" t="s">
+      <c r="O35" s="107" t="s">
         <v>90</v>
       </c>
       <c r="Q35" s="88" t="s">
@@ -4397,14 +4429,14 @@
       <c r="E36" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="105"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="107"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="116"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="108"/>
       <c r="Q36" s="88" t="s">
         <v>92</v>
       </c>
@@ -4434,17 +4466,17 @@
       <c r="F37" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="105"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="107"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="116"/>
       <c r="K37" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="108"/>
       <c r="P37" s="29" t="s">
         <v>60</v>
       </c>
@@ -4474,14 +4506,14 @@
       <c r="E38" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="105"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="116"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="108"/>
+      <c r="O38" s="108"/>
       <c r="Q38" s="88" t="s">
         <v>95</v>
       </c>
@@ -4508,14 +4540,14 @@
       <c r="E39" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="105"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="107"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="116"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="108"/>
       <c r="Q39" s="88" t="s">
         <v>96</v>
       </c>
@@ -4542,14 +4574,14 @@
       <c r="E40" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="108"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="110"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="119"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
       <c r="Q40" s="88" t="s">
         <v>97</v>
       </c>
@@ -4567,12 +4599,12 @@
       <c r="C44" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="99" t="s">
+      <c r="L44" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
     </row>
     <row r="45" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
@@ -4587,12 +4619,12 @@
       <c r="E45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="101" t="s">
+      <c r="G45" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
       <c r="L45" s="18" t="s">
         <v>4</v>
       </c>
@@ -4605,26 +4637,26 @@
       <c r="O45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q45" s="101" t="s">
+      <c r="Q45" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="R45" s="101"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="101"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
     </row>
     <row r="46" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="56"/>
       <c r="C46" s="56"/>
       <c r="D46" s="56"/>
       <c r="E46" s="56"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="104"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="113"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="107"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="107"/>
       <c r="Q46" s="56"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -4635,14 +4667,14 @@
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
       <c r="E47" s="56"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="107"/>
-      <c r="L47" s="112"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="116"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="108"/>
       <c r="Q47" s="56"/>
       <c r="R47" s="56"/>
       <c r="S47" s="56"/>
@@ -4656,17 +4688,17 @@
       <c r="F48" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="105"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="107"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="116"/>
       <c r="K48" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="112"/>
-      <c r="M48" s="112"/>
-      <c r="N48" s="112"/>
-      <c r="O48" s="112"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
       <c r="P48" s="29" t="s">
         <v>60</v>
       </c>
@@ -4680,14 +4712,14 @@
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="107"/>
-      <c r="L49" s="112"/>
-      <c r="M49" s="112"/>
-      <c r="N49" s="112"/>
-      <c r="O49" s="112"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="116"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="108"/>
+      <c r="N49" s="108"/>
+      <c r="O49" s="108"/>
       <c r="Q49" s="56"/>
       <c r="R49" s="56"/>
       <c r="S49" s="56"/>
@@ -4698,14 +4730,14 @@
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
       <c r="E50" s="56"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="107"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="112"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="116"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
+      <c r="N50" s="108"/>
+      <c r="O50" s="108"/>
       <c r="Q50" s="56"/>
       <c r="R50" s="56"/>
       <c r="S50" s="56"/>
@@ -4716,53 +4748,53 @@
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
       <c r="E51" s="56"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="110"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
-      <c r="N51" s="113"/>
-      <c r="O51" s="113"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="119"/>
+      <c r="L51" s="109"/>
+      <c r="M51" s="109"/>
+      <c r="N51" s="109"/>
+      <c r="O51" s="109"/>
       <c r="Q51" s="56"/>
       <c r="R51" s="56"/>
       <c r="S51" s="56"/>
       <c r="T51" s="56"/>
     </row>
     <row r="53" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B53" s="100" t="s">
+      <c r="B53" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
       <c r="F53" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="100" t="s">
+      <c r="G53" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
       <c r="K53" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L53" s="100" t="s">
+      <c r="L53" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="M53" s="100"/>
-      <c r="N53" s="100"/>
-      <c r="O53" s="100"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
       <c r="P53" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="Q53" s="100" t="s">
+      <c r="Q53" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="R53" s="100"/>
-      <c r="S53" s="100"/>
-      <c r="T53" s="100"/>
+      <c r="R53" s="102"/>
+      <c r="S53" s="102"/>
+      <c r="T53" s="102"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="52"/>
@@ -4771,24 +4803,24 @@
       </c>
       <c r="D59" s="52"/>
       <c r="E59" s="52"/>
-      <c r="G59" s="101" t="s">
+      <c r="G59" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
-      <c r="L59" s="99" t="s">
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="L59" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="M59" s="99"/>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
-      <c r="Q59" s="101" t="s">
+      <c r="M59" s="103"/>
+      <c r="N59" s="103"/>
+      <c r="O59" s="103"/>
+      <c r="Q59" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="R59" s="101"/>
-      <c r="S59" s="101"/>
-      <c r="T59" s="101"/>
+      <c r="R59" s="104"/>
+      <c r="S59" s="104"/>
+      <c r="T59" s="104"/>
     </row>
     <row r="60" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42"/>
@@ -4797,15 +4829,15 @@
       <c r="D60" s="56"/>
       <c r="E60" s="56"/>
       <c r="F60" s="47"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
       <c r="K60" s="47"/>
-      <c r="L60" s="111"/>
-      <c r="M60" s="111"/>
-      <c r="N60" s="111"/>
-      <c r="O60" s="111"/>
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107"/>
+      <c r="O60" s="107"/>
       <c r="Q60" s="56"/>
       <c r="R60" s="56"/>
       <c r="S60" s="56"/>
@@ -4818,15 +4850,15 @@
       <c r="D61" s="56"/>
       <c r="E61" s="56"/>
       <c r="F61" s="47"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
       <c r="K61" s="47"/>
-      <c r="L61" s="112"/>
-      <c r="M61" s="112"/>
-      <c r="N61" s="112"/>
-      <c r="O61" s="112"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
       <c r="Q61" s="56"/>
       <c r="R61" s="56"/>
       <c r="S61" s="56"/>
@@ -4841,17 +4873,17 @@
       <c r="F62" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
       <c r="K62" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="L62" s="112"/>
-      <c r="M62" s="112"/>
-      <c r="N62" s="112"/>
-      <c r="O62" s="112"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="108"/>
       <c r="P62" s="29" t="s">
         <v>60</v>
       </c>
@@ -4867,14 +4899,14 @@
       <c r="D63" s="56"/>
       <c r="E63" s="56"/>
       <c r="F63" s="47"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="L63" s="112"/>
-      <c r="M63" s="112"/>
-      <c r="N63" s="112"/>
-      <c r="O63" s="112"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="108"/>
+      <c r="O63" s="108"/>
       <c r="Q63" s="56"/>
       <c r="R63" s="56"/>
       <c r="S63" s="56"/>
@@ -4887,14 +4919,14 @@
       <c r="D64" s="56"/>
       <c r="E64" s="56"/>
       <c r="F64" s="47"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
-      <c r="J64" s="116"/>
-      <c r="L64" s="112"/>
-      <c r="M64" s="112"/>
-      <c r="N64" s="112"/>
-      <c r="O64" s="112"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="106"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="108"/>
+      <c r="N64" s="108"/>
+      <c r="O64" s="108"/>
       <c r="Q64" s="56"/>
       <c r="R64" s="56"/>
       <c r="S64" s="56"/>
@@ -4907,14 +4939,14 @@
       <c r="D65" s="56"/>
       <c r="E65" s="56"/>
       <c r="F65" s="47"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="116"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="113"/>
-      <c r="O65" s="113"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="106"/>
+      <c r="L65" s="109"/>
+      <c r="M65" s="109"/>
+      <c r="N65" s="109"/>
+      <c r="O65" s="109"/>
       <c r="Q65" s="56"/>
       <c r="R65" s="56"/>
       <c r="S65" s="56"/>
@@ -4927,66 +4959,42 @@
       <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B67" s="100" t="s">
+      <c r="B67" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="100"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="100"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
       <c r="F67" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="100" t="s">
+      <c r="G67" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="H67" s="100"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="100"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
       <c r="K67" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L67" s="100" t="s">
+      <c r="L67" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="M67" s="100"/>
-      <c r="N67" s="100"/>
-      <c r="O67" s="100"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
       <c r="P67" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="100" t="s">
+      <c r="Q67" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="R67" s="100"/>
-      <c r="S67" s="100"/>
-      <c r="T67" s="100"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="102"/>
+      <c r="T67" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="G60:J65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="N60:N65"/>
-    <mergeCell ref="O60:O65"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G35:J40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="L33:O33"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="G53:J53"/>
@@ -5003,6 +5011,30 @@
     <mergeCell ref="O46:O51"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="G24:J24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="G35:J40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="G60:J65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="O60:O65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5548,7 +5580,7 @@
       <c r="S7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="118" t="s">
+      <c r="U7" s="120" t="s">
         <v>37</v>
       </c>
       <c r="V7" s="9" t="s">
@@ -5560,7 +5592,7 @@
       <c r="X7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="118" t="s">
+      <c r="Z7" s="120" t="s">
         <v>37</v>
       </c>
       <c r="AA7" s="9" t="s">
@@ -5592,7 +5624,7 @@
       <c r="S8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="118"/>
+      <c r="U8" s="120"/>
       <c r="V8" s="15" t="s">
         <v>26</v>
       </c>
@@ -5602,7 +5634,7 @@
       <c r="X8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="118"/>
+      <c r="Z8" s="120"/>
       <c r="AA8" s="15" t="s">
         <v>26</v>
       </c>
@@ -5632,7 +5664,7 @@
       <c r="S9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="119" t="s">
+      <c r="U9" s="121" t="s">
         <v>38</v>
       </c>
       <c r="V9" s="12" t="s">
@@ -5644,7 +5676,7 @@
       <c r="X9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="119" t="s">
+      <c r="Z9" s="121" t="s">
         <v>38</v>
       </c>
       <c r="AA9" s="12" t="s">
@@ -5667,7 +5699,7 @@
       <c r="S10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="119"/>
+      <c r="U10" s="121"/>
       <c r="V10" s="15" t="s">
         <v>28</v>
       </c>
@@ -5677,7 +5709,7 @@
       <c r="X10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="119"/>
+      <c r="Z10" s="121"/>
       <c r="AA10" s="15" t="s">
         <v>28</v>
       </c>
@@ -5793,24 +5825,24 @@
       </c>
     </row>
     <row r="26" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="AB26" s="117" t="s">
+      <c r="AB26" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AH26" s="117" t="s">
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="122"/>
+      <c r="AE26" s="122"/>
+      <c r="AH26" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AN26" s="117" t="s">
+      <c r="AI26" s="122"/>
+      <c r="AJ26" s="122"/>
+      <c r="AK26" s="122"/>
+      <c r="AN26" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="AO26" s="117"/>
-      <c r="AP26" s="117"/>
-      <c r="AQ26" s="117"/>
+      <c r="AO26" s="122"/>
+      <c r="AP26" s="122"/>
+      <c r="AQ26" s="122"/>
     </row>
     <row r="27" spans="7:43" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
@@ -5939,7 +5971,7 @@
       <c r="AE28" s="11">
         <v>24.39</v>
       </c>
-      <c r="AG28" s="118" t="s">
+      <c r="AG28" s="120" t="s">
         <v>117</v>
       </c>
       <c r="AH28" s="9">
@@ -5954,7 +5986,7 @@
       <c r="AK28" s="11">
         <v>24.39</v>
       </c>
-      <c r="AM28" s="118" t="s">
+      <c r="AM28" s="120" t="s">
         <v>117</v>
       </c>
       <c r="AN28" s="9">
@@ -6025,7 +6057,7 @@
       <c r="AE29" s="14">
         <v>21.45</v>
       </c>
-      <c r="AG29" s="118"/>
+      <c r="AG29" s="120"/>
       <c r="AH29" s="12">
         <v>24.21</v>
       </c>
@@ -6038,7 +6070,7 @@
       <c r="AK29" s="14">
         <v>21.45</v>
       </c>
-      <c r="AM29" s="118"/>
+      <c r="AM29" s="120"/>
       <c r="AN29" s="12">
         <v>24.21</v>
       </c>
@@ -6107,7 +6139,7 @@
       <c r="AE30" s="14">
         <v>32.74</v>
       </c>
-      <c r="AG30" s="118"/>
+      <c r="AG30" s="120"/>
       <c r="AH30" s="12">
         <v>26.88</v>
       </c>
@@ -6120,7 +6152,7 @@
       <c r="AK30" s="14">
         <v>32.74</v>
       </c>
-      <c r="AM30" s="118"/>
+      <c r="AM30" s="120"/>
       <c r="AN30" s="15">
         <v>26.88</v>
       </c>
@@ -6168,7 +6200,7 @@
       <c r="AE31" s="14">
         <v>24.21</v>
       </c>
-      <c r="AG31" s="118" t="s">
+      <c r="AG31" s="120" t="s">
         <v>116</v>
       </c>
       <c r="AH31" s="9">
@@ -6183,7 +6215,7 @@
       <c r="AK31" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM31" s="118" t="s">
+      <c r="AM31" s="120" t="s">
         <v>116</v>
       </c>
       <c r="AN31" s="12">
@@ -6233,7 +6265,7 @@
       <c r="AE32" s="14">
         <v>25.67</v>
       </c>
-      <c r="AG32" s="118"/>
+      <c r="AG32" s="120"/>
       <c r="AH32" s="12">
         <v>23.4</v>
       </c>
@@ -6246,7 +6278,7 @@
       <c r="AK32" s="14">
         <v>25.67</v>
       </c>
-      <c r="AM32" s="118"/>
+      <c r="AM32" s="120"/>
       <c r="AN32" s="12">
         <v>23.4</v>
       </c>
@@ -6294,7 +6326,7 @@
       <c r="AE33" s="17">
         <v>23.42</v>
       </c>
-      <c r="AG33" s="118"/>
+      <c r="AG33" s="120"/>
       <c r="AH33" s="15">
         <v>23.35</v>
       </c>
@@ -6307,7 +6339,7 @@
       <c r="AK33" s="17">
         <v>23.42</v>
       </c>
-      <c r="AM33" s="118"/>
+      <c r="AM33" s="120"/>
       <c r="AN33" s="15">
         <v>23.35</v>
       </c>
@@ -6428,7 +6460,7 @@
       <c r="AE37" s="11">
         <v>24.39</v>
       </c>
-      <c r="AG37" s="118" t="s">
+      <c r="AG37" s="120" t="s">
         <v>42</v>
       </c>
       <c r="AH37" s="9">
@@ -6443,7 +6475,7 @@
       <c r="AK37" s="11">
         <v>24.39</v>
       </c>
-      <c r="AM37" s="119" t="s">
+      <c r="AM37" s="121" t="s">
         <v>42</v>
       </c>
       <c r="AN37" s="9">
@@ -6481,7 +6513,7 @@
       <c r="AE38" s="14">
         <v>21.45</v>
       </c>
-      <c r="AG38" s="118"/>
+      <c r="AG38" s="120"/>
       <c r="AH38" s="12">
         <v>24.21</v>
       </c>
@@ -6494,7 +6526,7 @@
       <c r="AK38" s="14">
         <v>21.45</v>
       </c>
-      <c r="AM38" s="119"/>
+      <c r="AM38" s="121"/>
       <c r="AN38" s="12">
         <v>24.21</v>
       </c>
@@ -6530,7 +6562,7 @@
       <c r="AE39" s="14">
         <v>32.74</v>
       </c>
-      <c r="AG39" s="118"/>
+      <c r="AG39" s="120"/>
       <c r="AH39" s="12">
         <v>26.88</v>
       </c>
@@ -6543,7 +6575,7 @@
       <c r="AK39" s="14">
         <v>32.74</v>
       </c>
-      <c r="AM39" s="119"/>
+      <c r="AM39" s="121"/>
       <c r="AN39" s="15">
         <v>26.88</v>
       </c>
@@ -6579,7 +6611,7 @@
       <c r="AE40" s="14">
         <v>24.21</v>
       </c>
-      <c r="AG40" s="118" t="s">
+      <c r="AG40" s="120" t="s">
         <v>43</v>
       </c>
       <c r="AH40" s="9">
@@ -6594,7 +6626,7 @@
       <c r="AK40" s="11">
         <v>24.21</v>
       </c>
-      <c r="AM40" s="119" t="s">
+      <c r="AM40" s="121" t="s">
         <v>43</v>
       </c>
       <c r="AN40" s="12">
@@ -6632,7 +6664,7 @@
       <c r="AE41" s="14">
         <v>25.67</v>
       </c>
-      <c r="AG41" s="118"/>
+      <c r="AG41" s="120"/>
       <c r="AH41" s="12">
         <v>23.4</v>
       </c>
@@ -6645,7 +6677,7 @@
       <c r="AK41" s="14">
         <v>25.67</v>
       </c>
-      <c r="AM41" s="119"/>
+      <c r="AM41" s="121"/>
       <c r="AN41" s="12">
         <v>23.4</v>
       </c>
@@ -6681,7 +6713,7 @@
       <c r="AE42" s="17">
         <v>23.42</v>
       </c>
-      <c r="AG42" s="118"/>
+      <c r="AG42" s="120"/>
       <c r="AH42" s="15">
         <v>23.35</v>
       </c>
@@ -6694,7 +6726,7 @@
       <c r="AK42" s="17">
         <v>23.42</v>
       </c>
-      <c r="AM42" s="119"/>
+      <c r="AM42" s="121"/>
       <c r="AN42" s="15">
         <v>23.35</v>
       </c>
@@ -7196,6 +7228,11 @@
     <sortCondition ref="H27:H51"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AG40:AG42"/>
     <mergeCell ref="AM40:AM42"/>
     <mergeCell ref="AG31:AG33"/>
@@ -7206,11 +7243,6 @@
     <mergeCell ref="AG37:AG39"/>
     <mergeCell ref="AM37:AM39"/>
     <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="Z9:Z10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7219,16 +7251,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:AD28"/>
+  <dimension ref="A2:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="P22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="6.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" style="1" customWidth="1"/>
     <col min="7" max="10" width="6.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" style="1" customWidth="1"/>
@@ -7239,40 +7272,44 @@
     <col min="22" max="25" width="6.140625" style="1" customWidth="1"/>
     <col min="26" max="26" width="2.7109375" style="1" customWidth="1"/>
     <col min="27" max="30" width="6.140625" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="31" max="34" width="9.140625" style="1"/>
+    <col min="35" max="35" width="11.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="1"/>
+    <col min="37" max="37" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="G2" s="120" t="s">
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="G2" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="L2" s="120" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="L2" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="Q2" s="121" t="s">
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="Q2" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="V2" s="101" t="s">
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="V2" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -7431,26 +7468,26 @@
       <c r="Y8" s="51"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="L10" s="101" t="s">
+      <c r="L10" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="G11" s="120" t="s">
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="G11" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
       <c r="L11" s="90" t="s">
         <v>154</v>
       </c>
@@ -7463,24 +7500,24 @@
       <c r="O11" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="Q11" s="120" t="s">
+      <c r="Q11" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="V11" s="121" t="s">
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="V11" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="120"/>
-      <c r="AA11" s="120" t="s">
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="AA11" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="120"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="123"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="51">
@@ -7962,7 +7999,7 @@
         <v>25.67</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="51">
         <v>23.35</v>
       </c>
@@ -8058,27 +8095,27 @@
         <v>23.42</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="L21" s="101" t="s">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="L21" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-    </row>
-    <row r="22" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="101" t="s">
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+    </row>
+    <row r="22" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="G22" s="120" t="s">
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="G22" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
       <c r="L22" s="90" t="s">
         <v>154</v>
       </c>
@@ -8091,26 +8128,26 @@
       <c r="O22" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="Q22" s="120" t="s">
+      <c r="Q22" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="V22" s="121" t="s">
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="123"/>
+      <c r="V22" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="AA22" s="120" t="s">
+      <c r="W22" s="123"/>
+      <c r="X22" s="123"/>
+      <c r="Y22" s="123"/>
+      <c r="AA22" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="AB22" s="120"/>
-      <c r="AC22" s="120"/>
-      <c r="AD22" s="120"/>
-    </row>
-    <row r="23" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB22" s="123"/>
+      <c r="AC22" s="123"/>
+      <c r="AD22" s="123"/>
+    </row>
+    <row r="23" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51">
         <v>19.12</v>
       </c>
@@ -8206,7 +8243,7 @@
         <v>-1.8033333333333381</v>
       </c>
     </row>
-    <row r="24" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="51">
         <v>24.21</v>
       </c>
@@ -8302,7 +8339,7 @@
         <v>-4.7433333333333394</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="51">
         <v>26.88</v>
       </c>
@@ -8411,7 +8448,7 @@
         <v>6.5466666666666633</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="51">
         <v>21.6</v>
       </c>
@@ -8507,7 +8544,7 @@
         <v>-0.22333333333333627</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="51">
         <v>23.4</v>
       </c>
@@ -8603,7 +8640,7 @@
         <v>1.2366666666666646</v>
       </c>
     </row>
-    <row r="28" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="51">
         <v>23.35</v>
       </c>
@@ -8699,16 +8736,804 @@
         <v>-1.0133333333333354</v>
       </c>
     </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AI30" s="1">
+        <v>518.22625434027771</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="L31" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+    </row>
+    <row r="32" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="G32" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="L32" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="M32" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="N32" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q32" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="V32" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="AA32" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="123"/>
+      <c r="AD32" s="123"/>
+      <c r="AH32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="128">
+        <f>B23*B23</f>
+        <v>365.57440000000003</v>
+      </c>
+      <c r="C33" s="128">
+        <f t="shared" ref="C33:E33" si="42">C23*C23</f>
+        <v>344.47359999999998</v>
+      </c>
+      <c r="D33" s="128">
+        <f t="shared" si="42"/>
+        <v>654.33639999999991</v>
+      </c>
+      <c r="E33" s="128">
+        <f t="shared" si="42"/>
+        <v>594.87210000000005</v>
+      </c>
+      <c r="G33" s="94">
+        <f t="shared" ref="G33:J33" si="43">G23*G23</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H33" s="95">
+        <f t="shared" si="43"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I33" s="95">
+        <f t="shared" si="43"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J33" s="96">
+        <f t="shared" si="43"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="L33" s="63">
+        <f t="shared" ref="L33:O33" si="44">L23*L23</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="M33" s="63">
+        <f t="shared" si="44"/>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="N33" s="63">
+        <f t="shared" si="44"/>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="O33" s="63">
+        <f t="shared" si="44"/>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="68">
+        <f t="shared" ref="Q33:T38" si="45">Q23*Q23</f>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="R33" s="69">
+        <f t="shared" si="45"/>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="S33" s="69">
+        <f t="shared" si="45"/>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="T33" s="70">
+        <f t="shared" si="45"/>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="U33" s="2"/>
+      <c r="V33" s="63">
+        <f t="shared" ref="V33:Y38" si="46">V23*V23</f>
+        <v>2.2375173611109737E-2</v>
+      </c>
+      <c r="W33" s="63">
+        <f t="shared" si="46"/>
+        <v>0.43615017361111547</v>
+      </c>
+      <c r="X33" s="63">
+        <f t="shared" si="46"/>
+        <v>4.3576562500002317E-2</v>
+      </c>
+      <c r="Y33" s="63">
+        <f t="shared" si="46"/>
+        <v>0.51780017361109976</v>
+      </c>
+      <c r="AA33" s="98">
+        <f t="shared" ref="AA33:AD38" si="47">AA23*AA23</f>
+        <v>18.346944444444429</v>
+      </c>
+      <c r="AB33" s="98">
+        <f t="shared" si="47"/>
+        <v>0.84027777777778645</v>
+      </c>
+      <c r="AC33" s="98">
+        <f t="shared" si="47"/>
+        <v>8.7221777777777767</v>
+      </c>
+      <c r="AD33" s="98">
+        <f t="shared" si="47"/>
+        <v>3.2520111111111283</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="24">
+        <f>SUMSQ(G23:J28)</f>
+        <v>12437.430104166664</v>
+      </c>
+      <c r="AJ33" s="24">
+        <f>AI33/AH33</f>
+        <v>12437.430104166664</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="128">
+        <f t="shared" ref="B34:E34" si="48">B24*B24</f>
+        <v>586.1241</v>
+      </c>
+      <c r="C34" s="128">
+        <f t="shared" si="48"/>
+        <v>400</v>
+      </c>
+      <c r="D34" s="128">
+        <f t="shared" si="48"/>
+        <v>543.35609999999997</v>
+      </c>
+      <c r="E34" s="128">
+        <f t="shared" si="48"/>
+        <v>460.10249999999996</v>
+      </c>
+      <c r="G34" s="97">
+        <f t="shared" ref="G34:J34" si="49">G24*G24</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H34" s="99">
+        <f t="shared" si="49"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I34" s="99">
+        <f t="shared" si="49"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J34" s="45">
+        <f t="shared" si="49"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="L34" s="64">
+        <f t="shared" ref="L34:O34" si="50">L24*L24</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="M34" s="64">
+        <f t="shared" si="50"/>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="N34" s="64">
+        <f t="shared" si="50"/>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="O34" s="64">
+        <f t="shared" si="50"/>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="71">
+        <f t="shared" ref="Q34:T38" si="51">Q24*Q24</f>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="R34" s="36">
+        <f t="shared" si="51"/>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="S34" s="36">
+        <f t="shared" si="51"/>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="T34" s="66">
+        <f t="shared" si="51"/>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="64">
+        <f t="shared" ref="V34:Y38" si="52">V24*V24</f>
+        <v>2.2375173611109737E-2</v>
+      </c>
+      <c r="W34" s="64">
+        <f t="shared" si="52"/>
+        <v>0.43615017361111547</v>
+      </c>
+      <c r="X34" s="64">
+        <f t="shared" si="52"/>
+        <v>4.3576562500002317E-2</v>
+      </c>
+      <c r="Y34" s="64">
+        <f t="shared" si="52"/>
+        <v>0.51780017361109976</v>
+      </c>
+      <c r="AA34" s="98">
+        <f t="shared" ref="AA34:AD38" si="53">AA24*AA24</f>
+        <v>0.6507111111111139</v>
+      </c>
+      <c r="AB34" s="98">
+        <f t="shared" si="53"/>
+        <v>0.27387777777777417</v>
+      </c>
+      <c r="AC34" s="98">
+        <f t="shared" si="53"/>
+        <v>0.46694444444444477</v>
+      </c>
+      <c r="AD34" s="98">
+        <f t="shared" si="53"/>
+        <v>22.499211111111169</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI34" s="1">
+        <f>SUMSQ(L23:O28)</f>
+        <v>86.308245833333544</v>
+      </c>
+      <c r="AJ34" s="24">
+        <f t="shared" ref="AJ34:AJ38" si="54">AI34/AH34</f>
+        <v>28.769415277777849</v>
+      </c>
+      <c r="AK34" s="1">
+        <f>AJ34/AJ37</f>
+        <v>3.2005416235387383</v>
+      </c>
+      <c r="AL34" s="1">
+        <f>_xlfn.F.DIST.RT(AK34,AH34,AH37)</f>
+        <v>5.1678629370603767E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="128">
+        <f t="shared" ref="B35:E35" si="55">B25*B25</f>
+        <v>722.53439999999989</v>
+      </c>
+      <c r="C35" s="128">
+        <f t="shared" si="55"/>
+        <v>394.81690000000003</v>
+      </c>
+      <c r="D35" s="128">
+        <f t="shared" si="55"/>
+        <v>360.62009999999992</v>
+      </c>
+      <c r="E35" s="128">
+        <f t="shared" si="55"/>
+        <v>1071.9076000000002</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="97">
+        <f t="shared" ref="G35:J35" si="56">G25*G25</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H35" s="99">
+        <f t="shared" si="56"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I35" s="99">
+        <f t="shared" si="56"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J35" s="45">
+        <f t="shared" si="56"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="64">
+        <f t="shared" ref="L35:O35" si="57">L25*L25</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="M35" s="64">
+        <f t="shared" si="57"/>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="N35" s="64">
+        <f t="shared" si="57"/>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="O35" s="64">
+        <f t="shared" si="57"/>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="72">
+        <f t="shared" ref="Q35:T38" si="58">Q25*Q25</f>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="R35" s="73">
+        <f t="shared" si="58"/>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="S35" s="73">
+        <f t="shared" si="58"/>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="T35" s="67">
+        <f t="shared" si="58"/>
+        <v>2.5733506944445508E-2</v>
+      </c>
+      <c r="U35" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="V35" s="65">
+        <f t="shared" ref="V35:Y38" si="59">V25*V25</f>
+        <v>2.2375173611109737E-2</v>
+      </c>
+      <c r="W35" s="65">
+        <f t="shared" si="59"/>
+        <v>0.43615017361111547</v>
+      </c>
+      <c r="X35" s="65">
+        <f t="shared" si="59"/>
+        <v>4.3576562500002317E-2</v>
+      </c>
+      <c r="Y35" s="65">
+        <f t="shared" si="59"/>
+        <v>0.51780017361109976</v>
+      </c>
+      <c r="Z35" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA35" s="98">
+        <f t="shared" ref="AA35:AD38" si="60">AA25*AA25</f>
+        <v>12.08721111111111</v>
+      </c>
+      <c r="AB35" s="98">
+        <f t="shared" si="60"/>
+        <v>0.15471111111110916</v>
+      </c>
+      <c r="AC35" s="98">
+        <f t="shared" si="60"/>
+        <v>13.225344444444445</v>
+      </c>
+      <c r="AD35" s="98">
+        <f t="shared" si="60"/>
+        <v>42.858844444444401</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="1">
+        <f>SUMSQ(Q23:T28)</f>
+        <v>0.61760416666666451</v>
+      </c>
+      <c r="AJ35" s="24">
+        <f t="shared" si="54"/>
+        <v>0.61760416666666451</v>
+      </c>
+      <c r="AK35" s="130">
+        <f>AJ35/AJ37</f>
+        <v>6.8707265100880904E-2</v>
+      </c>
+      <c r="AL35" s="1">
+        <f>_xlfn.F.DIST.RT(0.06871,AH35,AH$37)</f>
+        <v>0.79656919985029218</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="128">
+        <f t="shared" ref="B36:E36" si="61">B26*B26</f>
+        <v>466.56000000000006</v>
+      </c>
+      <c r="C36" s="128">
+        <f t="shared" si="61"/>
+        <v>487.96809999999999</v>
+      </c>
+      <c r="D36" s="128">
+        <f t="shared" si="61"/>
+        <v>533.1481</v>
+      </c>
+      <c r="E36" s="128">
+        <f t="shared" si="61"/>
+        <v>586.1241</v>
+      </c>
+      <c r="G36" s="97">
+        <f t="shared" ref="G36:J36" si="62">G26*G26</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H36" s="99">
+        <f t="shared" si="62"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I36" s="99">
+        <f t="shared" si="62"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J36" s="45">
+        <f t="shared" si="62"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="L36" s="64">
+        <f t="shared" ref="L36:O36" si="63">L26*L26</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="M36" s="64">
+        <f t="shared" si="63"/>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="N36" s="64">
+        <f t="shared" si="63"/>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="O36" s="64">
+        <f t="shared" si="63"/>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="68">
+        <f t="shared" ref="Q36:T38" si="64">Q26*Q26</f>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="R36" s="69">
+        <f t="shared" si="64"/>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="S36" s="69">
+        <f t="shared" si="64"/>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="T36" s="70">
+        <f t="shared" si="64"/>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="U36" s="2"/>
+      <c r="V36" s="63">
+        <f t="shared" ref="V36:Y38" si="65">V26*V26</f>
+        <v>2.2375173611112926E-2</v>
+      </c>
+      <c r="W36" s="63">
+        <f t="shared" si="65"/>
+        <v>0.43615017361110142</v>
+      </c>
+      <c r="X36" s="63">
+        <f t="shared" si="65"/>
+        <v>4.3576562499997862E-2</v>
+      </c>
+      <c r="Y36" s="63">
+        <f t="shared" si="65"/>
+        <v>0.5178001736111254</v>
+      </c>
+      <c r="AA36" s="98">
+        <f t="shared" ref="AA36:AD38" si="66">AA26*AA26</f>
+        <v>1.40027777777777</v>
+      </c>
+      <c r="AB36" s="98">
+        <f t="shared" si="66"/>
+        <v>2.6028444444444441</v>
+      </c>
+      <c r="AC36" s="98">
+        <f t="shared" si="66"/>
+        <v>0.13444444444444478</v>
+      </c>
+      <c r="AD36" s="98">
+        <f t="shared" si="66"/>
+        <v>4.9877777777779089E-2</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI36" s="1">
+        <f>SUMSQ(V23:Y28)</f>
+        <v>6.1194124999999948</v>
+      </c>
+      <c r="AJ36" s="24">
+        <f t="shared" si="54"/>
+        <v>2.0398041666666651</v>
+      </c>
+      <c r="AK36" s="1">
+        <f>AJ36/AJ37</f>
+        <v>0.2269242553680664</v>
+      </c>
+      <c r="AL36" s="1">
+        <f>_xlfn.F.DIST.RT(AK36,AH36,AH$37)</f>
+        <v>0.87627517588123216</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="128">
+        <f t="shared" ref="B37:E37" si="67">B27*B27</f>
+        <v>547.55999999999995</v>
+      </c>
+      <c r="C37" s="128">
+        <f t="shared" si="67"/>
+        <v>310.46440000000001</v>
+      </c>
+      <c r="D37" s="128">
+        <f t="shared" si="67"/>
+        <v>566.91609999999991</v>
+      </c>
+      <c r="E37" s="128">
+        <f t="shared" si="67"/>
+        <v>658.94890000000009</v>
+      </c>
+      <c r="G37" s="97">
+        <f t="shared" ref="G37:J37" si="68">G27*G27</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H37" s="99">
+        <f t="shared" si="68"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I37" s="99">
+        <f t="shared" si="68"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J37" s="45">
+        <f t="shared" si="68"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="L37" s="64">
+        <f t="shared" ref="L37:O37" si="69">L27*L27</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="M37" s="64">
+        <f t="shared" si="69"/>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="N37" s="64">
+        <f t="shared" si="69"/>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="O37" s="64">
+        <f t="shared" si="69"/>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="71">
+        <f t="shared" ref="Q37:T38" si="70">Q27*Q27</f>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="R37" s="36">
+        <f t="shared" si="70"/>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="S37" s="36">
+        <f t="shared" si="70"/>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="T37" s="66">
+        <f t="shared" si="70"/>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="64">
+        <f t="shared" ref="V37:Y38" si="71">V27*V27</f>
+        <v>2.2375173611112926E-2</v>
+      </c>
+      <c r="W37" s="64">
+        <f t="shared" si="71"/>
+        <v>0.43615017361110142</v>
+      </c>
+      <c r="X37" s="64">
+        <f t="shared" si="71"/>
+        <v>4.3576562499997862E-2</v>
+      </c>
+      <c r="Y37" s="64">
+        <f t="shared" si="71"/>
+        <v>0.5178001736111254</v>
+      </c>
+      <c r="AA37" s="98">
+        <f t="shared" ref="AA37:AD38" si="72">AA27*AA27</f>
+        <v>0.38027777777777838</v>
+      </c>
+      <c r="AB37" s="98">
+        <f t="shared" si="72"/>
+        <v>8.1605444444444384</v>
+      </c>
+      <c r="AC37" s="98">
+        <f t="shared" si="72"/>
+        <v>1.180844444444443</v>
+      </c>
+      <c r="AD37" s="98">
+        <f t="shared" si="72"/>
+        <v>1.5293444444444393</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI37" s="1">
+        <f>SUMSQ(AA23:AD28)</f>
+        <v>143.8227333333333</v>
+      </c>
+      <c r="AJ37" s="24">
+        <f t="shared" si="54"/>
+        <v>8.9889208333333315</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="128">
+        <f t="shared" ref="B38:E38" si="73">B28*B28</f>
+        <v>545.22250000000008</v>
+      </c>
+      <c r="C38" s="128">
+        <f t="shared" si="73"/>
+        <v>471.75839999999994</v>
+      </c>
+      <c r="D38" s="128">
+        <f t="shared" si="73"/>
+        <v>452.41289999999998</v>
+      </c>
+      <c r="E38" s="128">
+        <f t="shared" si="73"/>
+        <v>548.49640000000011</v>
+      </c>
+      <c r="G38" s="43">
+        <f t="shared" ref="G38:J38" si="74">G28*G28</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H38" s="100">
+        <f t="shared" si="74"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I38" s="100">
+        <f t="shared" si="74"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J38" s="46">
+        <f t="shared" si="74"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="L38" s="65">
+        <f t="shared" ref="L38:O38" si="75">L28*L28</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="M38" s="65">
+        <f t="shared" si="75"/>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="N38" s="65">
+        <f t="shared" si="75"/>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="O38" s="65">
+        <f t="shared" si="75"/>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="72">
+        <f t="shared" ref="Q38:T38" si="76">Q28*Q28</f>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="R38" s="73">
+        <f t="shared" si="76"/>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="S38" s="73">
+        <f t="shared" si="76"/>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="T38" s="67">
+        <f t="shared" si="76"/>
+        <v>2.5733506944443228E-2</v>
+      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="65">
+        <f t="shared" ref="V38:Y38" si="77">V28*V28</f>
+        <v>2.2375173611112926E-2</v>
+      </c>
+      <c r="W38" s="65">
+        <f t="shared" si="77"/>
+        <v>0.43615017361110142</v>
+      </c>
+      <c r="X38" s="65">
+        <f t="shared" si="77"/>
+        <v>4.3576562499997862E-2</v>
+      </c>
+      <c r="Y38" s="65">
+        <f t="shared" si="77"/>
+        <v>0.5178001736111254</v>
+      </c>
+      <c r="AA38" s="98">
+        <f t="shared" ref="AA38:AD38" si="78">AA28*AA28</f>
+        <v>0.32111111111111484</v>
+      </c>
+      <c r="AB38" s="98">
+        <f t="shared" si="78"/>
+        <v>1.5458777777777752</v>
+      </c>
+      <c r="AC38" s="98">
+        <f t="shared" si="78"/>
+        <v>2.1121777777777773</v>
+      </c>
+      <c r="AD38" s="98">
+        <f t="shared" si="78"/>
+        <v>1.0268444444444487</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI38" s="24">
+        <f>SUM(AI33:AI37)</f>
+        <v>12674.298099999996</v>
+      </c>
+      <c r="AJ38" s="24">
+        <f t="shared" si="54"/>
+        <v>528.09575416666655</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
+  <mergeCells count="23">
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="V32:Y32"/>
     <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="B22:E22"/>
@@ -8718,6 +9543,14 @@
     <mergeCell ref="AA22:AD22"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8738,12 +9571,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="90" t="s">
@@ -8760,7 +9593,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="125" t="s">
         <v>152</v>
       </c>
       <c r="C4" s="48">
@@ -8777,7 +9610,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="122"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="49">
         <v>24.21</v>
       </c>
@@ -8792,7 +9625,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="123"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="50">
         <v>26.88</v>
       </c>
@@ -8807,7 +9640,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C7" s="49">
@@ -8824,7 +9657,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="122"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="49">
         <v>23.4</v>
       </c>
@@ -8839,7 +9672,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="122"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="50">
         <v>23.35</v>
       </c>
@@ -8984,18 +9817,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="L2" s="124" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="L2" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
     </row>
     <row r="3" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -9012,12 +9845,12 @@
         <v>148</v>
       </c>
       <c r="F3" s="89"/>
-      <c r="G3" s="120" t="s">
+      <c r="G3" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
       <c r="K3" s="89"/>
       <c r="L3" s="93" t="s">
         <v>145</v>
@@ -9271,18 +10104,18 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="L12" s="124" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="L12" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
     </row>
     <row r="13" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="93" t="s">
@@ -9298,12 +10131,12 @@
         <v>148</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="120" t="s">
+      <c r="G13" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
       <c r="K13" s="89"/>
       <c r="L13" s="93" t="s">
         <v>145</v>
@@ -9318,12 +10151,12 @@
         <v>148</v>
       </c>
       <c r="P13" s="89"/>
-      <c r="Q13" s="120" t="s">
+      <c r="Q13" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="51">
@@ -9611,18 +10444,18 @@
       <c r="T19" s="92"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="L22" s="124" t="s">
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="L22" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
     </row>
     <row r="23" spans="2:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="93" t="s">
@@ -9638,12 +10471,12 @@
         <v>148</v>
       </c>
       <c r="F23" s="89"/>
-      <c r="G23" s="120" t="s">
+      <c r="G23" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
       <c r="K23" s="89"/>
       <c r="L23" s="93" t="s">
         <v>145</v>
@@ -9658,12 +10491,12 @@
         <v>148</v>
       </c>
       <c r="P23" s="89"/>
-      <c r="Q23" s="120" t="s">
+      <c r="Q23" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="R23" s="120"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="123"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="51">
@@ -10024,17 +10857,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="L12:O12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/toothpaste_bf2.xlsx
+++ b/data/toothpaste_bf2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/Math326DoE/Math326_Quarto4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="8_{1530781B-6E7F-4C73-ADF8-9272CFAEB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8E9306-9881-4694-9335-771B5FCE049C}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="8_{1530781B-6E7F-4C73-ADF8-9272CFAEB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{671CCE9F-02F7-4A53-9903-28EA06FFB3BF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -2313,7 +2313,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2537,13 +2537,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2573,40 +2629,22 @@
     <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2615,48 +2653,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3002,6 +2998,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3656,12 +3656,12 @@
         <v>58</v>
       </c>
       <c r="K1" s="56"/>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
     </row>
     <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
@@ -3676,12 +3676,12 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
       <c r="L2" s="39" t="s">
         <v>4</v>
       </c>
@@ -4062,12 +4062,12 @@
       <c r="C11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="89" t="s">
+      <c r="L11" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
     </row>
     <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
@@ -4082,12 +4082,12 @@
       <c r="E12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="91" t="s">
+      <c r="G12" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
       <c r="L12" s="12" t="s">
         <v>4</v>
       </c>
@@ -4100,12 +4100,12 @@
       <c r="O12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="91" t="s">
+      <c r="Q12" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
     </row>
     <row r="13" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
@@ -4522,12 +4522,12 @@
       <c r="C23" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="89" t="s">
+      <c r="L23" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
     </row>
     <row r="24" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
@@ -4542,12 +4542,12 @@
       <c r="E24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
       <c r="L24" s="12" t="s">
         <v>4</v>
       </c>
@@ -4560,12 +4560,12 @@
       <c r="O24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="104" t="s">
+      <c r="Q24" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
     </row>
     <row r="25" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
@@ -4751,12 +4751,12 @@
       <c r="C33" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="89" t="s">
+      <c r="L33" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
     </row>
     <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
@@ -4771,12 +4771,12 @@
       <c r="E34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="91" t="s">
+      <c r="G34" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
       <c r="L34" s="12" t="s">
         <v>4</v>
       </c>
@@ -4789,12 +4789,12 @@
       <c r="O34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="104" t="s">
+      <c r="Q34" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
     </row>
     <row r="35" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="29" t="s">
@@ -4809,22 +4809,22 @@
       <c r="E35" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="92" t="s">
+      <c r="G35" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="94"/>
-      <c r="L35" s="101" t="s">
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="114"/>
+      <c r="L35" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="M35" s="101" t="s">
+      <c r="M35" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="101" t="s">
+      <c r="N35" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="O35" s="101" t="s">
+      <c r="O35" s="108" t="s">
         <v>90</v>
       </c>
       <c r="Q35" s="77" t="s">
@@ -4853,14 +4853,14 @@
       <c r="E36" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="95"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="97"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="102"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="117"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
       <c r="Q36" s="77" t="s">
         <v>92</v>
       </c>
@@ -4890,17 +4890,17 @@
       <c r="F37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="95"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="97"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="117"/>
       <c r="K37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="102"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="109"/>
       <c r="P37" s="26" t="s">
         <v>60</v>
       </c>
@@ -4930,14 +4930,14 @@
       <c r="E38" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="95"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="97"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="102"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="117"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="109"/>
+      <c r="O38" s="109"/>
       <c r="Q38" s="77" t="s">
         <v>95</v>
       </c>
@@ -4964,14 +4964,14 @@
       <c r="E39" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="95"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="97"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="102"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="117"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109"/>
       <c r="Q39" s="77" t="s">
         <v>96</v>
       </c>
@@ -4998,14 +4998,14 @@
       <c r="E40" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="98"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="103"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="120"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
       <c r="Q40" s="77" t="s">
         <v>97</v>
       </c>
@@ -5023,12 +5023,12 @@
       <c r="C44" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="89" t="s">
+      <c r="L44" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
     </row>
     <row r="45" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
@@ -5043,12 +5043,12 @@
       <c r="E45" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="91" t="s">
+      <c r="G45" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
       <c r="L45" s="12" t="s">
         <v>4</v>
       </c>
@@ -5061,26 +5061,26 @@
       <c r="O45" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q45" s="91" t="s">
+      <c r="Q45" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="R45" s="91"/>
-      <c r="S45" s="91"/>
-      <c r="T45" s="91"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="105"/>
+      <c r="T45" s="105"/>
     </row>
     <row r="46" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="50"/>
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="94"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="101"/>
-      <c r="N46" s="101"/>
-      <c r="O46" s="101"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="114"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="50"/>
       <c r="S46" s="50"/>
@@ -5091,14 +5091,14 @@
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="E47" s="50"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="97"/>
-      <c r="L47" s="102"/>
-      <c r="M47" s="102"/>
-      <c r="N47" s="102"/>
-      <c r="O47" s="102"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="117"/>
+      <c r="L47" s="109"/>
+      <c r="M47" s="109"/>
+      <c r="N47" s="109"/>
+      <c r="O47" s="109"/>
       <c r="Q47" s="50"/>
       <c r="R47" s="50"/>
       <c r="S47" s="50"/>
@@ -5112,17 +5112,17 @@
       <c r="F48" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="95"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="97"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="117"/>
       <c r="K48" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102"/>
-      <c r="O48" s="102"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="109"/>
+      <c r="O48" s="109"/>
       <c r="P48" s="26" t="s">
         <v>60</v>
       </c>
@@ -5136,14 +5136,14 @@
       <c r="C49" s="50"/>
       <c r="D49" s="50"/>
       <c r="E49" s="50"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="97"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="102"/>
-      <c r="N49" s="102"/>
-      <c r="O49" s="102"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="117"/>
+      <c r="L49" s="109"/>
+      <c r="M49" s="109"/>
+      <c r="N49" s="109"/>
+      <c r="O49" s="109"/>
       <c r="Q49" s="50"/>
       <c r="R49" s="50"/>
       <c r="S49" s="50"/>
@@ -5154,14 +5154,14 @@
       <c r="C50" s="50"/>
       <c r="D50" s="50"/>
       <c r="E50" s="50"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="97"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="102"/>
-      <c r="O50" s="102"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="117"/>
+      <c r="L50" s="109"/>
+      <c r="M50" s="109"/>
+      <c r="N50" s="109"/>
+      <c r="O50" s="109"/>
       <c r="Q50" s="50"/>
       <c r="R50" s="50"/>
       <c r="S50" s="50"/>
@@ -5172,53 +5172,53 @@
       <c r="C51" s="50"/>
       <c r="D51" s="50"/>
       <c r="E51" s="50"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="100"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="103"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="120"/>
+      <c r="L51" s="110"/>
+      <c r="M51" s="110"/>
+      <c r="N51" s="110"/>
+      <c r="O51" s="110"/>
       <c r="Q51" s="50"/>
       <c r="R51" s="50"/>
       <c r="S51" s="50"/>
       <c r="T51" s="50"/>
     </row>
     <row r="53" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B53" s="90" t="s">
+      <c r="B53" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
       <c r="F53" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="90" t="s">
+      <c r="G53" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
       <c r="K53" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L53" s="90" t="s">
+      <c r="L53" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="M53" s="90"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
+      <c r="M53" s="103"/>
+      <c r="N53" s="103"/>
+      <c r="O53" s="103"/>
       <c r="P53" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q53" s="90" t="s">
+      <c r="Q53" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="R53" s="90"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="90"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="103"/>
+      <c r="T53" s="103"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="39"/>
@@ -5227,24 +5227,24 @@
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
-      <c r="G59" s="91" t="s">
+      <c r="G59" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
-      <c r="L59" s="89" t="s">
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
+      <c r="L59" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="M59" s="89"/>
-      <c r="N59" s="89"/>
-      <c r="O59" s="89"/>
-      <c r="Q59" s="91" t="s">
+      <c r="M59" s="104"/>
+      <c r="N59" s="104"/>
+      <c r="O59" s="104"/>
+      <c r="Q59" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="R59" s="91"/>
-      <c r="S59" s="91"/>
-      <c r="T59" s="91"/>
+      <c r="R59" s="105"/>
+      <c r="S59" s="105"/>
+      <c r="T59" s="105"/>
     </row>
     <row r="60" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="37"/>
@@ -5253,15 +5253,15 @@
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="42"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
       <c r="K60" s="42"/>
-      <c r="L60" s="101"/>
-      <c r="M60" s="101"/>
-      <c r="N60" s="101"/>
-      <c r="O60" s="101"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="108"/>
+      <c r="N60" s="108"/>
+      <c r="O60" s="108"/>
       <c r="Q60" s="50"/>
       <c r="R60" s="50"/>
       <c r="S60" s="50"/>
@@ -5274,15 +5274,15 @@
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
       <c r="F61" s="42"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="106"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
       <c r="K61" s="42"/>
-      <c r="L61" s="102"/>
-      <c r="M61" s="102"/>
-      <c r="N61" s="102"/>
-      <c r="O61" s="102"/>
+      <c r="L61" s="109"/>
+      <c r="M61" s="109"/>
+      <c r="N61" s="109"/>
+      <c r="O61" s="109"/>
       <c r="Q61" s="50"/>
       <c r="R61" s="50"/>
       <c r="S61" s="50"/>
@@ -5297,17 +5297,17 @@
       <c r="F62" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="106"/>
-      <c r="H62" s="106"/>
-      <c r="I62" s="106"/>
-      <c r="J62" s="106"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="107"/>
       <c r="K62" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="L62" s="102"/>
-      <c r="M62" s="102"/>
-      <c r="N62" s="102"/>
-      <c r="O62" s="102"/>
+      <c r="L62" s="109"/>
+      <c r="M62" s="109"/>
+      <c r="N62" s="109"/>
+      <c r="O62" s="109"/>
       <c r="P62" s="26" t="s">
         <v>60</v>
       </c>
@@ -5323,14 +5323,14 @@
       <c r="D63" s="50"/>
       <c r="E63" s="50"/>
       <c r="F63" s="42"/>
-      <c r="G63" s="106"/>
-      <c r="H63" s="106"/>
-      <c r="I63" s="106"/>
-      <c r="J63" s="106"/>
-      <c r="L63" s="102"/>
-      <c r="M63" s="102"/>
-      <c r="N63" s="102"/>
-      <c r="O63" s="102"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="L63" s="109"/>
+      <c r="M63" s="109"/>
+      <c r="N63" s="109"/>
+      <c r="O63" s="109"/>
       <c r="Q63" s="50"/>
       <c r="R63" s="50"/>
       <c r="S63" s="50"/>
@@ -5343,14 +5343,14 @@
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="42"/>
-      <c r="G64" s="106"/>
-      <c r="H64" s="106"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="106"/>
-      <c r="L64" s="102"/>
-      <c r="M64" s="102"/>
-      <c r="N64" s="102"/>
-      <c r="O64" s="102"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="107"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="109"/>
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="50"/>
@@ -5363,14 +5363,14 @@
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
       <c r="F65" s="42"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="106"/>
-      <c r="I65" s="106"/>
-      <c r="J65" s="106"/>
-      <c r="L65" s="103"/>
-      <c r="M65" s="103"/>
-      <c r="N65" s="103"/>
-      <c r="O65" s="103"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="107"/>
+      <c r="L65" s="110"/>
+      <c r="M65" s="110"/>
+      <c r="N65" s="110"/>
+      <c r="O65" s="110"/>
       <c r="Q65" s="50"/>
       <c r="R65" s="50"/>
       <c r="S65" s="50"/>
@@ -5383,66 +5383,42 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B67" s="90" t="s">
+      <c r="B67" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="90"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
       <c r="F67" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="90" t="s">
+      <c r="G67" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="103"/>
       <c r="K67" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L67" s="90" t="s">
+      <c r="L67" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="M67" s="90"/>
-      <c r="N67" s="90"/>
-      <c r="O67" s="90"/>
+      <c r="M67" s="103"/>
+      <c r="N67" s="103"/>
+      <c r="O67" s="103"/>
       <c r="P67" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="90" t="s">
+      <c r="Q67" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="R67" s="90"/>
-      <c r="S67" s="90"/>
-      <c r="T67" s="90"/>
+      <c r="R67" s="103"/>
+      <c r="S67" s="103"/>
+      <c r="T67" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="G60:J65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="N60:N65"/>
-    <mergeCell ref="O60:O65"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G35:J40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="L33:O33"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="G53:J53"/>
@@ -5459,6 +5435,30 @@
     <mergeCell ref="O46:O51"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="G24:J24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="G35:J40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="G60:J65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="O60:O65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6004,7 +6004,7 @@
       <c r="S7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="108" t="s">
+      <c r="U7" s="121" t="s">
         <v>37</v>
       </c>
       <c r="V7" s="8" t="s">
@@ -6016,7 +6016,7 @@
       <c r="X7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="108" t="s">
+      <c r="Z7" s="121" t="s">
         <v>37</v>
       </c>
       <c r="AA7" s="8" t="s">
@@ -6048,7 +6048,7 @@
       <c r="S8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="108"/>
+      <c r="U8" s="121"/>
       <c r="V8" s="14" t="s">
         <v>26</v>
       </c>
@@ -6058,7 +6058,7 @@
       <c r="X8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="108"/>
+      <c r="Z8" s="121"/>
       <c r="AA8" s="14" t="s">
         <v>26</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="S9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="109" t="s">
+      <c r="U9" s="122" t="s">
         <v>38</v>
       </c>
       <c r="V9" s="11" t="s">
@@ -6100,7 +6100,7 @@
       <c r="X9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="109" t="s">
+      <c r="Z9" s="122" t="s">
         <v>38</v>
       </c>
       <c r="AA9" s="11" t="s">
@@ -6123,7 +6123,7 @@
       <c r="S10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="109"/>
+      <c r="U10" s="122"/>
       <c r="V10" s="14" t="s">
         <v>28</v>
       </c>
@@ -6133,7 +6133,7 @@
       <c r="X10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="109"/>
+      <c r="Z10" s="122"/>
       <c r="AA10" s="14" t="s">
         <v>28</v>
       </c>
@@ -6223,24 +6223,24 @@
       </c>
     </row>
     <row r="26" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="AB26" s="107" t="s">
+      <c r="AB26" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="107"/>
-      <c r="AH26" s="107" t="s">
+      <c r="AC26" s="123"/>
+      <c r="AD26" s="123"/>
+      <c r="AE26" s="123"/>
+      <c r="AH26" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="AI26" s="107"/>
-      <c r="AJ26" s="107"/>
-      <c r="AK26" s="107"/>
-      <c r="AN26" s="107" t="s">
+      <c r="AI26" s="123"/>
+      <c r="AJ26" s="123"/>
+      <c r="AK26" s="123"/>
+      <c r="AN26" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="AO26" s="107"/>
-      <c r="AP26" s="107"/>
-      <c r="AQ26" s="107"/>
+      <c r="AO26" s="123"/>
+      <c r="AP26" s="123"/>
+      <c r="AQ26" s="123"/>
     </row>
     <row r="27" spans="7:43" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
@@ -6369,7 +6369,7 @@
       <c r="AE28" s="10">
         <v>24.39</v>
       </c>
-      <c r="AG28" s="108" t="s">
+      <c r="AG28" s="121" t="s">
         <v>117</v>
       </c>
       <c r="AH28" s="8">
@@ -6384,7 +6384,7 @@
       <c r="AK28" s="10">
         <v>24.39</v>
       </c>
-      <c r="AM28" s="108" t="s">
+      <c r="AM28" s="121" t="s">
         <v>117</v>
       </c>
       <c r="AN28" s="8">
@@ -6455,7 +6455,7 @@
       <c r="AE29" s="13">
         <v>21.45</v>
       </c>
-      <c r="AG29" s="108"/>
+      <c r="AG29" s="121"/>
       <c r="AH29" s="11">
         <v>24.21</v>
       </c>
@@ -6468,7 +6468,7 @@
       <c r="AK29" s="13">
         <v>21.45</v>
       </c>
-      <c r="AM29" s="108"/>
+      <c r="AM29" s="121"/>
       <c r="AN29" s="11">
         <v>24.21</v>
       </c>
@@ -6537,7 +6537,7 @@
       <c r="AE30" s="13">
         <v>32.74</v>
       </c>
-      <c r="AG30" s="108"/>
+      <c r="AG30" s="121"/>
       <c r="AH30" s="11">
         <v>26.88</v>
       </c>
@@ -6550,7 +6550,7 @@
       <c r="AK30" s="13">
         <v>32.74</v>
       </c>
-      <c r="AM30" s="108"/>
+      <c r="AM30" s="121"/>
       <c r="AN30" s="14">
         <v>26.88</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="AE31" s="13">
         <v>24.21</v>
       </c>
-      <c r="AG31" s="108" t="s">
+      <c r="AG31" s="121" t="s">
         <v>116</v>
       </c>
       <c r="AH31" s="8">
@@ -6613,7 +6613,7 @@
       <c r="AK31" s="10">
         <v>24.21</v>
       </c>
-      <c r="AM31" s="108" t="s">
+      <c r="AM31" s="121" t="s">
         <v>116</v>
       </c>
       <c r="AN31" s="11">
@@ -6663,7 +6663,7 @@
       <c r="AE32" s="13">
         <v>25.67</v>
       </c>
-      <c r="AG32" s="108"/>
+      <c r="AG32" s="121"/>
       <c r="AH32" s="11">
         <v>23.4</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="AK32" s="13">
         <v>25.67</v>
       </c>
-      <c r="AM32" s="108"/>
+      <c r="AM32" s="121"/>
       <c r="AN32" s="11">
         <v>23.4</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="AE33" s="16">
         <v>23.42</v>
       </c>
-      <c r="AG33" s="108"/>
+      <c r="AG33" s="121"/>
       <c r="AH33" s="14">
         <v>23.35</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="AK33" s="16">
         <v>23.42</v>
       </c>
-      <c r="AM33" s="108"/>
+      <c r="AM33" s="121"/>
       <c r="AN33" s="14">
         <v>23.35</v>
       </c>
@@ -6858,7 +6858,7 @@
       <c r="AE37" s="10">
         <v>24.39</v>
       </c>
-      <c r="AG37" s="108" t="s">
+      <c r="AG37" s="121" t="s">
         <v>42</v>
       </c>
       <c r="AH37" s="8">
@@ -6873,7 +6873,7 @@
       <c r="AK37" s="10">
         <v>24.39</v>
       </c>
-      <c r="AM37" s="109" t="s">
+      <c r="AM37" s="122" t="s">
         <v>42</v>
       </c>
       <c r="AN37" s="8">
@@ -6911,7 +6911,7 @@
       <c r="AE38" s="13">
         <v>21.45</v>
       </c>
-      <c r="AG38" s="108"/>
+      <c r="AG38" s="121"/>
       <c r="AH38" s="11">
         <v>24.21</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="AK38" s="13">
         <v>21.45</v>
       </c>
-      <c r="AM38" s="109"/>
+      <c r="AM38" s="122"/>
       <c r="AN38" s="11">
         <v>24.21</v>
       </c>
@@ -6960,7 +6960,7 @@
       <c r="AE39" s="13">
         <v>32.74</v>
       </c>
-      <c r="AG39" s="108"/>
+      <c r="AG39" s="121"/>
       <c r="AH39" s="11">
         <v>26.88</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="AK39" s="13">
         <v>32.74</v>
       </c>
-      <c r="AM39" s="109"/>
+      <c r="AM39" s="122"/>
       <c r="AN39" s="14">
         <v>26.88</v>
       </c>
@@ -7009,7 +7009,7 @@
       <c r="AE40" s="13">
         <v>24.21</v>
       </c>
-      <c r="AG40" s="108" t="s">
+      <c r="AG40" s="121" t="s">
         <v>43</v>
       </c>
       <c r="AH40" s="8">
@@ -7024,7 +7024,7 @@
       <c r="AK40" s="10">
         <v>24.21</v>
       </c>
-      <c r="AM40" s="109" t="s">
+      <c r="AM40" s="122" t="s">
         <v>43</v>
       </c>
       <c r="AN40" s="11">
@@ -7062,7 +7062,7 @@
       <c r="AE41" s="13">
         <v>25.67</v>
       </c>
-      <c r="AG41" s="108"/>
+      <c r="AG41" s="121"/>
       <c r="AH41" s="11">
         <v>23.4</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="AK41" s="13">
         <v>25.67</v>
       </c>
-      <c r="AM41" s="109"/>
+      <c r="AM41" s="122"/>
       <c r="AN41" s="11">
         <v>23.4</v>
       </c>
@@ -7111,7 +7111,7 @@
       <c r="AE42" s="16">
         <v>23.42</v>
       </c>
-      <c r="AG42" s="108"/>
+      <c r="AG42" s="121"/>
       <c r="AH42" s="14">
         <v>23.35</v>
       </c>
@@ -7124,7 +7124,7 @@
       <c r="AK42" s="16">
         <v>23.42</v>
       </c>
-      <c r="AM42" s="109"/>
+      <c r="AM42" s="122"/>
       <c r="AN42" s="14">
         <v>23.35</v>
       </c>
@@ -7626,6 +7626,11 @@
     <sortCondition ref="H27:H51"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AG40:AG42"/>
     <mergeCell ref="AM40:AM42"/>
     <mergeCell ref="AG31:AG33"/>
@@ -7636,11 +7641,6 @@
     <mergeCell ref="AG37:AG39"/>
     <mergeCell ref="AM37:AM39"/>
     <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="Z9:Z10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7651,7 +7651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -7678,36 +7678,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="G2" s="110" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="G2" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="L2" s="110" t="s">
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="L2" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="Q2" s="112" t="s">
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="Q2" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="V2" s="91" t="s">
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="V2" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
@@ -7866,26 +7866,26 @@
       <c r="Y8" s="46"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="L10" s="91" t="s">
+      <c r="L10" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="G11" s="110" t="s">
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="G11" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
       <c r="L11" s="12" t="s">
         <v>154</v>
       </c>
@@ -7898,24 +7898,24 @@
       <c r="O11" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q11" s="110" t="s">
+      <c r="Q11" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="V11" s="112" t="s">
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="V11" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="AA11" s="110" t="s">
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="AA11" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="46">
@@ -8494,26 +8494,26 @@
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="L21" s="91" t="s">
+      <c r="L21" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
     </row>
     <row r="22" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="G22" s="110" t="s">
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="G22" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
       <c r="L22" s="12" t="s">
         <v>154</v>
       </c>
@@ -8526,24 +8526,24 @@
       <c r="O22" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q22" s="110" t="s">
+      <c r="Q22" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="V22" s="112" t="s">
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="V22" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="AA22" s="110" t="s">
+      <c r="W22" s="124"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="124"/>
+      <c r="AA22" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124"/>
     </row>
     <row r="23" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="46">
@@ -9143,26 +9143,26 @@
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="L31" s="91" t="s">
+      <c r="L31" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
     </row>
     <row r="32" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="G32" s="91" t="s">
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="G32" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
       <c r="L32" s="12" t="s">
         <v>154</v>
       </c>
@@ -9175,24 +9175,24 @@
       <c r="O32" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q32" s="91" t="s">
+      <c r="Q32" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="V32" s="111" t="s">
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="V32" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="W32" s="91"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="91"/>
-      <c r="AA32" s="110" t="s">
+      <c r="W32" s="105"/>
+      <c r="X32" s="105"/>
+      <c r="Y32" s="105"/>
+      <c r="AA32" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
+      <c r="AB32" s="124"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="124"/>
       <c r="AH32" s="1" t="s">
         <v>126</v>
       </c>
@@ -9909,14 +9909,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="V32:Y32"/>
     <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="B22:E22"/>
@@ -9926,12 +9924,14 @@
     <mergeCell ref="AA22:AD22"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9942,49 +9942,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5260BD5D-0539-41D9-9873-5C11F72F59A0}">
   <dimension ref="A2:Y52"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="5.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="5" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="1" customWidth="1"/>
+    <col min="12" max="15" width="7.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="1" customWidth="1"/>
+    <col min="17" max="20" width="7.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="1" customWidth="1"/>
+    <col min="22" max="25" width="7.28515625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="39"/>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="92" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="L2" s="115" t="s">
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="L2" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="Q2" s="91" t="s">
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="Q2" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="V2" s="91" t="s">
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="V2" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
     </row>
     <row r="3" spans="2:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="50"/>
@@ -9992,19 +9999,19 @@
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="118"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="91"/>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
       <c r="X3" s="50"/>
@@ -10016,19 +10023,19 @@
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="42"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
       <c r="K4" s="42"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="118"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="91"/>
       <c r="V4" s="50"/>
       <c r="W4" s="50"/>
       <c r="X4" s="50"/>
@@ -10042,24 +10049,24 @@
       <c r="F5" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
       <c r="P5" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="118"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="91"/>
       <c r="U5" s="26" t="s">
         <v>60</v>
       </c>
@@ -10074,18 +10081,18 @@
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
       <c r="F6" s="42"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="118"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="91"/>
       <c r="V6" s="50"/>
       <c r="W6" s="50"/>
       <c r="X6" s="50"/>
@@ -10097,18 +10104,18 @@
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="42"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="118"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="91"/>
       <c r="V7" s="50"/>
       <c r="W7" s="50"/>
       <c r="X7" s="50"/>
@@ -10120,18 +10127,18 @@
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
       <c r="F8" s="42"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="118"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="91"/>
       <c r="V8" s="50"/>
       <c r="W8" s="50"/>
       <c r="X8" s="50"/>
@@ -10144,78 +10151,78 @@
       <c r="J9" s="56"/>
     </row>
     <row r="10" spans="2:25" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
       <c r="K10" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="90" t="s">
+      <c r="L10" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
       <c r="P10" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" s="90" t="s">
+      <c r="Q10" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
       <c r="U10" s="51"/>
-      <c r="V10" s="90" t="s">
+      <c r="V10" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39"/>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="92" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="L13" s="115" t="s">
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="L13" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="Q13" s="91" t="s">
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="Q13" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="R13" s="91"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="91"/>
-      <c r="V13" s="91" t="s">
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="V13" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="W13" s="91"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
     </row>
     <row r="14" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="50"/>
@@ -10223,19 +10230,19 @@
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
       <c r="F14" s="42"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="118"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="91"/>
       <c r="V14" s="50"/>
       <c r="W14" s="50"/>
       <c r="X14" s="50"/>
@@ -10247,19 +10254,19 @@
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
       <c r="F15" s="42"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
       <c r="K15" s="42"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="118"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="91"/>
       <c r="V15" s="50"/>
       <c r="W15" s="50"/>
       <c r="X15" s="50"/>
@@ -10273,20 +10280,20 @@
       <c r="F16" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
       <c r="K16" s="70"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
       <c r="P16" s="26"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="118"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="91"/>
       <c r="U16" s="26"/>
       <c r="V16" s="50"/>
       <c r="W16" s="50"/>
@@ -10299,18 +10306,18 @@
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="118"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="91"/>
       <c r="V17" s="50"/>
       <c r="W17" s="50"/>
       <c r="X17" s="50"/>
@@ -10322,18 +10329,18 @@
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="42"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="118"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="91"/>
       <c r="V18" s="50"/>
       <c r="W18" s="50"/>
       <c r="X18" s="50"/>
@@ -10345,18 +10352,18 @@
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
       <c r="F19" s="42"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="118"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="91"/>
       <c r="V19" s="50"/>
       <c r="W19" s="50"/>
       <c r="X19" s="50"/>
@@ -10368,26 +10375,26 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="L23" s="91" t="s">
+      <c r="L23" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="G24" s="110" t="s">
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="G24" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
       <c r="L24" s="12" t="s">
         <v>154</v>
       </c>
@@ -10400,18 +10407,18 @@
       <c r="O24" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q24" s="110" t="s">
+      <c r="Q24" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="V24" s="110" t="s">
+      <c r="R24" s="124"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="124"/>
+      <c r="V24" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="124"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="46">
@@ -10455,19 +10462,19 @@
         <v>25.313333333333343</v>
       </c>
       <c r="P25" s="42"/>
-      <c r="Q25" s="120">
+      <c r="Q25" s="93">
         <f>AVERAGE($B$25:$E$25)</f>
         <v>21.912500000000001</v>
       </c>
-      <c r="R25" s="121">
+      <c r="R25" s="94">
         <f t="shared" ref="R25:T25" si="1">AVERAGE($B$25:$E$25)</f>
         <v>21.912500000000001</v>
       </c>
-      <c r="S25" s="121">
+      <c r="S25" s="94">
         <f t="shared" si="1"/>
         <v>21.912500000000001</v>
       </c>
-      <c r="T25" s="122">
+      <c r="T25" s="95">
         <f t="shared" si="1"/>
         <v>21.912500000000001</v>
       </c>
@@ -10531,19 +10538,19 @@
         <v>25.313333333333343</v>
       </c>
       <c r="P26" s="42"/>
-      <c r="Q26" s="120">
+      <c r="Q26" s="93">
         <f>AVERAGE($B$26:$E$26)</f>
         <v>22.2425</v>
       </c>
-      <c r="R26" s="121">
+      <c r="R26" s="94">
         <f t="shared" ref="R26:T26" si="4">AVERAGE($B$26:$E$26)</f>
         <v>22.2425</v>
       </c>
-      <c r="S26" s="121">
+      <c r="S26" s="94">
         <f t="shared" si="4"/>
         <v>22.2425</v>
       </c>
-      <c r="T26" s="122">
+      <c r="T26" s="95">
         <f t="shared" si="4"/>
         <v>22.2425</v>
       </c>
@@ -10607,19 +10614,19 @@
         <v>25.313333333333343</v>
       </c>
       <c r="P27" s="42"/>
-      <c r="Q27" s="120">
+      <c r="Q27" s="93">
         <f>AVERAGE($B$27:$E$27)</f>
         <v>24.619999999999997</v>
       </c>
-      <c r="R27" s="121">
+      <c r="R27" s="94">
         <f t="shared" ref="R27:T27" si="6">AVERAGE($B$27:$E$27)</f>
         <v>24.619999999999997</v>
       </c>
-      <c r="S27" s="121">
+      <c r="S27" s="94">
         <f t="shared" si="6"/>
         <v>24.619999999999997</v>
       </c>
-      <c r="T27" s="122">
+      <c r="T27" s="95">
         <f t="shared" si="6"/>
         <v>24.619999999999997</v>
       </c>
@@ -10683,19 +10690,19 @@
         <v>25.313333333333343</v>
       </c>
       <c r="P28" s="42"/>
-      <c r="Q28" s="120">
+      <c r="Q28" s="93">
         <f>AVERAGE($B$28:$E$28)</f>
         <v>22.747500000000002</v>
       </c>
-      <c r="R28" s="121">
+      <c r="R28" s="94">
         <f t="shared" ref="R28:T28" si="7">AVERAGE($B$28:$E$28)</f>
         <v>22.747500000000002</v>
       </c>
-      <c r="S28" s="121">
+      <c r="S28" s="94">
         <f t="shared" si="7"/>
         <v>22.747500000000002</v>
       </c>
-      <c r="T28" s="122">
+      <c r="T28" s="95">
         <f t="shared" si="7"/>
         <v>22.747500000000002</v>
       </c>
@@ -10759,19 +10766,19 @@
         <v>25.313333333333343</v>
       </c>
       <c r="P29" s="42"/>
-      <c r="Q29" s="120">
+      <c r="Q29" s="93">
         <f>AVERAGE($B$29:$E$29)</f>
         <v>22.625</v>
       </c>
-      <c r="R29" s="121">
+      <c r="R29" s="94">
         <f t="shared" ref="R29:T29" si="8">AVERAGE($B$29:$E$29)</f>
         <v>22.625</v>
       </c>
-      <c r="S29" s="121">
+      <c r="S29" s="94">
         <f t="shared" si="8"/>
         <v>22.625</v>
       </c>
-      <c r="T29" s="122">
+      <c r="T29" s="95">
         <f t="shared" si="8"/>
         <v>22.625</v>
       </c>
@@ -10835,19 +10842,19 @@
         <v>25.313333333333343</v>
       </c>
       <c r="P30" s="42"/>
-      <c r="Q30" s="120">
+      <c r="Q30" s="93">
         <f>AVERAGE($B$30:$E$30)</f>
         <v>22.44</v>
       </c>
-      <c r="R30" s="121">
+      <c r="R30" s="94">
         <f t="shared" ref="R30:T30" si="9">AVERAGE($B$30:$E$30)</f>
         <v>22.44</v>
       </c>
-      <c r="S30" s="121">
+      <c r="S30" s="94">
         <f t="shared" si="9"/>
         <v>22.44</v>
       </c>
-      <c r="T30" s="122">
+      <c r="T30" s="95">
         <f t="shared" si="9"/>
         <v>22.44</v>
       </c>
@@ -10875,26 +10882,26 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="L33" s="91" t="s">
+      <c r="L33" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="G34" s="110" t="s">
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="G34" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
       <c r="L34" s="12" t="s">
         <v>154</v>
       </c>
@@ -10907,18 +10914,18 @@
       <c r="O34" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q34" s="110" t="s">
+      <c r="Q34" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="V34" s="110" t="s">
+      <c r="R34" s="124"/>
+      <c r="S34" s="124"/>
+      <c r="T34" s="124"/>
+      <c r="V34" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
+      <c r="W34" s="124"/>
+      <c r="X34" s="124"/>
+      <c r="Y34" s="124"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="46">
@@ -10966,19 +10973,19 @@
         <v>2.5487500000000125</v>
       </c>
       <c r="P35" s="42"/>
-      <c r="Q35" s="120">
+      <c r="Q35" s="93">
         <f>Q25-G35</f>
         <v>-0.85208333333332931</v>
       </c>
-      <c r="R35" s="121">
+      <c r="R35" s="94">
         <f t="shared" ref="R35:T35" si="12">R25-H35</f>
         <v>-0.85208333333332931</v>
       </c>
-      <c r="S35" s="121">
+      <c r="S35" s="94">
         <f t="shared" si="12"/>
         <v>-0.85208333333332931</v>
       </c>
-      <c r="T35" s="122">
+      <c r="T35" s="95">
         <f t="shared" si="12"/>
         <v>-0.85208333333332931</v>
       </c>
@@ -11046,19 +11053,19 @@
         <v>2.5487500000000125</v>
       </c>
       <c r="P36" s="42"/>
-      <c r="Q36" s="120">
+      <c r="Q36" s="93">
         <f t="shared" ref="Q36:T36" si="16">Q26-G36</f>
         <v>-0.52208333333333101</v>
       </c>
-      <c r="R36" s="121">
+      <c r="R36" s="94">
         <f t="shared" si="16"/>
         <v>-0.52208333333333101</v>
       </c>
-      <c r="S36" s="121">
+      <c r="S36" s="94">
         <f t="shared" si="16"/>
         <v>-0.52208333333333101</v>
       </c>
-      <c r="T36" s="122">
+      <c r="T36" s="95">
         <f t="shared" si="16"/>
         <v>-0.52208333333333101</v>
       </c>
@@ -11134,19 +11141,19 @@
       <c r="P37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Q37" s="120">
+      <c r="Q37" s="93">
         <f t="shared" ref="Q37:T37" si="19">Q27-G37</f>
         <v>1.8554166666666667</v>
       </c>
-      <c r="R37" s="121">
+      <c r="R37" s="94">
         <f t="shared" si="19"/>
         <v>1.8554166666666667</v>
       </c>
-      <c r="S37" s="121">
+      <c r="S37" s="94">
         <f t="shared" si="19"/>
         <v>1.8554166666666667</v>
       </c>
-      <c r="T37" s="122">
+      <c r="T37" s="95">
         <f t="shared" si="19"/>
         <v>1.8554166666666667</v>
       </c>
@@ -11216,19 +11223,19 @@
         <v>2.5487500000000125</v>
       </c>
       <c r="P38" s="42"/>
-      <c r="Q38" s="120">
+      <c r="Q38" s="93">
         <f t="shared" ref="Q38:T38" si="22">Q28-G38</f>
         <v>-1.7083333333328454E-2</v>
       </c>
-      <c r="R38" s="121">
+      <c r="R38" s="94">
         <f t="shared" si="22"/>
         <v>-1.7083333333328454E-2</v>
       </c>
-      <c r="S38" s="121">
+      <c r="S38" s="94">
         <f t="shared" si="22"/>
         <v>-1.7083333333328454E-2</v>
       </c>
-      <c r="T38" s="122">
+      <c r="T38" s="95">
         <f t="shared" si="22"/>
         <v>-1.7083333333328454E-2</v>
       </c>
@@ -11296,19 +11303,19 @@
         <v>2.5487500000000125</v>
       </c>
       <c r="P39" s="42"/>
-      <c r="Q39" s="120">
+      <c r="Q39" s="93">
         <f t="shared" ref="Q39:T39" si="25">Q29-G39</f>
         <v>-0.13958333333333073</v>
       </c>
-      <c r="R39" s="121">
+      <c r="R39" s="94">
         <f t="shared" si="25"/>
         <v>-0.13958333333333073</v>
       </c>
-      <c r="S39" s="121">
+      <c r="S39" s="94">
         <f t="shared" si="25"/>
         <v>-0.13958333333333073</v>
       </c>
-      <c r="T39" s="122">
+      <c r="T39" s="95">
         <f t="shared" si="25"/>
         <v>-0.13958333333333073</v>
       </c>
@@ -11376,19 +11383,19 @@
         <v>2.5487500000000125</v>
       </c>
       <c r="P40" s="42"/>
-      <c r="Q40" s="120">
+      <c r="Q40" s="93">
         <f t="shared" ref="Q40:T40" si="28">Q30-G40</f>
         <v>-0.32458333333332945</v>
       </c>
-      <c r="R40" s="121">
+      <c r="R40" s="94">
         <f t="shared" si="28"/>
         <v>-0.32458333333332945</v>
       </c>
-      <c r="S40" s="121">
+      <c r="S40" s="94">
         <f t="shared" si="28"/>
         <v>-0.32458333333332945</v>
       </c>
-      <c r="T40" s="122">
+      <c r="T40" s="95">
         <f t="shared" si="28"/>
         <v>-0.32458333333332945</v>
       </c>
@@ -11411,41 +11418,41 @@
       </c>
     </row>
     <row r="42" spans="1:25" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
       <c r="F42" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
       <c r="K42" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L42" s="130"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="130"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="102"/>
       <c r="P42" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q42" s="130"/>
-      <c r="R42" s="130"/>
-      <c r="S42" s="130"/>
-      <c r="T42" s="130"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="102"/>
+      <c r="T42" s="102"/>
       <c r="U42" s="51"/>
-      <c r="V42" s="130"/>
-      <c r="W42" s="130"/>
+      <c r="V42" s="102"/>
+      <c r="W42" s="102"/>
       <c r="X42"/>
-      <c r="Y42" s="130"/>
+      <c r="Y42" s="102"/>
     </row>
     <row r="43" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="I43" s="129"/>
+      <c r="I43" s="101"/>
       <c r="M43"/>
       <c r="S43"/>
     </row>
@@ -11456,26 +11463,26 @@
       <c r="M44"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="L45" s="91" t="s">
+      <c r="L45" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="G46" s="110" t="s">
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="G46" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
       <c r="L46" s="12" t="s">
         <v>154</v>
       </c>
@@ -11488,18 +11495,18 @@
       <c r="O46" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q46" s="110" t="s">
+      <c r="Q46" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
-      <c r="T46" s="110"/>
-      <c r="V46" s="110" t="s">
+      <c r="R46" s="124"/>
+      <c r="S46" s="124"/>
+      <c r="T46" s="124"/>
+      <c r="V46" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="W46" s="110"/>
-      <c r="X46" s="110"/>
-      <c r="Y46" s="110"/>
+      <c r="W46" s="124"/>
+      <c r="X46" s="124"/>
+      <c r="Y46" s="124"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="46">
@@ -11551,19 +11558,19 @@
         <v>6.4961265625000637</v>
       </c>
       <c r="P47" s="42"/>
-      <c r="Q47" s="120">
+      <c r="Q47" s="93">
         <f t="shared" ref="Q47:T47" si="33">Q35*Q35</f>
         <v>0.72604600694443755</v>
       </c>
-      <c r="R47" s="121">
+      <c r="R47" s="94">
         <f t="shared" si="33"/>
         <v>0.72604600694443755</v>
       </c>
-      <c r="S47" s="121">
+      <c r="S47" s="94">
         <f t="shared" si="33"/>
         <v>0.72604600694443755</v>
       </c>
-      <c r="T47" s="122">
+      <c r="T47" s="95">
         <f t="shared" si="33"/>
         <v>0.72604600694443755</v>
       </c>
@@ -11635,19 +11642,19 @@
         <v>6.4961265625000637</v>
       </c>
       <c r="P48" s="42"/>
-      <c r="Q48" s="120">
+      <c r="Q48" s="93">
         <f t="shared" ref="Q48:T48" si="38">Q36*Q36</f>
         <v>0.27257100694444203</v>
       </c>
-      <c r="R48" s="121">
+      <c r="R48" s="94">
         <f t="shared" si="38"/>
         <v>0.27257100694444203</v>
       </c>
-      <c r="S48" s="121">
+      <c r="S48" s="94">
         <f t="shared" si="38"/>
         <v>0.27257100694444203</v>
       </c>
-      <c r="T48" s="122">
+      <c r="T48" s="95">
         <f t="shared" si="38"/>
         <v>0.27257100694444203</v>
       </c>
@@ -11721,19 +11728,19 @@
         <v>6.4961265625000637</v>
       </c>
       <c r="P49" s="25"/>
-      <c r="Q49" s="120">
+      <c r="Q49" s="93">
         <f t="shared" ref="Q49:T49" si="43">Q37*Q37</f>
         <v>3.4425710069444446</v>
       </c>
-      <c r="R49" s="121">
+      <c r="R49" s="94">
         <f t="shared" si="43"/>
         <v>3.4425710069444446</v>
       </c>
-      <c r="S49" s="121">
+      <c r="S49" s="94">
         <f t="shared" si="43"/>
         <v>3.4425710069444446</v>
       </c>
-      <c r="T49" s="122">
+      <c r="T49" s="95">
         <f t="shared" si="43"/>
         <v>3.4425710069444446</v>
       </c>
@@ -11805,19 +11812,19 @@
         <v>6.4961265625000637</v>
       </c>
       <c r="P50" s="42"/>
-      <c r="Q50" s="120">
+      <c r="Q50" s="93">
         <f t="shared" ref="Q50:T50" si="48">Q38*Q38</f>
         <v>2.9184027777761105E-4</v>
       </c>
-      <c r="R50" s="121">
+      <c r="R50" s="94">
         <f t="shared" si="48"/>
         <v>2.9184027777761105E-4</v>
       </c>
-      <c r="S50" s="121">
+      <c r="S50" s="94">
         <f t="shared" si="48"/>
         <v>2.9184027777761105E-4</v>
       </c>
-      <c r="T50" s="122">
+      <c r="T50" s="95">
         <f t="shared" si="48"/>
         <v>2.9184027777761105E-4</v>
       </c>
@@ -11889,19 +11896,19 @@
         <v>6.4961265625000637</v>
       </c>
       <c r="P51" s="42"/>
-      <c r="Q51" s="120">
+      <c r="Q51" s="93">
         <f t="shared" ref="Q51:T51" si="53">Q39*Q39</f>
         <v>1.9483506944443719E-2</v>
       </c>
-      <c r="R51" s="121">
+      <c r="R51" s="94">
         <f t="shared" si="53"/>
         <v>1.9483506944443719E-2</v>
       </c>
-      <c r="S51" s="121">
+      <c r="S51" s="94">
         <f t="shared" si="53"/>
         <v>1.9483506944443719E-2</v>
       </c>
-      <c r="T51" s="122">
+      <c r="T51" s="95">
         <f t="shared" si="53"/>
         <v>1.9483506944443719E-2</v>
       </c>
@@ -11973,19 +11980,19 @@
         <v>6.4961265625000637</v>
       </c>
       <c r="P52" s="42"/>
-      <c r="Q52" s="120">
+      <c r="Q52" s="93">
         <f t="shared" ref="Q52:T52" si="58">Q40*Q40</f>
         <v>0.10535434027777525</v>
       </c>
-      <c r="R52" s="121">
+      <c r="R52" s="94">
         <f t="shared" si="58"/>
         <v>0.10535434027777525</v>
       </c>
-      <c r="S52" s="121">
+      <c r="S52" s="94">
         <f t="shared" si="58"/>
         <v>0.10535434027777525</v>
       </c>
-      <c r="T52" s="122">
+      <c r="T52" s="95">
         <f t="shared" si="58"/>
         <v>0.10535434027777525</v>
       </c>
@@ -12009,6 +12016,39 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="G3:J8"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="M3:M8"/>
+    <mergeCell ref="N3:N8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="G14:J19"/>
+    <mergeCell ref="L14:L19"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="N14:N19"/>
+    <mergeCell ref="O14:O19"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="V34:Y34"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="G46:J46"/>
     <mergeCell ref="Q46:T46"/>
@@ -12016,39 +12056,6 @@
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="G42:J42"/>
     <mergeCell ref="L45:O45"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="N14:N19"/>
-    <mergeCell ref="O14:O19"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="G14:J19"/>
-    <mergeCell ref="L14:L19"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="G3:J8"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="M3:M8"/>
-    <mergeCell ref="N3:N8"/>
-    <mergeCell ref="O3:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12070,12 +12077,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="12" t="s">
@@ -12092,7 +12099,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="127" t="s">
         <v>152</v>
       </c>
       <c r="C4" s="43">
@@ -12109,7 +12116,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="113"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="44">
         <v>24.21</v>
       </c>
@@ -12124,7 +12131,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="45">
         <v>26.88</v>
       </c>
@@ -12139,7 +12146,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="127" t="s">
         <v>153</v>
       </c>
       <c r="C7" s="44">
@@ -12156,7 +12163,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="113"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="44">
         <v>23.4</v>
       </c>
@@ -12171,7 +12178,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="113"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="45">
         <v>23.35</v>
       </c>
@@ -12186,15 +12193,14 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="123"/>
       <c r="C13" s="12" t="s">
         <v>4</v>
       </c>
@@ -12209,92 +12215,92 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="125">
+      <c r="C14" s="97">
         <v>19.12</v>
       </c>
-      <c r="D14" s="125">
+      <c r="D14" s="97">
         <v>18.559999999999999</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="97">
         <v>25.58</v>
       </c>
-      <c r="F14" s="125">
+      <c r="F14" s="97">
         <v>24.39</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="98">
         <v>24.21</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="98">
         <v>20</v>
       </c>
-      <c r="E15" s="126">
+      <c r="E15" s="98">
         <v>23.31</v>
       </c>
-      <c r="F15" s="126">
+      <c r="F15" s="98">
         <v>21.45</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="126">
+      <c r="C16" s="98">
         <v>26.88</v>
       </c>
-      <c r="D16" s="126">
+      <c r="D16" s="98">
         <v>19.87</v>
       </c>
-      <c r="E16" s="126">
+      <c r="E16" s="98">
         <v>18.989999999999998</v>
       </c>
-      <c r="F16" s="126">
+      <c r="F16" s="98">
         <v>32.74</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="126">
+      <c r="C17" s="98">
         <v>21.6</v>
       </c>
-      <c r="D17" s="126">
+      <c r="D17" s="98">
         <v>22.09</v>
       </c>
-      <c r="E17" s="126">
+      <c r="E17" s="98">
         <v>23.09</v>
       </c>
-      <c r="F17" s="126">
+      <c r="F17" s="98">
         <v>24.21</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="126">
+      <c r="C18" s="98">
         <v>23.4</v>
       </c>
-      <c r="D18" s="126">
+      <c r="D18" s="98">
         <v>17.62</v>
       </c>
-      <c r="E18" s="126">
+      <c r="E18" s="98">
         <v>23.81</v>
       </c>
-      <c r="F18" s="126">
+      <c r="F18" s="98">
         <v>25.67</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="96" t="s">
         <v>171</v>
       </c>
       <c r="C19" s="45">
@@ -12442,18 +12448,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="L2" s="91" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="L2" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
     </row>
     <row r="3" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="81" t="s">
@@ -12469,12 +12475,12 @@
         <v>148</v>
       </c>
       <c r="F3" s="78"/>
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
       <c r="K3" s="78"/>
       <c r="L3" s="81" t="s">
         <v>145</v>
@@ -12728,18 +12734,18 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="L12" s="91" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="L12" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
     </row>
     <row r="13" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="81" t="s">
@@ -12755,12 +12761,12 @@
         <v>148</v>
       </c>
       <c r="F13" s="78"/>
-      <c r="G13" s="110" t="s">
+      <c r="G13" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
       <c r="K13" s="78"/>
       <c r="L13" s="81" t="s">
         <v>145</v>
@@ -12775,12 +12781,12 @@
         <v>148</v>
       </c>
       <c r="P13" s="78"/>
-      <c r="Q13" s="110" t="s">
+      <c r="Q13" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="46">
@@ -13068,18 +13074,18 @@
       <c r="T19" s="80"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="L22" s="91" t="s">
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="L22" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
     </row>
     <row r="23" spans="2:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="81" t="s">
@@ -13095,12 +13101,12 @@
         <v>148</v>
       </c>
       <c r="F23" s="78"/>
-      <c r="G23" s="110" t="s">
+      <c r="G23" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
       <c r="K23" s="78"/>
       <c r="L23" s="81" t="s">
         <v>145</v>
@@ -13115,12 +13121,12 @@
         <v>148</v>
       </c>
       <c r="P23" s="78"/>
-      <c r="Q23" s="110" t="s">
+      <c r="Q23" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="46">
@@ -13481,17 +13487,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="L12:O12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/toothpaste_bf2.xlsx
+++ b/data/toothpaste_bf2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/drp36_byui_edu/Documents/Math326DoE/Math326_Quarto4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="8_{1530781B-6E7F-4C73-ADF8-9272CFAEB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{671CCE9F-02F7-4A53-9903-28EA06FFB3BF}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="8_{1530781B-6E7F-4C73-ADF8-9272CFAEB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFBE14D2-1F73-4770-9F92-BA064A5DAC43}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -2313,7 +2313,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2575,31 +2575,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="27" fillId="33" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2629,22 +2611,40 @@
     <xf numFmtId="2" fontId="25" fillId="33" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2653,6 +2653,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2786,13 +2787,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>102394</xdr:rowOff>
@@ -2857,13 +2858,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>161331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>212019</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3656,12 +3657,12 @@
         <v>58</v>
       </c>
       <c r="K1" s="56"/>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
     </row>
     <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
@@ -4062,12 +4063,12 @@
       <c r="C11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="104" t="s">
+      <c r="L11" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
     </row>
     <row r="12" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
@@ -4522,12 +4523,12 @@
       <c r="C23" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="104" t="s">
+      <c r="L23" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
     </row>
     <row r="24" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
@@ -4560,12 +4561,12 @@
       <c r="O24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="111" t="s">
+      <c r="Q24" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
     </row>
     <row r="25" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
@@ -4751,12 +4752,12 @@
       <c r="C33" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="104" t="s">
+      <c r="L33" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
     </row>
     <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
@@ -4789,12 +4790,12 @@
       <c r="O34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="111" t="s">
+      <c r="Q34" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="R34" s="111"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
     </row>
     <row r="35" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="29" t="s">
@@ -4809,22 +4810,22 @@
       <c r="E35" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="112" t="s">
+      <c r="G35" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="114"/>
-      <c r="L35" s="108" t="s">
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="108"/>
+      <c r="L35" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="M35" s="108" t="s">
+      <c r="M35" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="108" t="s">
+      <c r="N35" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="O35" s="108" t="s">
+      <c r="O35" s="115" t="s">
         <v>90</v>
       </c>
       <c r="Q35" s="77" t="s">
@@ -4853,14 +4854,14 @@
       <c r="E36" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="115"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="117"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="111"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
       <c r="Q36" s="77" t="s">
         <v>92</v>
       </c>
@@ -4890,17 +4891,17 @@
       <c r="F37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="115"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="117"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="111"/>
       <c r="K37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="109"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="109"/>
-      <c r="O37" s="109"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
       <c r="P37" s="26" t="s">
         <v>60</v>
       </c>
@@ -4930,14 +4931,14 @@
       <c r="E38" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="115"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="117"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="111"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
       <c r="Q38" s="77" t="s">
         <v>95</v>
       </c>
@@ -4964,14 +4965,14 @@
       <c r="E39" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G39" s="115"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="117"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="111"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="116"/>
       <c r="Q39" s="77" t="s">
         <v>96</v>
       </c>
@@ -4998,14 +4999,14 @@
       <c r="E40" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="120"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="114"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="117"/>
       <c r="Q40" s="77" t="s">
         <v>97</v>
       </c>
@@ -5023,12 +5024,12 @@
       <c r="C44" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="104" t="s">
+      <c r="L44" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="104"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="104"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
     </row>
     <row r="45" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
@@ -5073,14 +5074,14 @@
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="114"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="108"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="115"/>
+      <c r="O46" s="115"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="50"/>
       <c r="S46" s="50"/>
@@ -5091,14 +5092,14 @@
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="E47" s="50"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="117"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="109"/>
-      <c r="N47" s="109"/>
-      <c r="O47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="111"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="116"/>
       <c r="Q47" s="50"/>
       <c r="R47" s="50"/>
       <c r="S47" s="50"/>
@@ -5112,17 +5113,17 @@
       <c r="F48" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="115"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
-      <c r="J48" s="117"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="111"/>
       <c r="K48" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="109"/>
-      <c r="O48" s="109"/>
+      <c r="L48" s="116"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="116"/>
+      <c r="O48" s="116"/>
       <c r="P48" s="26" t="s">
         <v>60</v>
       </c>
@@ -5136,14 +5137,14 @@
       <c r="C49" s="50"/>
       <c r="D49" s="50"/>
       <c r="E49" s="50"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="117"/>
-      <c r="L49" s="109"/>
-      <c r="M49" s="109"/>
-      <c r="N49" s="109"/>
-      <c r="O49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="111"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="116"/>
+      <c r="O49" s="116"/>
       <c r="Q49" s="50"/>
       <c r="R49" s="50"/>
       <c r="S49" s="50"/>
@@ -5154,14 +5155,14 @@
       <c r="C50" s="50"/>
       <c r="D50" s="50"/>
       <c r="E50" s="50"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="117"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="109"/>
-      <c r="N50" s="109"/>
-      <c r="O50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="111"/>
+      <c r="L50" s="116"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="116"/>
+      <c r="O50" s="116"/>
       <c r="Q50" s="50"/>
       <c r="R50" s="50"/>
       <c r="S50" s="50"/>
@@ -5172,53 +5173,53 @@
       <c r="C51" s="50"/>
       <c r="D51" s="50"/>
       <c r="E51" s="50"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="120"/>
-      <c r="L51" s="110"/>
-      <c r="M51" s="110"/>
-      <c r="N51" s="110"/>
-      <c r="O51" s="110"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="114"/>
+      <c r="L51" s="117"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="117"/>
+      <c r="O51" s="117"/>
       <c r="Q51" s="50"/>
       <c r="R51" s="50"/>
       <c r="S51" s="50"/>
       <c r="T51" s="50"/>
     </row>
     <row r="53" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B53" s="103" t="s">
+      <c r="B53" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="103" t="s">
+      <c r="G53" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
       <c r="K53" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L53" s="103" t="s">
+      <c r="L53" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="M53" s="103"/>
-      <c r="N53" s="103"/>
-      <c r="O53" s="103"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="104"/>
+      <c r="O53" s="104"/>
       <c r="P53" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q53" s="103" t="s">
+      <c r="Q53" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="R53" s="103"/>
-      <c r="S53" s="103"/>
-      <c r="T53" s="103"/>
+      <c r="R53" s="104"/>
+      <c r="S53" s="104"/>
+      <c r="T53" s="104"/>
     </row>
     <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="39"/>
@@ -5233,12 +5234,12 @@
       <c r="H59" s="105"/>
       <c r="I59" s="105"/>
       <c r="J59" s="105"/>
-      <c r="L59" s="104" t="s">
+      <c r="L59" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="M59" s="104"/>
-      <c r="N59" s="104"/>
-      <c r="O59" s="104"/>
+      <c r="M59" s="103"/>
+      <c r="N59" s="103"/>
+      <c r="O59" s="103"/>
       <c r="Q59" s="105" t="s">
         <v>48</v>
       </c>
@@ -5253,15 +5254,15 @@
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="42"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="107"/>
+      <c r="G60" s="119"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="120"/>
       <c r="K60" s="42"/>
-      <c r="L60" s="108"/>
-      <c r="M60" s="108"/>
-      <c r="N60" s="108"/>
-      <c r="O60" s="108"/>
+      <c r="L60" s="115"/>
+      <c r="M60" s="115"/>
+      <c r="N60" s="115"/>
+      <c r="O60" s="115"/>
       <c r="Q60" s="50"/>
       <c r="R60" s="50"/>
       <c r="S60" s="50"/>
@@ -5274,15 +5275,15 @@
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
       <c r="F61" s="42"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="120"/>
       <c r="K61" s="42"/>
-      <c r="L61" s="109"/>
-      <c r="M61" s="109"/>
-      <c r="N61" s="109"/>
-      <c r="O61" s="109"/>
+      <c r="L61" s="116"/>
+      <c r="M61" s="116"/>
+      <c r="N61" s="116"/>
+      <c r="O61" s="116"/>
       <c r="Q61" s="50"/>
       <c r="R61" s="50"/>
       <c r="S61" s="50"/>
@@ -5297,17 +5298,17 @@
       <c r="F62" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
-      <c r="J62" s="107"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
       <c r="K62" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="L62" s="109"/>
-      <c r="M62" s="109"/>
-      <c r="N62" s="109"/>
-      <c r="O62" s="109"/>
+      <c r="L62" s="116"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="116"/>
       <c r="P62" s="26" t="s">
         <v>60</v>
       </c>
@@ -5323,14 +5324,14 @@
       <c r="D63" s="50"/>
       <c r="E63" s="50"/>
       <c r="F63" s="42"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="L63" s="109"/>
-      <c r="M63" s="109"/>
-      <c r="N63" s="109"/>
-      <c r="O63" s="109"/>
+      <c r="G63" s="120"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="120"/>
+      <c r="J63" s="120"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="116"/>
       <c r="Q63" s="50"/>
       <c r="R63" s="50"/>
       <c r="S63" s="50"/>
@@ -5343,14 +5344,14 @@
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="42"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="107"/>
-      <c r="L64" s="109"/>
-      <c r="M64" s="109"/>
-      <c r="N64" s="109"/>
-      <c r="O64" s="109"/>
+      <c r="G64" s="120"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="120"/>
+      <c r="J64" s="120"/>
+      <c r="L64" s="116"/>
+      <c r="M64" s="116"/>
+      <c r="N64" s="116"/>
+      <c r="O64" s="116"/>
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="50"/>
@@ -5363,14 +5364,14 @@
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
       <c r="F65" s="42"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="107"/>
-      <c r="L65" s="110"/>
-      <c r="M65" s="110"/>
-      <c r="N65" s="110"/>
-      <c r="O65" s="110"/>
+      <c r="G65" s="120"/>
+      <c r="H65" s="120"/>
+      <c r="I65" s="120"/>
+      <c r="J65" s="120"/>
+      <c r="L65" s="117"/>
+      <c r="M65" s="117"/>
+      <c r="N65" s="117"/>
+      <c r="O65" s="117"/>
       <c r="Q65" s="50"/>
       <c r="R65" s="50"/>
       <c r="S65" s="50"/>
@@ -5383,42 +5384,66 @@
       <c r="J66" s="56"/>
     </row>
     <row r="67" spans="1:20" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
       <c r="F67" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="103" t="s">
+      <c r="G67" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="H67" s="103"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="103"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
       <c r="K67" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L67" s="103" t="s">
+      <c r="L67" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="M67" s="103"/>
-      <c r="N67" s="103"/>
-      <c r="O67" s="103"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104"/>
       <c r="P67" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q67" s="103" t="s">
+      <c r="Q67" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="R67" s="103"/>
-      <c r="S67" s="103"/>
-      <c r="T67" s="103"/>
+      <c r="R67" s="104"/>
+      <c r="S67" s="104"/>
+      <c r="T67" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="G60:J65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="N60:N65"/>
+    <mergeCell ref="O60:O65"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="G35:J40"/>
+    <mergeCell ref="L35:L40"/>
+    <mergeCell ref="M35:M40"/>
+    <mergeCell ref="N35:N40"/>
+    <mergeCell ref="O35:O40"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="L33:O33"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="G53:J53"/>
@@ -5435,30 +5460,6 @@
     <mergeCell ref="O46:O51"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="G24:J24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G35:J40"/>
-    <mergeCell ref="L35:L40"/>
-    <mergeCell ref="M35:M40"/>
-    <mergeCell ref="N35:N40"/>
-    <mergeCell ref="O35:O40"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="G60:J65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="N60:N65"/>
-    <mergeCell ref="O60:O65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6004,7 +6005,7 @@
       <c r="S7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="121" t="s">
+      <c r="U7" s="122" t="s">
         <v>37</v>
       </c>
       <c r="V7" s="8" t="s">
@@ -6016,7 +6017,7 @@
       <c r="X7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="121" t="s">
+      <c r="Z7" s="122" t="s">
         <v>37</v>
       </c>
       <c r="AA7" s="8" t="s">
@@ -6048,7 +6049,7 @@
       <c r="S8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="121"/>
+      <c r="U8" s="122"/>
       <c r="V8" s="14" t="s">
         <v>26</v>
       </c>
@@ -6058,7 +6059,7 @@
       <c r="X8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="121"/>
+      <c r="Z8" s="122"/>
       <c r="AA8" s="14" t="s">
         <v>26</v>
       </c>
@@ -6088,7 +6089,7 @@
       <c r="S9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="122" t="s">
+      <c r="U9" s="123" t="s">
         <v>38</v>
       </c>
       <c r="V9" s="11" t="s">
@@ -6100,7 +6101,7 @@
       <c r="X9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="122" t="s">
+      <c r="Z9" s="123" t="s">
         <v>38</v>
       </c>
       <c r="AA9" s="11" t="s">
@@ -6123,7 +6124,7 @@
       <c r="S10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="122"/>
+      <c r="U10" s="123"/>
       <c r="V10" s="14" t="s">
         <v>28</v>
       </c>
@@ -6133,7 +6134,7 @@
       <c r="X10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="122"/>
+      <c r="Z10" s="123"/>
       <c r="AA10" s="14" t="s">
         <v>28</v>
       </c>
@@ -6223,24 +6224,24 @@
       </c>
     </row>
     <row r="26" spans="7:43" x14ac:dyDescent="0.25">
-      <c r="AB26" s="123" t="s">
+      <c r="AB26" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="AC26" s="123"/>
-      <c r="AD26" s="123"/>
-      <c r="AE26" s="123"/>
-      <c r="AH26" s="123" t="s">
+      <c r="AC26" s="121"/>
+      <c r="AD26" s="121"/>
+      <c r="AE26" s="121"/>
+      <c r="AH26" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="AI26" s="123"/>
-      <c r="AJ26" s="123"/>
-      <c r="AK26" s="123"/>
-      <c r="AN26" s="123" t="s">
+      <c r="AI26" s="121"/>
+      <c r="AJ26" s="121"/>
+      <c r="AK26" s="121"/>
+      <c r="AN26" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="AO26" s="123"/>
-      <c r="AP26" s="123"/>
-      <c r="AQ26" s="123"/>
+      <c r="AO26" s="121"/>
+      <c r="AP26" s="121"/>
+      <c r="AQ26" s="121"/>
     </row>
     <row r="27" spans="7:43" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
@@ -6369,7 +6370,7 @@
       <c r="AE28" s="10">
         <v>24.39</v>
       </c>
-      <c r="AG28" s="121" t="s">
+      <c r="AG28" s="122" t="s">
         <v>117</v>
       </c>
       <c r="AH28" s="8">
@@ -6384,7 +6385,7 @@
       <c r="AK28" s="10">
         <v>24.39</v>
       </c>
-      <c r="AM28" s="121" t="s">
+      <c r="AM28" s="122" t="s">
         <v>117</v>
       </c>
       <c r="AN28" s="8">
@@ -6455,7 +6456,7 @@
       <c r="AE29" s="13">
         <v>21.45</v>
       </c>
-      <c r="AG29" s="121"/>
+      <c r="AG29" s="122"/>
       <c r="AH29" s="11">
         <v>24.21</v>
       </c>
@@ -6468,7 +6469,7 @@
       <c r="AK29" s="13">
         <v>21.45</v>
       </c>
-      <c r="AM29" s="121"/>
+      <c r="AM29" s="122"/>
       <c r="AN29" s="11">
         <v>24.21</v>
       </c>
@@ -6537,7 +6538,7 @@
       <c r="AE30" s="13">
         <v>32.74</v>
       </c>
-      <c r="AG30" s="121"/>
+      <c r="AG30" s="122"/>
       <c r="AH30" s="11">
         <v>26.88</v>
       </c>
@@ -6550,7 +6551,7 @@
       <c r="AK30" s="13">
         <v>32.74</v>
       </c>
-      <c r="AM30" s="121"/>
+      <c r="AM30" s="122"/>
       <c r="AN30" s="14">
         <v>26.88</v>
       </c>
@@ -6598,7 +6599,7 @@
       <c r="AE31" s="13">
         <v>24.21</v>
       </c>
-      <c r="AG31" s="121" t="s">
+      <c r="AG31" s="122" t="s">
         <v>116</v>
       </c>
       <c r="AH31" s="8">
@@ -6613,7 +6614,7 @@
       <c r="AK31" s="10">
         <v>24.21</v>
       </c>
-      <c r="AM31" s="121" t="s">
+      <c r="AM31" s="122" t="s">
         <v>116</v>
       </c>
       <c r="AN31" s="11">
@@ -6663,7 +6664,7 @@
       <c r="AE32" s="13">
         <v>25.67</v>
       </c>
-      <c r="AG32" s="121"/>
+      <c r="AG32" s="122"/>
       <c r="AH32" s="11">
         <v>23.4</v>
       </c>
@@ -6676,7 +6677,7 @@
       <c r="AK32" s="13">
         <v>25.67</v>
       </c>
-      <c r="AM32" s="121"/>
+      <c r="AM32" s="122"/>
       <c r="AN32" s="11">
         <v>23.4</v>
       </c>
@@ -6724,7 +6725,7 @@
       <c r="AE33" s="16">
         <v>23.42</v>
       </c>
-      <c r="AG33" s="121"/>
+      <c r="AG33" s="122"/>
       <c r="AH33" s="14">
         <v>23.35</v>
       </c>
@@ -6737,7 +6738,7 @@
       <c r="AK33" s="16">
         <v>23.42</v>
       </c>
-      <c r="AM33" s="121"/>
+      <c r="AM33" s="122"/>
       <c r="AN33" s="14">
         <v>23.35</v>
       </c>
@@ -6858,7 +6859,7 @@
       <c r="AE37" s="10">
         <v>24.39</v>
       </c>
-      <c r="AG37" s="121" t="s">
+      <c r="AG37" s="122" t="s">
         <v>42</v>
       </c>
       <c r="AH37" s="8">
@@ -6873,7 +6874,7 @@
       <c r="AK37" s="10">
         <v>24.39</v>
       </c>
-      <c r="AM37" s="122" t="s">
+      <c r="AM37" s="123" t="s">
         <v>42</v>
       </c>
       <c r="AN37" s="8">
@@ -6911,7 +6912,7 @@
       <c r="AE38" s="13">
         <v>21.45</v>
       </c>
-      <c r="AG38" s="121"/>
+      <c r="AG38" s="122"/>
       <c r="AH38" s="11">
         <v>24.21</v>
       </c>
@@ -6924,7 +6925,7 @@
       <c r="AK38" s="13">
         <v>21.45</v>
       </c>
-      <c r="AM38" s="122"/>
+      <c r="AM38" s="123"/>
       <c r="AN38" s="11">
         <v>24.21</v>
       </c>
@@ -6960,7 +6961,7 @@
       <c r="AE39" s="13">
         <v>32.74</v>
       </c>
-      <c r="AG39" s="121"/>
+      <c r="AG39" s="122"/>
       <c r="AH39" s="11">
         <v>26.88</v>
       </c>
@@ -6973,7 +6974,7 @@
       <c r="AK39" s="13">
         <v>32.74</v>
       </c>
-      <c r="AM39" s="122"/>
+      <c r="AM39" s="123"/>
       <c r="AN39" s="14">
         <v>26.88</v>
       </c>
@@ -7009,7 +7010,7 @@
       <c r="AE40" s="13">
         <v>24.21</v>
       </c>
-      <c r="AG40" s="121" t="s">
+      <c r="AG40" s="122" t="s">
         <v>43</v>
       </c>
       <c r="AH40" s="8">
@@ -7024,7 +7025,7 @@
       <c r="AK40" s="10">
         <v>24.21</v>
       </c>
-      <c r="AM40" s="122" t="s">
+      <c r="AM40" s="123" t="s">
         <v>43</v>
       </c>
       <c r="AN40" s="11">
@@ -7062,7 +7063,7 @@
       <c r="AE41" s="13">
         <v>25.67</v>
       </c>
-      <c r="AG41" s="121"/>
+      <c r="AG41" s="122"/>
       <c r="AH41" s="11">
         <v>23.4</v>
       </c>
@@ -7075,7 +7076,7 @@
       <c r="AK41" s="13">
         <v>25.67</v>
       </c>
-      <c r="AM41" s="122"/>
+      <c r="AM41" s="123"/>
       <c r="AN41" s="11">
         <v>23.4</v>
       </c>
@@ -7111,7 +7112,7 @@
       <c r="AE42" s="16">
         <v>23.42</v>
       </c>
-      <c r="AG42" s="121"/>
+      <c r="AG42" s="122"/>
       <c r="AH42" s="14">
         <v>23.35</v>
       </c>
@@ -7124,7 +7125,7 @@
       <c r="AK42" s="16">
         <v>23.42</v>
       </c>
-      <c r="AM42" s="122"/>
+      <c r="AM42" s="123"/>
       <c r="AN42" s="14">
         <v>23.35</v>
       </c>
@@ -7626,11 +7627,6 @@
     <sortCondition ref="H27:H51"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="AG40:AG42"/>
     <mergeCell ref="AM40:AM42"/>
     <mergeCell ref="AG31:AG33"/>
@@ -7641,6 +7637,11 @@
     <mergeCell ref="AG37:AG39"/>
     <mergeCell ref="AM37:AM39"/>
     <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="Z9:Z10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7696,7 +7697,7 @@
       <c r="M2" s="124"/>
       <c r="N2" s="124"/>
       <c r="O2" s="124"/>
-      <c r="Q2" s="125" t="s">
+      <c r="Q2" s="126" t="s">
         <v>49</v>
       </c>
       <c r="R2" s="124"/>
@@ -7877,9 +7878,9 @@
       <c r="B11" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
       <c r="G11" s="124" t="s">
         <v>144</v>
       </c>
@@ -7904,7 +7905,7 @@
       <c r="R11" s="124"/>
       <c r="S11" s="124"/>
       <c r="T11" s="124"/>
-      <c r="V11" s="125" t="s">
+      <c r="V11" s="126" t="s">
         <v>49</v>
       </c>
       <c r="W11" s="124"/>
@@ -8505,9 +8506,9 @@
       <c r="B22" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
       <c r="G22" s="124" t="s">
         <v>144</v>
       </c>
@@ -8532,7 +8533,7 @@
       <c r="R22" s="124"/>
       <c r="S22" s="124"/>
       <c r="T22" s="124"/>
-      <c r="V22" s="125" t="s">
+      <c r="V22" s="126" t="s">
         <v>49</v>
       </c>
       <c r="W22" s="124"/>
@@ -9154,9 +9155,9 @@
       <c r="B32" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
       <c r="G32" s="105" t="s">
         <v>144</v>
       </c>
@@ -9181,7 +9182,7 @@
       <c r="R32" s="105"/>
       <c r="S32" s="105"/>
       <c r="T32" s="105"/>
-      <c r="V32" s="126" t="s">
+      <c r="V32" s="125" t="s">
         <v>49</v>
       </c>
       <c r="W32" s="105"/>
@@ -9909,12 +9910,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA11:AD11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="B22:E22"/>
@@ -9924,14 +9927,12 @@
     <mergeCell ref="AA22:AD22"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="V32:Y32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9942,8 +9943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5260BD5D-0539-41D9-9873-5C11F72F59A0}">
   <dimension ref="A2:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9954,9 +9955,9 @@
     <col min="7" max="10" width="7.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.140625" style="1" customWidth="1"/>
     <col min="12" max="15" width="7.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="1" customWidth="1"/>
     <col min="17" max="20" width="7.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="1" customWidth="1"/>
     <col min="22" max="25" width="7.28515625" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -9975,13 +9976,13 @@
       <c r="I2" s="105"/>
       <c r="J2" s="105"/>
       <c r="L2" s="105" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="M2" s="105"/>
       <c r="N2" s="105"/>
       <c r="O2" s="105"/>
       <c r="Q2" s="105" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="R2" s="105"/>
       <c r="S2" s="105"/>
@@ -9999,19 +10000,19 @@
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
       <c r="K3" s="42"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="91"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
       <c r="X3" s="50"/>
@@ -10023,19 +10024,19 @@
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="42"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
       <c r="K4" s="42"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="91"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
       <c r="V4" s="50"/>
       <c r="W4" s="50"/>
       <c r="X4" s="50"/>
@@ -10049,24 +10050,24 @@
       <c r="F5" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
       <c r="K5" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="91"/>
       <c r="P5" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="91"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
       <c r="U5" s="26" t="s">
         <v>60</v>
       </c>
@@ -10081,18 +10082,18 @@
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
       <c r="F6" s="42"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="91"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
       <c r="V6" s="50"/>
       <c r="W6" s="50"/>
       <c r="X6" s="50"/>
@@ -10104,18 +10105,18 @@
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="42"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="91"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="91"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
       <c r="V7" s="50"/>
       <c r="W7" s="50"/>
       <c r="X7" s="50"/>
@@ -10127,18 +10128,18 @@
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
       <c r="F8" s="42"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="91"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="91"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
       <c r="V8" s="50"/>
       <c r="W8" s="50"/>
       <c r="X8" s="50"/>
@@ -10151,46 +10152,52 @@
       <c r="J9" s="56"/>
     </row>
     <row r="10" spans="2:25" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
       <c r="K10" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="103" t="s">
+      <c r="L10" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="51" t="s">
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" s="103" t="s">
-        <v>163</v>
-      </c>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="103" t="s">
+      <c r="V10" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+    </row>
+    <row r="11" spans="2:25" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39"/>
@@ -10206,13 +10213,13 @@
       <c r="I13" s="105"/>
       <c r="J13" s="105"/>
       <c r="L13" s="105" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="M13" s="105"/>
       <c r="N13" s="105"/>
       <c r="O13" s="105"/>
       <c r="Q13" s="105" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="R13" s="105"/>
       <c r="S13" s="105"/>
@@ -10230,19 +10237,19 @@
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
       <c r="F14" s="42"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="91"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="91"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
       <c r="V14" s="50"/>
       <c r="W14" s="50"/>
       <c r="X14" s="50"/>
@@ -10254,19 +10261,19 @@
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
       <c r="F15" s="42"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
       <c r="K15" s="42"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="91"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="91"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
       <c r="V15" s="50"/>
       <c r="W15" s="50"/>
       <c r="X15" s="50"/>
@@ -10280,20 +10287,20 @@
       <c r="F16" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
       <c r="K16" s="70"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="91"/>
       <c r="P16" s="26"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="91"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
       <c r="U16" s="26"/>
       <c r="V16" s="50"/>
       <c r="W16" s="50"/>
@@ -10306,18 +10313,18 @@
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="91"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="91"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
       <c r="V17" s="50"/>
       <c r="W17" s="50"/>
       <c r="X17" s="50"/>
@@ -10329,18 +10336,18 @@
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="42"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="91"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="91"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
       <c r="V18" s="50"/>
       <c r="W18" s="50"/>
       <c r="X18" s="50"/>
@@ -10352,18 +10359,18 @@
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
       <c r="F19" s="42"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="91"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="91"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
       <c r="V19" s="50"/>
       <c r="W19" s="50"/>
       <c r="X19" s="50"/>
@@ -10375,44 +10382,44 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="L23" s="105" t="s">
+      <c r="Q23" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
       <c r="G24" s="124" t="s">
         <v>144</v>
       </c>
       <c r="H24" s="124"/>
       <c r="I24" s="124"/>
       <c r="J24" s="124"/>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="Q24" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="R24" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="S24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="T24" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q24" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="124"/>
       <c r="V24" s="124" t="s">
         <v>48</v>
       </c>
@@ -10449,34 +10456,34 @@
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="L25" s="57">
-        <v>23.093333333333334</v>
-      </c>
-      <c r="M25" s="57">
-        <v>19.97666666666667</v>
-      </c>
-      <c r="N25" s="57">
-        <v>22.675000000000001</v>
-      </c>
-      <c r="O25" s="57">
-        <v>25.313333333333343</v>
-      </c>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="93">
+      <c r="L25" s="93">
         <f>AVERAGE($B$25:$E$25)</f>
         <v>21.912500000000001</v>
       </c>
-      <c r="R25" s="94">
-        <f t="shared" ref="R25:T25" si="1">AVERAGE($B$25:$E$25)</f>
+      <c r="M25" s="94">
+        <f t="shared" ref="M25:O25" si="1">AVERAGE($B$25:$E$25)</f>
         <v>21.912500000000001</v>
       </c>
-      <c r="S25" s="94">
+      <c r="N25" s="94">
         <f t="shared" si="1"/>
         <v>21.912500000000001</v>
       </c>
-      <c r="T25" s="95">
+      <c r="O25" s="95">
         <f t="shared" si="1"/>
         <v>21.912500000000001</v>
+      </c>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="57">
+        <v>23.093333333333334</v>
+      </c>
+      <c r="R25" s="57">
+        <v>19.97666666666667</v>
+      </c>
+      <c r="S25" s="57">
+        <v>22.675000000000001</v>
+      </c>
+      <c r="T25" s="57">
+        <v>25.313333333333343</v>
       </c>
       <c r="U25" s="42"/>
       <c r="V25" s="46">
@@ -10484,15 +10491,15 @@
         <v>19.12</v>
       </c>
       <c r="W25" s="46">
-        <f t="shared" ref="W25:Y30" si="2">C25</f>
+        <f>C25</f>
         <v>18.559999999999999</v>
       </c>
       <c r="X25" s="46">
-        <f t="shared" si="2"/>
+        <f>D25</f>
         <v>25.58</v>
       </c>
       <c r="Y25" s="46">
-        <f t="shared" si="2"/>
+        <f>E25</f>
         <v>24.39</v>
       </c>
     </row>
@@ -10510,7 +10517,7 @@
         <v>21.45</v>
       </c>
       <c r="G26" s="65">
-        <f t="shared" ref="G26:G30" si="3">AVERAGE($B$25:$E$30)</f>
+        <f t="shared" ref="G26:G30" si="2">AVERAGE($B$25:$E$30)</f>
         <v>22.764583333333331</v>
       </c>
       <c r="H26" s="33">
@@ -10525,50 +10532,50 @@
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="L26" s="58">
-        <v>23.093333333333334</v>
-      </c>
-      <c r="M26" s="58">
-        <v>19.97666666666667</v>
-      </c>
-      <c r="N26" s="58">
-        <v>22.675000000000001</v>
-      </c>
-      <c r="O26" s="58">
-        <v>25.313333333333343</v>
-      </c>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="93">
+      <c r="L26" s="93">
         <f>AVERAGE($B$26:$E$26)</f>
         <v>22.2425</v>
       </c>
-      <c r="R26" s="94">
-        <f t="shared" ref="R26:T26" si="4">AVERAGE($B$26:$E$26)</f>
+      <c r="M26" s="94">
+        <f t="shared" ref="M26:O26" si="3">AVERAGE($B$26:$E$26)</f>
         <v>22.2425</v>
       </c>
-      <c r="S26" s="94">
-        <f t="shared" si="4"/>
+      <c r="N26" s="94">
+        <f t="shared" si="3"/>
         <v>22.2425</v>
       </c>
-      <c r="T26" s="95">
-        <f t="shared" si="4"/>
+      <c r="O26" s="95">
+        <f t="shared" si="3"/>
         <v>22.2425</v>
+      </c>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="58">
+        <v>23.093333333333334</v>
+      </c>
+      <c r="R26" s="58">
+        <v>19.97666666666667</v>
+      </c>
+      <c r="S26" s="58">
+        <v>22.675000000000001</v>
+      </c>
+      <c r="T26" s="58">
+        <v>25.313333333333343</v>
       </c>
       <c r="U26" s="42"/>
       <c r="V26" s="46">
-        <f t="shared" ref="V26:V30" si="5">B26</f>
+        <f>B26</f>
         <v>24.21</v>
       </c>
       <c r="W26" s="86">
-        <f t="shared" si="2"/>
+        <f>C26</f>
         <v>20</v>
       </c>
       <c r="X26" s="46">
-        <f t="shared" si="2"/>
+        <f>D26</f>
         <v>23.31</v>
       </c>
       <c r="Y26" s="46">
-        <f t="shared" si="2"/>
+        <f>E26</f>
         <v>21.45</v>
       </c>
     </row>
@@ -10586,7 +10593,7 @@
         <v>32.74</v>
       </c>
       <c r="G27" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
       <c r="H27" s="33">
@@ -10601,50 +10608,50 @@
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="L27" s="58">
-        <v>23.093333333333334</v>
-      </c>
-      <c r="M27" s="58">
-        <v>19.97666666666667</v>
-      </c>
-      <c r="N27" s="58">
-        <v>22.675000000000001</v>
-      </c>
-      <c r="O27" s="58">
-        <v>25.313333333333343</v>
-      </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="93">
+      <c r="L27" s="93">
         <f>AVERAGE($B$27:$E$27)</f>
         <v>24.619999999999997</v>
       </c>
-      <c r="R27" s="94">
-        <f t="shared" ref="R27:T27" si="6">AVERAGE($B$27:$E$27)</f>
+      <c r="M27" s="94">
+        <f t="shared" ref="M27:O27" si="4">AVERAGE($B$27:$E$27)</f>
         <v>24.619999999999997</v>
       </c>
-      <c r="S27" s="94">
-        <f t="shared" si="6"/>
+      <c r="N27" s="94">
+        <f t="shared" si="4"/>
         <v>24.619999999999997</v>
       </c>
-      <c r="T27" s="95">
-        <f t="shared" si="6"/>
+      <c r="O27" s="95">
+        <f t="shared" si="4"/>
         <v>24.619999999999997</v>
+      </c>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="58">
+        <v>23.093333333333334</v>
+      </c>
+      <c r="R27" s="58">
+        <v>19.97666666666667</v>
+      </c>
+      <c r="S27" s="58">
+        <v>22.675000000000001</v>
+      </c>
+      <c r="T27" s="58">
+        <v>25.313333333333343</v>
       </c>
       <c r="U27" s="42"/>
       <c r="V27" s="46">
-        <f t="shared" si="5"/>
+        <f>B27</f>
         <v>26.88</v>
       </c>
       <c r="W27" s="46">
-        <f t="shared" si="2"/>
+        <f>C27</f>
         <v>19.87</v>
       </c>
       <c r="X27" s="46">
-        <f t="shared" si="2"/>
+        <f>D27</f>
         <v>18.989999999999998</v>
       </c>
       <c r="Y27" s="46">
-        <f t="shared" si="2"/>
+        <f>E27</f>
         <v>32.74</v>
       </c>
     </row>
@@ -10662,7 +10669,7 @@
         <v>24.21</v>
       </c>
       <c r="G28" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
       <c r="H28" s="33">
@@ -10677,50 +10684,50 @@
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="L28" s="58">
-        <v>23.093333333333334</v>
-      </c>
-      <c r="M28" s="58">
-        <v>19.97666666666667</v>
-      </c>
-      <c r="N28" s="58">
-        <v>22.675000000000001</v>
-      </c>
-      <c r="O28" s="58">
-        <v>25.313333333333343</v>
-      </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="93">
+      <c r="L28" s="93">
         <f>AVERAGE($B$28:$E$28)</f>
         <v>22.747500000000002</v>
       </c>
-      <c r="R28" s="94">
-        <f t="shared" ref="R28:T28" si="7">AVERAGE($B$28:$E$28)</f>
+      <c r="M28" s="94">
+        <f t="shared" ref="M28:O28" si="5">AVERAGE($B$28:$E$28)</f>
         <v>22.747500000000002</v>
       </c>
-      <c r="S28" s="94">
-        <f t="shared" si="7"/>
+      <c r="N28" s="94">
+        <f t="shared" si="5"/>
         <v>22.747500000000002</v>
       </c>
-      <c r="T28" s="95">
-        <f t="shared" si="7"/>
+      <c r="O28" s="95">
+        <f t="shared" si="5"/>
         <v>22.747500000000002</v>
+      </c>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="58">
+        <v>23.093333333333334</v>
+      </c>
+      <c r="R28" s="58">
+        <v>19.97666666666667</v>
+      </c>
+      <c r="S28" s="58">
+        <v>22.675000000000001</v>
+      </c>
+      <c r="T28" s="58">
+        <v>25.313333333333343</v>
       </c>
       <c r="U28" s="42"/>
       <c r="V28" s="46">
-        <f t="shared" si="5"/>
+        <f>B28</f>
         <v>21.6</v>
       </c>
       <c r="W28" s="46">
-        <f t="shared" si="2"/>
+        <f>C28</f>
         <v>22.09</v>
       </c>
       <c r="X28" s="46">
-        <f t="shared" si="2"/>
+        <f>D28</f>
         <v>23.09</v>
       </c>
       <c r="Y28" s="46">
-        <f t="shared" si="2"/>
+        <f>E28</f>
         <v>24.21</v>
       </c>
     </row>
@@ -10738,7 +10745,7 @@
         <v>25.67</v>
       </c>
       <c r="G29" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
       <c r="H29" s="33">
@@ -10753,50 +10760,50 @@
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="L29" s="58">
-        <v>23.093333333333334</v>
-      </c>
-      <c r="M29" s="58">
-        <v>19.97666666666667</v>
-      </c>
-      <c r="N29" s="58">
-        <v>22.675000000000001</v>
-      </c>
-      <c r="O29" s="58">
-        <v>25.313333333333343</v>
-      </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="93">
+      <c r="L29" s="93">
         <f>AVERAGE($B$29:$E$29)</f>
         <v>22.625</v>
       </c>
-      <c r="R29" s="94">
-        <f t="shared" ref="R29:T29" si="8">AVERAGE($B$29:$E$29)</f>
+      <c r="M29" s="94">
+        <f t="shared" ref="M29:O29" si="6">AVERAGE($B$29:$E$29)</f>
         <v>22.625</v>
       </c>
-      <c r="S29" s="94">
-        <f t="shared" si="8"/>
+      <c r="N29" s="94">
+        <f t="shared" si="6"/>
         <v>22.625</v>
       </c>
-      <c r="T29" s="95">
-        <f t="shared" si="8"/>
+      <c r="O29" s="95">
+        <f t="shared" si="6"/>
         <v>22.625</v>
+      </c>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="58">
+        <v>23.093333333333334</v>
+      </c>
+      <c r="R29" s="58">
+        <v>19.97666666666667</v>
+      </c>
+      <c r="S29" s="58">
+        <v>22.675000000000001</v>
+      </c>
+      <c r="T29" s="58">
+        <v>25.313333333333343</v>
       </c>
       <c r="U29" s="42"/>
       <c r="V29" s="46">
-        <f t="shared" si="5"/>
+        <f>B29</f>
         <v>23.4</v>
       </c>
       <c r="W29" s="46">
-        <f t="shared" si="2"/>
+        <f>C29</f>
         <v>17.62</v>
       </c>
       <c r="X29" s="46">
-        <f t="shared" si="2"/>
+        <f>D29</f>
         <v>23.81</v>
       </c>
       <c r="Y29" s="46">
-        <f t="shared" si="2"/>
+        <f>E29</f>
         <v>25.67</v>
       </c>
     </row>
@@ -10814,7 +10821,7 @@
         <v>23.42</v>
       </c>
       <c r="G30" s="66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22.764583333333331</v>
       </c>
       <c r="H30" s="67">
@@ -10829,50 +10836,50 @@
         <f t="shared" si="0"/>
         <v>22.764583333333331</v>
       </c>
-      <c r="L30" s="59">
-        <v>23.093333333333334</v>
-      </c>
-      <c r="M30" s="59">
-        <v>19.97666666666667</v>
-      </c>
-      <c r="N30" s="59">
-        <v>22.675000000000001</v>
-      </c>
-      <c r="O30" s="59">
-        <v>25.313333333333343</v>
-      </c>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="93">
+      <c r="L30" s="93">
         <f>AVERAGE($B$30:$E$30)</f>
         <v>22.44</v>
       </c>
-      <c r="R30" s="94">
-        <f t="shared" ref="R30:T30" si="9">AVERAGE($B$30:$E$30)</f>
+      <c r="M30" s="94">
+        <f t="shared" ref="M30:O30" si="7">AVERAGE($B$30:$E$30)</f>
         <v>22.44</v>
       </c>
-      <c r="S30" s="94">
-        <f t="shared" si="9"/>
+      <c r="N30" s="94">
+        <f t="shared" si="7"/>
         <v>22.44</v>
       </c>
-      <c r="T30" s="95">
-        <f t="shared" si="9"/>
+      <c r="O30" s="95">
+        <f t="shared" si="7"/>
         <v>22.44</v>
+      </c>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="59">
+        <v>23.093333333333334</v>
+      </c>
+      <c r="R30" s="59">
+        <v>19.97666666666667</v>
+      </c>
+      <c r="S30" s="59">
+        <v>22.675000000000001</v>
+      </c>
+      <c r="T30" s="59">
+        <v>25.313333333333343</v>
       </c>
       <c r="U30" s="42"/>
       <c r="V30" s="46">
-        <f t="shared" si="5"/>
+        <f>B30</f>
         <v>23.35</v>
       </c>
       <c r="W30" s="46">
-        <f t="shared" si="2"/>
+        <f>C30</f>
         <v>21.72</v>
       </c>
       <c r="X30" s="46">
-        <f t="shared" si="2"/>
+        <f>D30</f>
         <v>21.27</v>
       </c>
       <c r="Y30" s="46">
-        <f t="shared" si="2"/>
+        <f>E30</f>
         <v>23.42</v>
       </c>
     </row>
@@ -10882,44 +10889,44 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="L33" s="105" t="s">
+      <c r="Q33" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
       <c r="G34" s="124" t="s">
         <v>144</v>
       </c>
       <c r="H34" s="124"/>
       <c r="I34" s="124"/>
       <c r="J34" s="124"/>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="M34" s="124"/>
+      <c r="N34" s="124"/>
+      <c r="O34" s="124"/>
+      <c r="Q34" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="R34" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="N34" s="12" t="s">
+      <c r="S34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O34" s="12" t="s">
+      <c r="T34" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q34" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="R34" s="124"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="124"/>
       <c r="V34" s="124" t="s">
         <v>48</v>
       </c>
@@ -10945,65 +10952,65 @@
         <v>22.764583333333331</v>
       </c>
       <c r="H35" s="63">
-        <f t="shared" ref="H35:J40" si="10">AVERAGE($B$25:$E$30)</f>
+        <f t="shared" ref="H35:J40" si="8">AVERAGE($B$25:$E$30)</f>
         <v>22.764583333333331</v>
       </c>
       <c r="I35" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="J35" s="64">
-        <f t="shared" si="10"/>
-        <v>22.764583333333331</v>
-      </c>
-      <c r="L35" s="57">
+        <f t="shared" si="8"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="L35" s="93">
         <f>L25-G35</f>
+        <v>-0.85208333333332931</v>
+      </c>
+      <c r="M35" s="94">
+        <f>M25-H35</f>
+        <v>-0.85208333333332931</v>
+      </c>
+      <c r="N35" s="94">
+        <f>N25-I35</f>
+        <v>-0.85208333333332931</v>
+      </c>
+      <c r="O35" s="95">
+        <f>O25-J35</f>
+        <v>-0.85208333333332931</v>
+      </c>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="57">
+        <f>Q25-G35</f>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M35" s="57">
-        <f t="shared" ref="M35:O35" si="11">M25-H35</f>
+      <c r="R35" s="57">
+        <f>R25-H35</f>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N35" s="57">
-        <f t="shared" si="11"/>
+      <c r="S35" s="57">
+        <f>S25-I35</f>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O35" s="57">
-        <f t="shared" si="11"/>
+      <c r="T35" s="57">
+        <f>T25-J35</f>
         <v>2.5487500000000125</v>
-      </c>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="93">
-        <f>Q25-G35</f>
-        <v>-0.85208333333332931</v>
-      </c>
-      <c r="R35" s="94">
-        <f t="shared" ref="R35:T35" si="12">R25-H35</f>
-        <v>-0.85208333333332931</v>
-      </c>
-      <c r="S35" s="94">
-        <f t="shared" si="12"/>
-        <v>-0.85208333333332931</v>
-      </c>
-      <c r="T35" s="95">
-        <f t="shared" si="12"/>
-        <v>-0.85208333333332931</v>
       </c>
       <c r="U35" s="42"/>
       <c r="V35" s="86">
-        <f>V25-(G35+L35+Q35)</f>
+        <f>V25-(G35+Q35+L35)</f>
         <v>-3.1212500000000034</v>
       </c>
       <c r="W35" s="86">
-        <f t="shared" ref="W35:Y35" si="13">W25-(H35+M35+R35)</f>
+        <f>W25-(H35+R35+M35)</f>
         <v>-0.5645833333333421</v>
       </c>
       <c r="X35" s="86">
-        <f t="shared" si="13"/>
+        <f>X25-(I35+S35+N35)</f>
         <v>3.7570833333333269</v>
       </c>
       <c r="Y35" s="86">
-        <f t="shared" si="13"/>
+        <f>Y25-(J35+T35+O35)</f>
         <v>-7.1250000000013358E-2</v>
       </c>
     </row>
@@ -11021,69 +11028,69 @@
         <v>21.45</v>
       </c>
       <c r="G36" s="65">
-        <f t="shared" ref="G36:G40" si="14">AVERAGE($B$25:$E$30)</f>
+        <f t="shared" ref="G36:G40" si="9">AVERAGE($B$25:$E$30)</f>
         <v>22.764583333333331</v>
       </c>
       <c r="H36" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="I36" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="J36" s="60">
-        <f t="shared" si="10"/>
-        <v>22.764583333333331</v>
-      </c>
-      <c r="L36" s="58">
-        <f t="shared" ref="L36:O36" si="15">L26-G36</f>
+        <f t="shared" si="8"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="L36" s="93">
+        <f>L26-G36</f>
+        <v>-0.52208333333333101</v>
+      </c>
+      <c r="M36" s="94">
+        <f>M26-H36</f>
+        <v>-0.52208333333333101</v>
+      </c>
+      <c r="N36" s="94">
+        <f>N26-I36</f>
+        <v>-0.52208333333333101</v>
+      </c>
+      <c r="O36" s="95">
+        <f>O26-J36</f>
+        <v>-0.52208333333333101</v>
+      </c>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="58">
+        <f>Q26-G36</f>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M36" s="58">
-        <f t="shared" si="15"/>
+      <c r="R36" s="58">
+        <f>R26-H36</f>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N36" s="58">
-        <f t="shared" si="15"/>
+      <c r="S36" s="58">
+        <f>S26-I36</f>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O36" s="58">
-        <f t="shared" si="15"/>
+      <c r="T36" s="58">
+        <f>T26-J36</f>
         <v>2.5487500000000125</v>
-      </c>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="93">
-        <f t="shared" ref="Q36:T36" si="16">Q26-G36</f>
-        <v>-0.52208333333333101</v>
-      </c>
-      <c r="R36" s="94">
-        <f t="shared" si="16"/>
-        <v>-0.52208333333333101</v>
-      </c>
-      <c r="S36" s="94">
-        <f t="shared" si="16"/>
-        <v>-0.52208333333333101</v>
-      </c>
-      <c r="T36" s="95">
-        <f t="shared" si="16"/>
-        <v>-0.52208333333333101</v>
       </c>
       <c r="U36" s="42"/>
       <c r="V36" s="86">
-        <f t="shared" ref="V36:Y36" si="17">V26-(G36+L36+Q36)</f>
+        <f>V26-(G36+Q36+L36)</f>
         <v>1.6387499999999982</v>
       </c>
       <c r="W36" s="86">
-        <f t="shared" si="17"/>
+        <f>W26-(H36+R36+M36)</f>
         <v>0.54541666666666089</v>
       </c>
       <c r="X36" s="86">
-        <f t="shared" si="17"/>
+        <f>X26-(I36+S36+N36)</f>
         <v>1.157083333333329</v>
       </c>
       <c r="Y36" s="86">
-        <f t="shared" si="17"/>
+        <f>Y26-(J36+T36+O36)</f>
         <v>-3.3412500000000129</v>
       </c>
     </row>
@@ -11104,76 +11111,76 @@
         <v>59</v>
       </c>
       <c r="G37" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
       <c r="H37" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="I37" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="J37" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="K37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="58">
-        <f t="shared" ref="L37:O37" si="18">L27-G37</f>
-        <v>0.32875000000000298</v>
-      </c>
-      <c r="M37" s="58">
-        <f t="shared" si="18"/>
-        <v>-2.7879166666666606</v>
-      </c>
-      <c r="N37" s="58">
-        <f t="shared" si="18"/>
-        <v>-8.9583333333330017E-2</v>
-      </c>
-      <c r="O37" s="58">
-        <f t="shared" si="18"/>
-        <v>2.5487500000000125</v>
+      <c r="L37" s="93">
+        <f>L27-G37</f>
+        <v>1.8554166666666667</v>
+      </c>
+      <c r="M37" s="94">
+        <f>M27-H37</f>
+        <v>1.8554166666666667</v>
+      </c>
+      <c r="N37" s="94">
+        <f>N27-I37</f>
+        <v>1.8554166666666667</v>
+      </c>
+      <c r="O37" s="95">
+        <f>O27-J37</f>
+        <v>1.8554166666666667</v>
       </c>
       <c r="P37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="Q37" s="93">
-        <f t="shared" ref="Q37:T37" si="19">Q27-G37</f>
-        <v>1.8554166666666667</v>
-      </c>
-      <c r="R37" s="94">
-        <f t="shared" si="19"/>
-        <v>1.8554166666666667</v>
-      </c>
-      <c r="S37" s="94">
-        <f t="shared" si="19"/>
-        <v>1.8554166666666667</v>
-      </c>
-      <c r="T37" s="95">
-        <f t="shared" si="19"/>
-        <v>1.8554166666666667</v>
+      <c r="Q37" s="58">
+        <f>Q27-G37</f>
+        <v>0.32875000000000298</v>
+      </c>
+      <c r="R37" s="58">
+        <f>R27-H37</f>
+        <v>-2.7879166666666606</v>
+      </c>
+      <c r="S37" s="58">
+        <f>S27-I37</f>
+        <v>-8.9583333333330017E-2</v>
+      </c>
+      <c r="T37" s="58">
+        <f>T27-J37</f>
+        <v>2.5487500000000125</v>
       </c>
       <c r="U37" s="25" t="s">
         <v>60</v>
       </c>
       <c r="V37" s="86">
-        <f t="shared" ref="V37:Y37" si="20">V27-(G37+L37+Q37)</f>
+        <f>V27-(G37+Q37+L37)</f>
         <v>1.9312499999999986</v>
       </c>
       <c r="W37" s="86">
-        <f t="shared" si="20"/>
+        <f>W27-(H37+R37+M37)</f>
         <v>-1.9620833333333358</v>
       </c>
       <c r="X37" s="86">
-        <f t="shared" si="20"/>
+        <f>X27-(I37+S37+N37)</f>
         <v>-5.540416666666669</v>
       </c>
       <c r="Y37" s="86">
-        <f t="shared" si="20"/>
+        <f>Y27-(J37+T37+O37)</f>
         <v>5.571249999999992</v>
       </c>
     </row>
@@ -11191,69 +11198,69 @@
         <v>24.21</v>
       </c>
       <c r="G38" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="I38" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="J38" s="60">
-        <f t="shared" si="10"/>
-        <v>22.764583333333331</v>
-      </c>
-      <c r="L38" s="58">
-        <f t="shared" ref="L38:O38" si="21">L28-G38</f>
+        <f t="shared" si="8"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="L38" s="93">
+        <f>L28-G38</f>
+        <v>-1.7083333333328454E-2</v>
+      </c>
+      <c r="M38" s="94">
+        <f>M28-H38</f>
+        <v>-1.7083333333328454E-2</v>
+      </c>
+      <c r="N38" s="94">
+        <f>N28-I38</f>
+        <v>-1.7083333333328454E-2</v>
+      </c>
+      <c r="O38" s="95">
+        <f>O28-J38</f>
+        <v>-1.7083333333328454E-2</v>
+      </c>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="58">
+        <f>Q28-G38</f>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M38" s="58">
-        <f t="shared" si="21"/>
+      <c r="R38" s="58">
+        <f>R28-H38</f>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N38" s="58">
-        <f t="shared" si="21"/>
+      <c r="S38" s="58">
+        <f>S28-I38</f>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O38" s="58">
-        <f t="shared" si="21"/>
+      <c r="T38" s="58">
+        <f>T28-J38</f>
         <v>2.5487500000000125</v>
-      </c>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="93">
-        <f t="shared" ref="Q38:T38" si="22">Q28-G38</f>
-        <v>-1.7083333333328454E-2</v>
-      </c>
-      <c r="R38" s="94">
-        <f t="shared" si="22"/>
-        <v>-1.7083333333328454E-2</v>
-      </c>
-      <c r="S38" s="94">
-        <f t="shared" si="22"/>
-        <v>-1.7083333333328454E-2</v>
-      </c>
-      <c r="T38" s="95">
-        <f t="shared" si="22"/>
-        <v>-1.7083333333328454E-2</v>
       </c>
       <c r="U38" s="42"/>
       <c r="V38" s="86">
-        <f t="shared" ref="V38:Y38" si="23">V28-(G38+L38+Q38)</f>
+        <f>V28-(G38+Q38+L38)</f>
         <v>-1.4762500000000038</v>
       </c>
       <c r="W38" s="86">
-        <f t="shared" si="23"/>
+        <f>W28-(H38+R38+M38)</f>
         <v>2.1304166666666582</v>
       </c>
       <c r="X38" s="86">
-        <f t="shared" si="23"/>
+        <f>X28-(I38+S38+N38)</f>
         <v>0.4320833333333276</v>
       </c>
       <c r="Y38" s="86">
-        <f t="shared" si="23"/>
+        <f>Y28-(J38+T38+O38)</f>
         <v>-1.0862500000000139</v>
       </c>
     </row>
@@ -11271,69 +11278,69 @@
         <v>25.67</v>
       </c>
       <c r="G39" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
       <c r="H39" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="I39" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="J39" s="60">
-        <f t="shared" si="10"/>
-        <v>22.764583333333331</v>
-      </c>
-      <c r="L39" s="58">
-        <f t="shared" ref="L39:O39" si="24">L29-G39</f>
+        <f t="shared" si="8"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="L39" s="93">
+        <f>L29-G39</f>
+        <v>-0.13958333333333073</v>
+      </c>
+      <c r="M39" s="94">
+        <f>M29-H39</f>
+        <v>-0.13958333333333073</v>
+      </c>
+      <c r="N39" s="94">
+        <f>N29-I39</f>
+        <v>-0.13958333333333073</v>
+      </c>
+      <c r="O39" s="95">
+        <f>O29-J39</f>
+        <v>-0.13958333333333073</v>
+      </c>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="58">
+        <f>Q29-G39</f>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M39" s="58">
-        <f t="shared" si="24"/>
+      <c r="R39" s="58">
+        <f>R29-H39</f>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N39" s="58">
-        <f t="shared" si="24"/>
+      <c r="S39" s="58">
+        <f>S29-I39</f>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O39" s="58">
-        <f t="shared" si="24"/>
+      <c r="T39" s="58">
+        <f>T29-J39</f>
         <v>2.5487500000000125</v>
-      </c>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="93">
-        <f t="shared" ref="Q39:T39" si="25">Q29-G39</f>
-        <v>-0.13958333333333073</v>
-      </c>
-      <c r="R39" s="94">
-        <f t="shared" si="25"/>
-        <v>-0.13958333333333073</v>
-      </c>
-      <c r="S39" s="94">
-        <f t="shared" si="25"/>
-        <v>-0.13958333333333073</v>
-      </c>
-      <c r="T39" s="95">
-        <f t="shared" si="25"/>
-        <v>-0.13958333333333073</v>
       </c>
       <c r="U39" s="42"/>
       <c r="V39" s="86">
-        <f t="shared" ref="V39:Y39" si="26">V29-(G39+L39+Q39)</f>
+        <f>V29-(G39+Q39+L39)</f>
         <v>0.44624999999999559</v>
       </c>
       <c r="W39" s="86">
-        <f t="shared" si="26"/>
+        <f>W29-(H39+R39+M39)</f>
         <v>-2.2170833333333384</v>
       </c>
       <c r="X39" s="86">
-        <f t="shared" si="26"/>
+        <f>X29-(I39+S39+N39)</f>
         <v>1.2745833333333287</v>
       </c>
       <c r="Y39" s="86">
-        <f t="shared" si="26"/>
+        <f>Y29-(J39+T39+O39)</f>
         <v>0.4962499999999892</v>
       </c>
     </row>
@@ -11351,86 +11358,86 @@
         <v>23.42</v>
       </c>
       <c r="G40" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>22.764583333333331</v>
       </c>
       <c r="H40" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="I40" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>22.764583333333331</v>
       </c>
       <c r="J40" s="61">
-        <f t="shared" si="10"/>
-        <v>22.764583333333331</v>
-      </c>
-      <c r="L40" s="59">
-        <f t="shared" ref="L40:O40" si="27">L30-G40</f>
+        <f t="shared" si="8"/>
+        <v>22.764583333333331</v>
+      </c>
+      <c r="L40" s="93">
+        <f>L30-G40</f>
+        <v>-0.32458333333332945</v>
+      </c>
+      <c r="M40" s="94">
+        <f>M30-H40</f>
+        <v>-0.32458333333332945</v>
+      </c>
+      <c r="N40" s="94">
+        <f>N30-I40</f>
+        <v>-0.32458333333332945</v>
+      </c>
+      <c r="O40" s="95">
+        <f>O30-J40</f>
+        <v>-0.32458333333332945</v>
+      </c>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="59">
+        <f>Q30-G40</f>
         <v>0.32875000000000298</v>
       </c>
-      <c r="M40" s="59">
-        <f t="shared" si="27"/>
+      <c r="R40" s="59">
+        <f>R30-H40</f>
         <v>-2.7879166666666606</v>
       </c>
-      <c r="N40" s="59">
-        <f t="shared" si="27"/>
+      <c r="S40" s="59">
+        <f>S30-I40</f>
         <v>-8.9583333333330017E-2</v>
       </c>
-      <c r="O40" s="59">
-        <f t="shared" si="27"/>
+      <c r="T40" s="59">
+        <f>T30-J40</f>
         <v>2.5487500000000125</v>
-      </c>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="93">
-        <f t="shared" ref="Q40:T40" si="28">Q30-G40</f>
-        <v>-0.32458333333332945</v>
-      </c>
-      <c r="R40" s="94">
-        <f t="shared" si="28"/>
-        <v>-0.32458333333332945</v>
-      </c>
-      <c r="S40" s="94">
-        <f t="shared" si="28"/>
-        <v>-0.32458333333332945</v>
-      </c>
-      <c r="T40" s="95">
-        <f t="shared" si="28"/>
-        <v>-0.32458333333332945</v>
       </c>
       <c r="U40" s="42"/>
       <c r="V40" s="86">
-        <f t="shared" ref="V40:Y40" si="29">V30-(G40+L40+Q40)</f>
+        <f>V30-(G40+Q40+L40)</f>
         <v>0.58124999999999716</v>
       </c>
       <c r="W40" s="86">
-        <f t="shared" si="29"/>
+        <f>W30-(H40+R40+M40)</f>
         <v>2.0679166666666582</v>
       </c>
       <c r="X40" s="86">
-        <f t="shared" si="29"/>
+        <f>X30-(I40+S40+N40)</f>
         <v>-1.0804166666666717</v>
       </c>
       <c r="Y40" s="86">
-        <f t="shared" si="29"/>
+        <f>Y30-(J40+T40+O40)</f>
         <v>-1.5687500000000121</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
       <c r="K42" s="51" t="s">
         <v>60</v>
       </c>
@@ -11438,14 +11445,14 @@
       <c r="M42" s="102"/>
       <c r="N42" s="102"/>
       <c r="O42" s="102"/>
-      <c r="P42" s="51" t="s">
-        <v>60</v>
-      </c>
+      <c r="P42" s="51"/>
       <c r="Q42" s="102"/>
       <c r="R42" s="102"/>
       <c r="S42" s="102"/>
       <c r="T42" s="102"/>
-      <c r="U42" s="51"/>
+      <c r="U42" s="51" t="s">
+        <v>60</v>
+      </c>
       <c r="V42" s="102"/>
       <c r="W42" s="102"/>
       <c r="X42"/>
@@ -11453,54 +11460,54 @@
     </row>
     <row r="43" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="I43" s="101"/>
-      <c r="M43"/>
-      <c r="S43"/>
+      <c r="N43"/>
+      <c r="R43"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M44"/>
+      <c r="R44"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="L45" s="105" t="s">
+      <c r="Q45" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
-      <c r="O45" s="105"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="105"/>
+      <c r="T45" s="105"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
       <c r="G46" s="124" t="s">
         <v>144</v>
       </c>
       <c r="H46" s="124"/>
       <c r="I46" s="124"/>
       <c r="J46" s="124"/>
-      <c r="L46" s="12" t="s">
+      <c r="L46" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="124"/>
+      <c r="Q46" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="M46" s="12" t="s">
+      <c r="R46" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="N46" s="12" t="s">
+      <c r="S46" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="12" t="s">
+      <c r="T46" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q46" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="R46" s="124"/>
-      <c r="S46" s="124"/>
-      <c r="T46" s="124"/>
       <c r="V46" s="124" t="s">
         <v>48</v>
       </c>
@@ -11514,548 +11521,548 @@
         <v>365.57440000000003</v>
       </c>
       <c r="C47" s="46">
-        <f t="shared" ref="C47:E47" si="30">C35*C35</f>
+        <f t="shared" ref="C47:E47" si="10">C35*C35</f>
         <v>344.47359999999998</v>
       </c>
       <c r="D47" s="46">
+        <f t="shared" si="10"/>
+        <v>654.33639999999991</v>
+      </c>
+      <c r="E47" s="46">
+        <f t="shared" si="10"/>
+        <v>594.87210000000005</v>
+      </c>
+      <c r="G47" s="62">
+        <f t="shared" ref="G47:J47" si="11">G35*G35</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H47" s="63">
+        <f t="shared" si="11"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I47" s="63">
+        <f t="shared" si="11"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J47" s="64">
+        <f t="shared" si="11"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="L47" s="93">
+        <f t="shared" ref="L47:O47" si="12">L35*L35</f>
+        <v>0.72604600694443755</v>
+      </c>
+      <c r="M47" s="94">
+        <f t="shared" si="12"/>
+        <v>0.72604600694443755</v>
+      </c>
+      <c r="N47" s="94">
+        <f t="shared" si="12"/>
+        <v>0.72604600694443755</v>
+      </c>
+      <c r="O47" s="95">
+        <f t="shared" si="12"/>
+        <v>0.72604600694443755</v>
+      </c>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="57">
+        <f>Q35*Q35</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="R47" s="57">
+        <f>R35*R35</f>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="S47" s="57">
+        <f>S35*S35</f>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="T47" s="57">
+        <f>T35*T35</f>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="U47" s="42"/>
+      <c r="V47" s="86">
+        <f t="shared" ref="V47:Y47" si="13">V35*V35</f>
+        <v>9.7422015625000213</v>
+      </c>
+      <c r="W47" s="86">
+        <f t="shared" si="13"/>
+        <v>0.31875434027778765</v>
+      </c>
+      <c r="X47" s="86">
+        <f t="shared" si="13"/>
+        <v>14.115675173611063</v>
+      </c>
+      <c r="Y47" s="86">
+        <f t="shared" si="13"/>
+        <v>5.0765625000019033E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="46">
+        <f t="shared" ref="B48:E48" si="14">B36*B36</f>
+        <v>586.1241</v>
+      </c>
+      <c r="C48" s="86">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="D48" s="46">
+        <f t="shared" si="14"/>
+        <v>543.35609999999997</v>
+      </c>
+      <c r="E48" s="46">
+        <f t="shared" si="14"/>
+        <v>460.10249999999996</v>
+      </c>
+      <c r="G48" s="65">
+        <f t="shared" ref="G48:J48" si="15">G36*G36</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H48" s="33">
+        <f t="shared" si="15"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I48" s="33">
+        <f t="shared" si="15"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J48" s="60">
+        <f t="shared" si="15"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="L48" s="93">
+        <f t="shared" ref="L48:O48" si="16">L36*L36</f>
+        <v>0.27257100694444203</v>
+      </c>
+      <c r="M48" s="94">
+        <f t="shared" si="16"/>
+        <v>0.27257100694444203</v>
+      </c>
+      <c r="N48" s="94">
+        <f t="shared" si="16"/>
+        <v>0.27257100694444203</v>
+      </c>
+      <c r="O48" s="95">
+        <f t="shared" si="16"/>
+        <v>0.27257100694444203</v>
+      </c>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="58">
+        <f>Q36*Q36</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="R48" s="58">
+        <f>R36*R36</f>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="S48" s="58">
+        <f>S36*S36</f>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="T48" s="58">
+        <f>T36*T36</f>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="U48" s="42"/>
+      <c r="V48" s="86">
+        <f t="shared" ref="V48:Y48" si="17">V36*V36</f>
+        <v>2.6855015624999941</v>
+      </c>
+      <c r="W48" s="86">
+        <f t="shared" si="17"/>
+        <v>0.29747934027777145</v>
+      </c>
+      <c r="X48" s="86">
+        <f t="shared" si="17"/>
+        <v>1.3388418402777678</v>
+      </c>
+      <c r="Y48" s="86">
+        <f t="shared" si="17"/>
+        <v>11.163951562500086</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="46">
+        <f t="shared" ref="B49:E49" si="18">B37*B37</f>
+        <v>722.53439999999989</v>
+      </c>
+      <c r="C49" s="46">
+        <f t="shared" si="18"/>
+        <v>394.81690000000003</v>
+      </c>
+      <c r="D49" s="46">
+        <f t="shared" si="18"/>
+        <v>360.62009999999992</v>
+      </c>
+      <c r="E49" s="46">
+        <f t="shared" si="18"/>
+        <v>1071.9076000000002</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="65">
+        <f t="shared" ref="G49:J49" si="19">G37*G37</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H49" s="33">
+        <f t="shared" si="19"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I49" s="33">
+        <f t="shared" si="19"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J49" s="60">
+        <f t="shared" si="19"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="K49" s="25"/>
+      <c r="L49" s="93">
+        <f t="shared" ref="L49:O49" si="20">L37*L37</f>
+        <v>3.4425710069444446</v>
+      </c>
+      <c r="M49" s="94">
+        <f t="shared" si="20"/>
+        <v>3.4425710069444446</v>
+      </c>
+      <c r="N49" s="94">
+        <f t="shared" si="20"/>
+        <v>3.4425710069444446</v>
+      </c>
+      <c r="O49" s="95">
+        <f t="shared" si="20"/>
+        <v>3.4425710069444446</v>
+      </c>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="58">
+        <f>Q37*Q37</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="R49" s="58">
+        <f>R37*R37</f>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="S49" s="58">
+        <f>S37*S37</f>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="T49" s="58">
+        <f>T37*T37</f>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="U49" s="25"/>
+      <c r="V49" s="86">
+        <f t="shared" ref="V49:Y49" si="21">V37*V37</f>
+        <v>3.7297265624999945</v>
+      </c>
+      <c r="W49" s="86">
+        <f t="shared" si="21"/>
+        <v>3.8497710069444544</v>
+      </c>
+      <c r="X49" s="86">
+        <f t="shared" si="21"/>
+        <v>30.696216840277803</v>
+      </c>
+      <c r="Y49" s="86">
+        <f t="shared" si="21"/>
+        <v>31.03882656249991</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="46">
+        <f t="shared" ref="B50:E50" si="22">B38*B38</f>
+        <v>466.56000000000006</v>
+      </c>
+      <c r="C50" s="46">
+        <f t="shared" si="22"/>
+        <v>487.96809999999999</v>
+      </c>
+      <c r="D50" s="46">
+        <f t="shared" si="22"/>
+        <v>533.1481</v>
+      </c>
+      <c r="E50" s="46">
+        <f t="shared" si="22"/>
+        <v>586.1241</v>
+      </c>
+      <c r="G50" s="65">
+        <f t="shared" ref="G50:J50" si="23">G38*G38</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H50" s="33">
+        <f t="shared" si="23"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I50" s="33">
+        <f t="shared" si="23"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J50" s="60">
+        <f t="shared" si="23"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="L50" s="93">
+        <f t="shared" ref="L50:O50" si="24">L38*L38</f>
+        <v>2.9184027777761105E-4</v>
+      </c>
+      <c r="M50" s="94">
+        <f t="shared" si="24"/>
+        <v>2.9184027777761105E-4</v>
+      </c>
+      <c r="N50" s="94">
+        <f t="shared" si="24"/>
+        <v>2.9184027777761105E-4</v>
+      </c>
+      <c r="O50" s="95">
+        <f t="shared" si="24"/>
+        <v>2.9184027777761105E-4</v>
+      </c>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="58">
+        <f>Q38*Q38</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="R50" s="58">
+        <f>R38*R38</f>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="S50" s="58">
+        <f>S38*S38</f>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="T50" s="58">
+        <f>T38*T38</f>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="U50" s="42"/>
+      <c r="V50" s="86">
+        <f t="shared" ref="V50:Y50" si="25">V38*V38</f>
+        <v>2.1793140625000111</v>
+      </c>
+      <c r="W50" s="86">
+        <f t="shared" si="25"/>
+        <v>4.5386751736110753</v>
+      </c>
+      <c r="X50" s="86">
+        <f t="shared" si="25"/>
+        <v>0.1866960069444395</v>
+      </c>
+      <c r="Y50" s="86">
+        <f t="shared" si="25"/>
+        <v>1.1799390625000303</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="46">
+        <f t="shared" ref="B51:E51" si="26">B39*B39</f>
+        <v>547.55999999999995</v>
+      </c>
+      <c r="C51" s="46">
+        <f t="shared" si="26"/>
+        <v>310.46440000000001</v>
+      </c>
+      <c r="D51" s="46">
+        <f t="shared" si="26"/>
+        <v>566.91609999999991</v>
+      </c>
+      <c r="E51" s="46">
+        <f t="shared" si="26"/>
+        <v>658.94890000000009</v>
+      </c>
+      <c r="G51" s="65">
+        <f t="shared" ref="G51:J51" si="27">G39*G39</f>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="H51" s="33">
+        <f t="shared" si="27"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="I51" s="33">
+        <f t="shared" si="27"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="J51" s="60">
+        <f t="shared" si="27"/>
+        <v>518.22625434027771</v>
+      </c>
+      <c r="L51" s="93">
+        <f t="shared" ref="L51:O51" si="28">L39*L39</f>
+        <v>1.9483506944443719E-2</v>
+      </c>
+      <c r="M51" s="94">
+        <f t="shared" si="28"/>
+        <v>1.9483506944443719E-2</v>
+      </c>
+      <c r="N51" s="94">
+        <f t="shared" si="28"/>
+        <v>1.9483506944443719E-2</v>
+      </c>
+      <c r="O51" s="95">
+        <f t="shared" si="28"/>
+        <v>1.9483506944443719E-2</v>
+      </c>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="58">
+        <f>Q39*Q39</f>
+        <v>0.10807656250000196</v>
+      </c>
+      <c r="R51" s="58">
+        <f>R39*R39</f>
+        <v>7.7724793402777443</v>
+      </c>
+      <c r="S51" s="58">
+        <f>S39*S39</f>
+        <v>8.0251736111105164E-3</v>
+      </c>
+      <c r="T51" s="58">
+        <f>T39*T39</f>
+        <v>6.4961265625000637</v>
+      </c>
+      <c r="U51" s="42"/>
+      <c r="V51" s="86">
+        <f t="shared" ref="V51:Y51" si="29">V39*V39</f>
+        <v>0.19913906249999608</v>
+      </c>
+      <c r="W51" s="86">
+        <f t="shared" si="29"/>
+        <v>4.915458506944467</v>
+      </c>
+      <c r="X51" s="86">
+        <f t="shared" si="29"/>
+        <v>1.6245626736110994</v>
+      </c>
+      <c r="Y51" s="86">
+        <f t="shared" si="29"/>
+        <v>0.24626406249998928</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="46">
+        <f t="shared" ref="B52:E52" si="30">B40*B40</f>
+        <v>545.22250000000008</v>
+      </c>
+      <c r="C52" s="46">
         <f t="shared" si="30"/>
-        <v>654.33639999999991</v>
-      </c>
-      <c r="E47" s="46">
+        <v>471.75839999999994</v>
+      </c>
+      <c r="D52" s="46">
         <f t="shared" si="30"/>
-        <v>594.87210000000005</v>
-      </c>
-      <c r="G47" s="62">
-        <f t="shared" ref="G47:J47" si="31">G35*G35</f>
+        <v>452.41289999999998</v>
+      </c>
+      <c r="E52" s="46">
+        <f t="shared" si="30"/>
+        <v>548.49640000000011</v>
+      </c>
+      <c r="G52" s="66">
+        <f t="shared" ref="G52:J52" si="31">G40*G40</f>
         <v>518.22625434027771</v>
       </c>
-      <c r="H47" s="63">
+      <c r="H52" s="67">
         <f t="shared" si="31"/>
         <v>518.22625434027771</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I52" s="67">
         <f t="shared" si="31"/>
         <v>518.22625434027771</v>
       </c>
-      <c r="J47" s="64">
+      <c r="J52" s="61">
         <f t="shared" si="31"/>
         <v>518.22625434027771</v>
       </c>
-      <c r="L47" s="57">
-        <f t="shared" ref="L47:O47" si="32">L35*L35</f>
+      <c r="L52" s="93">
+        <f t="shared" ref="L52:O52" si="32">L40*L40</f>
+        <v>0.10535434027777525</v>
+      </c>
+      <c r="M52" s="94">
+        <f t="shared" si="32"/>
+        <v>0.10535434027777525</v>
+      </c>
+      <c r="N52" s="94">
+        <f t="shared" si="32"/>
+        <v>0.10535434027777525</v>
+      </c>
+      <c r="O52" s="95">
+        <f t="shared" si="32"/>
+        <v>0.10535434027777525</v>
+      </c>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="59">
+        <f>Q40*Q40</f>
         <v>0.10807656250000196</v>
       </c>
-      <c r="M47" s="57">
-        <f t="shared" si="32"/>
+      <c r="R52" s="59">
+        <f>R40*R40</f>
         <v>7.7724793402777443</v>
       </c>
-      <c r="N47" s="57">
-        <f t="shared" si="32"/>
+      <c r="S52" s="59">
+        <f>S40*S40</f>
         <v>8.0251736111105164E-3</v>
       </c>
-      <c r="O47" s="57">
-        <f t="shared" si="32"/>
+      <c r="T52" s="59">
+        <f>T40*T40</f>
         <v>6.4961265625000637</v>
-      </c>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="93">
-        <f t="shared" ref="Q47:T47" si="33">Q35*Q35</f>
-        <v>0.72604600694443755</v>
-      </c>
-      <c r="R47" s="94">
-        <f t="shared" si="33"/>
-        <v>0.72604600694443755</v>
-      </c>
-      <c r="S47" s="94">
-        <f t="shared" si="33"/>
-        <v>0.72604600694443755</v>
-      </c>
-      <c r="T47" s="95">
-        <f t="shared" si="33"/>
-        <v>0.72604600694443755</v>
-      </c>
-      <c r="U47" s="42"/>
-      <c r="V47" s="86">
-        <f t="shared" ref="V47:Y47" si="34">V35*V35</f>
-        <v>9.7422015625000213</v>
-      </c>
-      <c r="W47" s="86">
-        <f t="shared" si="34"/>
-        <v>0.31875434027778765</v>
-      </c>
-      <c r="X47" s="86">
-        <f t="shared" si="34"/>
-        <v>14.115675173611063</v>
-      </c>
-      <c r="Y47" s="86">
-        <f t="shared" si="34"/>
-        <v>5.0765625000019033E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="46">
-        <f t="shared" ref="B48:E48" si="35">B36*B36</f>
-        <v>586.1241</v>
-      </c>
-      <c r="C48" s="86">
-        <f t="shared" si="35"/>
-        <v>400</v>
-      </c>
-      <c r="D48" s="46">
-        <f t="shared" si="35"/>
-        <v>543.35609999999997</v>
-      </c>
-      <c r="E48" s="46">
-        <f t="shared" si="35"/>
-        <v>460.10249999999996</v>
-      </c>
-      <c r="G48" s="65">
-        <f t="shared" ref="G48:J48" si="36">G36*G36</f>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="H48" s="33">
-        <f t="shared" si="36"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="I48" s="33">
-        <f t="shared" si="36"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="J48" s="60">
-        <f t="shared" si="36"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="L48" s="58">
-        <f t="shared" ref="L48:O48" si="37">L36*L36</f>
-        <v>0.10807656250000196</v>
-      </c>
-      <c r="M48" s="58">
-        <f t="shared" si="37"/>
-        <v>7.7724793402777443</v>
-      </c>
-      <c r="N48" s="58">
-        <f t="shared" si="37"/>
-        <v>8.0251736111105164E-3</v>
-      </c>
-      <c r="O48" s="58">
-        <f t="shared" si="37"/>
-        <v>6.4961265625000637</v>
-      </c>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="93">
-        <f t="shared" ref="Q48:T48" si="38">Q36*Q36</f>
-        <v>0.27257100694444203</v>
-      </c>
-      <c r="R48" s="94">
-        <f t="shared" si="38"/>
-        <v>0.27257100694444203</v>
-      </c>
-      <c r="S48" s="94">
-        <f t="shared" si="38"/>
-        <v>0.27257100694444203</v>
-      </c>
-      <c r="T48" s="95">
-        <f t="shared" si="38"/>
-        <v>0.27257100694444203</v>
-      </c>
-      <c r="U48" s="42"/>
-      <c r="V48" s="86">
-        <f t="shared" ref="V48:Y48" si="39">V36*V36</f>
-        <v>2.6855015624999941</v>
-      </c>
-      <c r="W48" s="86">
-        <f t="shared" si="39"/>
-        <v>0.29747934027777145</v>
-      </c>
-      <c r="X48" s="86">
-        <f t="shared" si="39"/>
-        <v>1.3388418402777678</v>
-      </c>
-      <c r="Y48" s="86">
-        <f t="shared" si="39"/>
-        <v>11.163951562500086</v>
-      </c>
-    </row>
-    <row r="49" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="46">
-        <f t="shared" ref="B49:E49" si="40">B37*B37</f>
-        <v>722.53439999999989</v>
-      </c>
-      <c r="C49" s="46">
-        <f t="shared" si="40"/>
-        <v>394.81690000000003</v>
-      </c>
-      <c r="D49" s="46">
-        <f t="shared" si="40"/>
-        <v>360.62009999999992</v>
-      </c>
-      <c r="E49" s="46">
-        <f t="shared" si="40"/>
-        <v>1071.9076000000002</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="65">
-        <f t="shared" ref="G49:J49" si="41">G37*G37</f>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="H49" s="33">
-        <f t="shared" si="41"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="I49" s="33">
-        <f t="shared" si="41"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="J49" s="60">
-        <f t="shared" si="41"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="58">
-        <f t="shared" ref="L49:O49" si="42">L37*L37</f>
-        <v>0.10807656250000196</v>
-      </c>
-      <c r="M49" s="58">
-        <f t="shared" si="42"/>
-        <v>7.7724793402777443</v>
-      </c>
-      <c r="N49" s="58">
-        <f t="shared" si="42"/>
-        <v>8.0251736111105164E-3</v>
-      </c>
-      <c r="O49" s="58">
-        <f t="shared" si="42"/>
-        <v>6.4961265625000637</v>
-      </c>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="93">
-        <f t="shared" ref="Q49:T49" si="43">Q37*Q37</f>
-        <v>3.4425710069444446</v>
-      </c>
-      <c r="R49" s="94">
-        <f t="shared" si="43"/>
-        <v>3.4425710069444446</v>
-      </c>
-      <c r="S49" s="94">
-        <f t="shared" si="43"/>
-        <v>3.4425710069444446</v>
-      </c>
-      <c r="T49" s="95">
-        <f t="shared" si="43"/>
-        <v>3.4425710069444446</v>
-      </c>
-      <c r="U49" s="25"/>
-      <c r="V49" s="86">
-        <f t="shared" ref="V49:Y49" si="44">V37*V37</f>
-        <v>3.7297265624999945</v>
-      </c>
-      <c r="W49" s="86">
-        <f t="shared" si="44"/>
-        <v>3.8497710069444544</v>
-      </c>
-      <c r="X49" s="86">
-        <f t="shared" si="44"/>
-        <v>30.696216840277803</v>
-      </c>
-      <c r="Y49" s="86">
-        <f t="shared" si="44"/>
-        <v>31.03882656249991</v>
-      </c>
-    </row>
-    <row r="50" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="46">
-        <f t="shared" ref="B50:E50" si="45">B38*B38</f>
-        <v>466.56000000000006</v>
-      </c>
-      <c r="C50" s="46">
-        <f t="shared" si="45"/>
-        <v>487.96809999999999</v>
-      </c>
-      <c r="D50" s="46">
-        <f t="shared" si="45"/>
-        <v>533.1481</v>
-      </c>
-      <c r="E50" s="46">
-        <f t="shared" si="45"/>
-        <v>586.1241</v>
-      </c>
-      <c r="G50" s="65">
-        <f t="shared" ref="G50:J50" si="46">G38*G38</f>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="H50" s="33">
-        <f t="shared" si="46"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="I50" s="33">
-        <f t="shared" si="46"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="J50" s="60">
-        <f t="shared" si="46"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="L50" s="58">
-        <f t="shared" ref="L50:O50" si="47">L38*L38</f>
-        <v>0.10807656250000196</v>
-      </c>
-      <c r="M50" s="58">
-        <f t="shared" si="47"/>
-        <v>7.7724793402777443</v>
-      </c>
-      <c r="N50" s="58">
-        <f t="shared" si="47"/>
-        <v>8.0251736111105164E-3</v>
-      </c>
-      <c r="O50" s="58">
-        <f t="shared" si="47"/>
-        <v>6.4961265625000637</v>
-      </c>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="93">
-        <f t="shared" ref="Q50:T50" si="48">Q38*Q38</f>
-        <v>2.9184027777761105E-4</v>
-      </c>
-      <c r="R50" s="94">
-        <f t="shared" si="48"/>
-        <v>2.9184027777761105E-4</v>
-      </c>
-      <c r="S50" s="94">
-        <f t="shared" si="48"/>
-        <v>2.9184027777761105E-4</v>
-      </c>
-      <c r="T50" s="95">
-        <f t="shared" si="48"/>
-        <v>2.9184027777761105E-4</v>
-      </c>
-      <c r="U50" s="42"/>
-      <c r="V50" s="86">
-        <f t="shared" ref="V50:Y50" si="49">V38*V38</f>
-        <v>2.1793140625000111</v>
-      </c>
-      <c r="W50" s="86">
-        <f t="shared" si="49"/>
-        <v>4.5386751736110753</v>
-      </c>
-      <c r="X50" s="86">
-        <f t="shared" si="49"/>
-        <v>0.1866960069444395</v>
-      </c>
-      <c r="Y50" s="86">
-        <f t="shared" si="49"/>
-        <v>1.1799390625000303</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="46">
-        <f t="shared" ref="B51:E51" si="50">B39*B39</f>
-        <v>547.55999999999995</v>
-      </c>
-      <c r="C51" s="46">
-        <f t="shared" si="50"/>
-        <v>310.46440000000001</v>
-      </c>
-      <c r="D51" s="46">
-        <f t="shared" si="50"/>
-        <v>566.91609999999991</v>
-      </c>
-      <c r="E51" s="46">
-        <f t="shared" si="50"/>
-        <v>658.94890000000009</v>
-      </c>
-      <c r="G51" s="65">
-        <f t="shared" ref="G51:J51" si="51">G39*G39</f>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="H51" s="33">
-        <f t="shared" si="51"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="I51" s="33">
-        <f t="shared" si="51"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="J51" s="60">
-        <f t="shared" si="51"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="L51" s="58">
-        <f t="shared" ref="L51:O51" si="52">L39*L39</f>
-        <v>0.10807656250000196</v>
-      </c>
-      <c r="M51" s="58">
-        <f t="shared" si="52"/>
-        <v>7.7724793402777443</v>
-      </c>
-      <c r="N51" s="58">
-        <f t="shared" si="52"/>
-        <v>8.0251736111105164E-3</v>
-      </c>
-      <c r="O51" s="58">
-        <f t="shared" si="52"/>
-        <v>6.4961265625000637</v>
-      </c>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="93">
-        <f t="shared" ref="Q51:T51" si="53">Q39*Q39</f>
-        <v>1.9483506944443719E-2</v>
-      </c>
-      <c r="R51" s="94">
-        <f t="shared" si="53"/>
-        <v>1.9483506944443719E-2</v>
-      </c>
-      <c r="S51" s="94">
-        <f t="shared" si="53"/>
-        <v>1.9483506944443719E-2</v>
-      </c>
-      <c r="T51" s="95">
-        <f t="shared" si="53"/>
-        <v>1.9483506944443719E-2</v>
-      </c>
-      <c r="U51" s="42"/>
-      <c r="V51" s="86">
-        <f t="shared" ref="V51:Y51" si="54">V39*V39</f>
-        <v>0.19913906249999608</v>
-      </c>
-      <c r="W51" s="86">
-        <f t="shared" si="54"/>
-        <v>4.915458506944467</v>
-      </c>
-      <c r="X51" s="86">
-        <f t="shared" si="54"/>
-        <v>1.6245626736110994</v>
-      </c>
-      <c r="Y51" s="86">
-        <f t="shared" si="54"/>
-        <v>0.24626406249998928</v>
-      </c>
-    </row>
-    <row r="52" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="46">
-        <f t="shared" ref="B52:E52" si="55">B40*B40</f>
-        <v>545.22250000000008</v>
-      </c>
-      <c r="C52" s="46">
-        <f t="shared" si="55"/>
-        <v>471.75839999999994</v>
-      </c>
-      <c r="D52" s="46">
-        <f t="shared" si="55"/>
-        <v>452.41289999999998</v>
-      </c>
-      <c r="E52" s="46">
-        <f t="shared" si="55"/>
-        <v>548.49640000000011</v>
-      </c>
-      <c r="G52" s="66">
-        <f t="shared" ref="G52:J52" si="56">G40*G40</f>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="H52" s="67">
-        <f t="shared" si="56"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="I52" s="67">
-        <f t="shared" si="56"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="J52" s="61">
-        <f t="shared" si="56"/>
-        <v>518.22625434027771</v>
-      </c>
-      <c r="L52" s="59">
-        <f t="shared" ref="L52:O52" si="57">L40*L40</f>
-        <v>0.10807656250000196</v>
-      </c>
-      <c r="M52" s="59">
-        <f t="shared" si="57"/>
-        <v>7.7724793402777443</v>
-      </c>
-      <c r="N52" s="59">
-        <f t="shared" si="57"/>
-        <v>8.0251736111105164E-3</v>
-      </c>
-      <c r="O52" s="59">
-        <f t="shared" si="57"/>
-        <v>6.4961265625000637</v>
-      </c>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="93">
-        <f t="shared" ref="Q52:T52" si="58">Q40*Q40</f>
-        <v>0.10535434027777525</v>
-      </c>
-      <c r="R52" s="94">
-        <f t="shared" si="58"/>
-        <v>0.10535434027777525</v>
-      </c>
-      <c r="S52" s="94">
-        <f t="shared" si="58"/>
-        <v>0.10535434027777525</v>
-      </c>
-      <c r="T52" s="95">
-        <f t="shared" si="58"/>
-        <v>0.10535434027777525</v>
       </c>
       <c r="U52" s="42"/>
       <c r="V52" s="86">
-        <f t="shared" ref="V52:Y52" si="59">V40*V40</f>
+        <f t="shared" ref="V52:Y52" si="33">V40*V40</f>
         <v>0.3378515624999967</v>
       </c>
       <c r="W52" s="86">
-        <f t="shared" si="59"/>
+        <f t="shared" si="33"/>
         <v>4.2762793402777426</v>
       </c>
       <c r="X52" s="86">
-        <f t="shared" si="59"/>
+        <f t="shared" si="33"/>
         <v>1.1673001736111219</v>
       </c>
       <c r="Y52" s="86">
-        <f t="shared" si="59"/>
+        <f t="shared" si="33"/>
         <v>2.4609765625000377</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="G3:J8"/>
-    <mergeCell ref="L3:L8"/>
-    <mergeCell ref="M3:M8"/>
-    <mergeCell ref="N3:N8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="G14:J19"/>
-    <mergeCell ref="L14:L19"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="N14:N19"/>
-    <mergeCell ref="O14:O19"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="V34:Y34"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="G46:J46"/>
-    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="L46:O46"/>
     <mergeCell ref="V46:Y46"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="G42:J42"/>
-    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="G14:J19"/>
+    <mergeCell ref="Q14:Q19"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="R14:R19"/>
+    <mergeCell ref="S14:S19"/>
+    <mergeCell ref="T14:T19"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="G3:J8"/>
+    <mergeCell ref="Q3:Q8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:S8"/>
+    <mergeCell ref="T3:T8"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="Q2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13487,17 +13494,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="L12:O12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
